--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769FD619-3118-4967-9DE1-5219EA5DA6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538B31B-C451-4E17-8015-90079A9990B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'１．機能概要'!$A$1:$BG$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'２．レイアウト'!$A$1:$DH$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'３．項目一覧'!$A$1:$Q$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'５．メッセージ仕様'!$A$1:$AZ$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'６．補足事項'!$A$1:$AZ$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AW$35</definedName>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="446">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1831,10 +1831,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>・実績管理データ.品名コード</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>・生産製品マスタ.客先部品番号</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -2379,10 +2375,6 @@
     <rPh sb="5" eb="8">
       <t>ジギョウショ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実績管理データのパック品名略称</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2503,25 +2495,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>受払データに当該品名の受払区分が'8'(その他払出)の件数-受払区分が'A'(その他払出取消)の件数</t>
-    <rPh sb="0" eb="2">
-      <t>ウケハライ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>トリケシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>３．３．１　詳細</t>
     <rPh sb="6" eb="8">
       <t>ショウサイ</t>
@@ -3048,6 +3021,29 @@
       <t>セツビ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタの品名略称</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受払データに当該品名の受払区分が'8'(その他払出)の件数</t>
+    <rPh sb="0" eb="2">
+      <t>ウケハライ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RSLT-CNT1-011</t>
   </si>
 </sst>
 </file>
@@ -3536,7 +3532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -3943,91 +3939,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4055,6 +3966,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4073,22 +4081,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4126,6 +4122,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6150,1779 +6149,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="174"/>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="174"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="143"/>
+      <c r="AQ2" s="143"/>
+      <c r="AR2" s="143"/>
+      <c r="AS2" s="143"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175" t="s">
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="176" t="s">
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="175" t="s">
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175" t="s">
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="175"/>
-      <c r="AN3" s="175" t="s">
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="144"/>
+      <c r="AH3" s="144"/>
+      <c r="AI3" s="144"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175" t="s">
+      <c r="AO3" s="144"/>
+      <c r="AP3" s="144"/>
+      <c r="AQ3" s="144"/>
+      <c r="AR3" s="144"/>
+      <c r="AS3" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="144"/>
+      <c r="AV3" s="144"/>
+      <c r="AW3" s="144"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="181"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
-      <c r="W4" s="175"/>
-      <c r="X4" s="175"/>
-      <c r="Y4" s="175"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
-      <c r="AD4" s="175"/>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="175"/>
-      <c r="AJ4" s="175"/>
-      <c r="AK4" s="175"/>
-      <c r="AL4" s="175"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="175"/>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="175"/>
-      <c r="AR4" s="175"/>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="175"/>
-      <c r="AV4" s="175"/>
-      <c r="AW4" s="175"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="144"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="167">
+      <c r="B5" s="152">
         <v>1</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="148">
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153">
         <v>43734</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="149" t="s">
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="150"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="149" t="s">
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="155" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="166" t="s">
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="166"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="166"/>
-      <c r="AN5" s="155" t="s">
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="160"/>
+      <c r="AN5" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="155"/>
-      <c r="AP5" s="155"/>
-      <c r="AQ5" s="155"/>
-      <c r="AR5" s="155"/>
-      <c r="AS5" s="155"/>
-      <c r="AT5" s="155"/>
-      <c r="AU5" s="155"/>
-      <c r="AV5" s="155"/>
-      <c r="AW5" s="155"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AR5" s="151"/>
+      <c r="AS5" s="151"/>
+      <c r="AT5" s="151"/>
+      <c r="AU5" s="151"/>
+      <c r="AV5" s="151"/>
+      <c r="AW5" s="151"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="155"/>
-      <c r="AO6" s="155"/>
-      <c r="AP6" s="155"/>
-      <c r="AQ6" s="155"/>
-      <c r="AR6" s="155"/>
-      <c r="AS6" s="155"/>
-      <c r="AT6" s="155"/>
-      <c r="AU6" s="155"/>
-      <c r="AV6" s="155"/>
-      <c r="AW6" s="155"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="160"/>
+      <c r="Y6" s="160"/>
+      <c r="Z6" s="160"/>
+      <c r="AA6" s="160"/>
+      <c r="AB6" s="160"/>
+      <c r="AC6" s="160"/>
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="160"/>
+      <c r="AF6" s="160"/>
+      <c r="AG6" s="160"/>
+      <c r="AH6" s="160"/>
+      <c r="AI6" s="160"/>
+      <c r="AJ6" s="160"/>
+      <c r="AK6" s="160"/>
+      <c r="AL6" s="160"/>
+      <c r="AM6" s="160"/>
+      <c r="AN6" s="151"/>
+      <c r="AO6" s="151"/>
+      <c r="AP6" s="151"/>
+      <c r="AQ6" s="151"/>
+      <c r="AR6" s="151"/>
+      <c r="AS6" s="151"/>
+      <c r="AT6" s="151"/>
+      <c r="AU6" s="151"/>
+      <c r="AV6" s="151"/>
+      <c r="AW6" s="151"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="166"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="166"/>
-      <c r="AJ7" s="166"/>
-      <c r="AK7" s="166"/>
-      <c r="AL7" s="166"/>
-      <c r="AM7" s="166"/>
-      <c r="AN7" s="155"/>
-      <c r="AO7" s="155"/>
-      <c r="AP7" s="155"/>
-      <c r="AQ7" s="155"/>
-      <c r="AR7" s="155"/>
-      <c r="AS7" s="155"/>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
-      <c r="AV7" s="155"/>
-      <c r="AW7" s="155"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="160"/>
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="160"/>
+      <c r="AJ7" s="160"/>
+      <c r="AK7" s="160"/>
+      <c r="AL7" s="160"/>
+      <c r="AM7" s="160"/>
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="151"/>
+      <c r="AP7" s="151"/>
+      <c r="AQ7" s="151"/>
+      <c r="AR7" s="151"/>
+      <c r="AS7" s="151"/>
+      <c r="AT7" s="151"/>
+      <c r="AU7" s="151"/>
+      <c r="AV7" s="151"/>
+      <c r="AW7" s="151"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="155"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="166"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="166"/>
-      <c r="AC8" s="166"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="166"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="166"/>
-      <c r="AH8" s="166"/>
-      <c r="AI8" s="166"/>
-      <c r="AJ8" s="166"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="155"/>
-      <c r="AP8" s="155"/>
-      <c r="AQ8" s="155"/>
-      <c r="AR8" s="155"/>
-      <c r="AS8" s="155"/>
-      <c r="AT8" s="155"/>
-      <c r="AU8" s="155"/>
-      <c r="AV8" s="155"/>
-      <c r="AW8" s="155"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="160"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="160"/>
+      <c r="AI8" s="160"/>
+      <c r="AJ8" s="160"/>
+      <c r="AK8" s="160"/>
+      <c r="AL8" s="160"/>
+      <c r="AM8" s="160"/>
+      <c r="AN8" s="151"/>
+      <c r="AO8" s="151"/>
+      <c r="AP8" s="151"/>
+      <c r="AQ8" s="151"/>
+      <c r="AR8" s="151"/>
+      <c r="AS8" s="151"/>
+      <c r="AT8" s="151"/>
+      <c r="AU8" s="151"/>
+      <c r="AV8" s="151"/>
+      <c r="AW8" s="151"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="166"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="166"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="166"/>
-      <c r="AL9" s="166"/>
-      <c r="AM9" s="166"/>
-      <c r="AN9" s="155"/>
-      <c r="AO9" s="155"/>
-      <c r="AP9" s="155"/>
-      <c r="AQ9" s="155"/>
-      <c r="AR9" s="155"/>
-      <c r="AS9" s="155"/>
-      <c r="AT9" s="155"/>
-      <c r="AU9" s="155"/>
-      <c r="AV9" s="155"/>
-      <c r="AW9" s="155"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="160"/>
+      <c r="AC9" s="160"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="160"/>
+      <c r="AJ9" s="160"/>
+      <c r="AK9" s="160"/>
+      <c r="AL9" s="160"/>
+      <c r="AM9" s="160"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="151"/>
+      <c r="AQ9" s="151"/>
+      <c r="AR9" s="151"/>
+      <c r="AS9" s="151"/>
+      <c r="AT9" s="151"/>
+      <c r="AU9" s="151"/>
+      <c r="AV9" s="151"/>
+      <c r="AW9" s="151"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="166"/>
-      <c r="AJ10" s="166"/>
-      <c r="AK10" s="166"/>
-      <c r="AL10" s="166"/>
-      <c r="AM10" s="166"/>
-      <c r="AN10" s="155"/>
-      <c r="AO10" s="155"/>
-      <c r="AP10" s="155"/>
-      <c r="AQ10" s="155"/>
-      <c r="AR10" s="155"/>
-      <c r="AS10" s="155"/>
-      <c r="AT10" s="155"/>
-      <c r="AU10" s="155"/>
-      <c r="AV10" s="155"/>
-      <c r="AW10" s="155"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="160"/>
+      <c r="AD10" s="160"/>
+      <c r="AE10" s="160"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="160"/>
+      <c r="AH10" s="160"/>
+      <c r="AI10" s="160"/>
+      <c r="AJ10" s="160"/>
+      <c r="AK10" s="160"/>
+      <c r="AL10" s="160"/>
+      <c r="AM10" s="160"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
+      <c r="AQ10" s="151"/>
+      <c r="AR10" s="151"/>
+      <c r="AS10" s="151"/>
+      <c r="AT10" s="151"/>
+      <c r="AU10" s="151"/>
+      <c r="AV10" s="151"/>
+      <c r="AW10" s="151"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="168"/>
-      <c r="AD11" s="168"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="168"/>
-      <c r="AH11" s="168"/>
-      <c r="AI11" s="168"/>
-      <c r="AJ11" s="168"/>
-      <c r="AK11" s="168"/>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="169"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="155"/>
-      <c r="AP11" s="155"/>
-      <c r="AQ11" s="155"/>
-      <c r="AR11" s="155"/>
-      <c r="AS11" s="155"/>
-      <c r="AT11" s="155"/>
-      <c r="AU11" s="155"/>
-      <c r="AV11" s="155"/>
-      <c r="AW11" s="155"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="173"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="173"/>
+      <c r="AL11" s="173"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
+      <c r="AQ11" s="151"/>
+      <c r="AR11" s="151"/>
+      <c r="AS11" s="151"/>
+      <c r="AT11" s="151"/>
+      <c r="AU11" s="151"/>
+      <c r="AV11" s="151"/>
+      <c r="AW11" s="151"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="157"/>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="157"/>
-      <c r="AJ12" s="157"/>
-      <c r="AK12" s="157"/>
-      <c r="AL12" s="157"/>
-      <c r="AM12" s="158"/>
-      <c r="AN12" s="142"/>
-      <c r="AO12" s="143"/>
-      <c r="AP12" s="143"/>
-      <c r="AQ12" s="143"/>
-      <c r="AR12" s="144"/>
-      <c r="AS12" s="142"/>
-      <c r="AT12" s="143"/>
-      <c r="AU12" s="143"/>
-      <c r="AV12" s="143"/>
-      <c r="AW12" s="144"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="P12" s="165"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="167"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="168"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="168"/>
+      <c r="AJ12" s="168"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="168"/>
+      <c r="AM12" s="169"/>
+      <c r="AN12" s="170"/>
+      <c r="AO12" s="171"/>
+      <c r="AP12" s="171"/>
+      <c r="AQ12" s="171"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="170"/>
+      <c r="AT12" s="171"/>
+      <c r="AU12" s="171"/>
+      <c r="AV12" s="171"/>
+      <c r="AW12" s="172"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="157"/>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="158"/>
-      <c r="AN13" s="142"/>
-      <c r="AO13" s="143"/>
-      <c r="AP13" s="143"/>
-      <c r="AQ13" s="143"/>
-      <c r="AR13" s="144"/>
-      <c r="AS13" s="142"/>
-      <c r="AT13" s="143"/>
-      <c r="AU13" s="143"/>
-      <c r="AV13" s="143"/>
-      <c r="AW13" s="144"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="168"/>
+      <c r="AJ13" s="168"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="169"/>
+      <c r="AN13" s="170"/>
+      <c r="AO13" s="171"/>
+      <c r="AP13" s="171"/>
+      <c r="AQ13" s="171"/>
+      <c r="AR13" s="172"/>
+      <c r="AS13" s="170"/>
+      <c r="AT13" s="171"/>
+      <c r="AU13" s="171"/>
+      <c r="AV13" s="171"/>
+      <c r="AW13" s="172"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="166"/>
-      <c r="AF14" s="166"/>
-      <c r="AG14" s="166"/>
-      <c r="AH14" s="166"/>
-      <c r="AI14" s="166"/>
-      <c r="AJ14" s="166"/>
-      <c r="AK14" s="166"/>
-      <c r="AL14" s="166"/>
-      <c r="AM14" s="166"/>
-      <c r="AN14" s="155"/>
-      <c r="AO14" s="155"/>
-      <c r="AP14" s="155"/>
-      <c r="AQ14" s="155"/>
-      <c r="AR14" s="155"/>
-      <c r="AS14" s="142"/>
-      <c r="AT14" s="143"/>
-      <c r="AU14" s="143"/>
-      <c r="AV14" s="143"/>
-      <c r="AW14" s="144"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="165"/>
+      <c r="O14" s="165"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="160"/>
+      <c r="AJ14" s="160"/>
+      <c r="AK14" s="160"/>
+      <c r="AL14" s="160"/>
+      <c r="AM14" s="160"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
+      <c r="AQ14" s="151"/>
+      <c r="AR14" s="151"/>
+      <c r="AS14" s="170"/>
+      <c r="AT14" s="171"/>
+      <c r="AU14" s="171"/>
+      <c r="AV14" s="171"/>
+      <c r="AW14" s="172"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="158"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="143"/>
-      <c r="AP15" s="143"/>
-      <c r="AQ15" s="143"/>
-      <c r="AR15" s="144"/>
-      <c r="AS15" s="142"/>
-      <c r="AT15" s="143"/>
-      <c r="AU15" s="143"/>
-      <c r="AV15" s="143"/>
-      <c r="AW15" s="144"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="168"/>
+      <c r="AH15" s="168"/>
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="168"/>
+      <c r="AK15" s="168"/>
+      <c r="AL15" s="168"/>
+      <c r="AM15" s="169"/>
+      <c r="AN15" s="170"/>
+      <c r="AO15" s="171"/>
+      <c r="AP15" s="171"/>
+      <c r="AQ15" s="171"/>
+      <c r="AR15" s="172"/>
+      <c r="AS15" s="170"/>
+      <c r="AT15" s="171"/>
+      <c r="AU15" s="171"/>
+      <c r="AV15" s="171"/>
+      <c r="AW15" s="172"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="158"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="143"/>
-      <c r="AP16" s="143"/>
-      <c r="AQ16" s="143"/>
-      <c r="AR16" s="144"/>
-      <c r="AS16" s="142"/>
-      <c r="AT16" s="143"/>
-      <c r="AU16" s="143"/>
-      <c r="AV16" s="143"/>
-      <c r="AW16" s="144"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="168"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="168"/>
+      <c r="AH16" s="168"/>
+      <c r="AI16" s="168"/>
+      <c r="AJ16" s="168"/>
+      <c r="AK16" s="168"/>
+      <c r="AL16" s="168"/>
+      <c r="AM16" s="169"/>
+      <c r="AN16" s="170"/>
+      <c r="AO16" s="171"/>
+      <c r="AP16" s="171"/>
+      <c r="AQ16" s="171"/>
+      <c r="AR16" s="172"/>
+      <c r="AS16" s="170"/>
+      <c r="AT16" s="171"/>
+      <c r="AU16" s="171"/>
+      <c r="AV16" s="171"/>
+      <c r="AW16" s="172"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="157"/>
-      <c r="X17" s="157"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="157"/>
-      <c r="AM17" s="158"/>
-      <c r="AN17" s="142"/>
-      <c r="AO17" s="143"/>
-      <c r="AP17" s="143"/>
-      <c r="AQ17" s="143"/>
-      <c r="AR17" s="144"/>
-      <c r="AS17" s="142"/>
-      <c r="AT17" s="143"/>
-      <c r="AU17" s="143"/>
-      <c r="AV17" s="143"/>
-      <c r="AW17" s="144"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="165"/>
+      <c r="O17" s="165"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="169"/>
+      <c r="AN17" s="170"/>
+      <c r="AO17" s="171"/>
+      <c r="AP17" s="171"/>
+      <c r="AQ17" s="171"/>
+      <c r="AR17" s="172"/>
+      <c r="AS17" s="170"/>
+      <c r="AT17" s="171"/>
+      <c r="AU17" s="171"/>
+      <c r="AV17" s="171"/>
+      <c r="AW17" s="172"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="157"/>
-      <c r="AM18" s="158"/>
-      <c r="AN18" s="142"/>
-      <c r="AO18" s="143"/>
-      <c r="AP18" s="143"/>
-      <c r="AQ18" s="143"/>
-      <c r="AR18" s="144"/>
-      <c r="AS18" s="142"/>
-      <c r="AT18" s="143"/>
-      <c r="AU18" s="143"/>
-      <c r="AV18" s="143"/>
-      <c r="AW18" s="144"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="168"/>
+      <c r="AF18" s="168"/>
+      <c r="AG18" s="168"/>
+      <c r="AH18" s="168"/>
+      <c r="AI18" s="168"/>
+      <c r="AJ18" s="168"/>
+      <c r="AK18" s="168"/>
+      <c r="AL18" s="168"/>
+      <c r="AM18" s="169"/>
+      <c r="AN18" s="170"/>
+      <c r="AO18" s="171"/>
+      <c r="AP18" s="171"/>
+      <c r="AQ18" s="171"/>
+      <c r="AR18" s="172"/>
+      <c r="AS18" s="170"/>
+      <c r="AT18" s="171"/>
+      <c r="AU18" s="171"/>
+      <c r="AV18" s="171"/>
+      <c r="AW18" s="172"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="157"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="157"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="155"/>
-      <c r="AO19" s="155"/>
-      <c r="AP19" s="155"/>
-      <c r="AQ19" s="155"/>
-      <c r="AR19" s="155"/>
-      <c r="AS19" s="142"/>
-      <c r="AT19" s="143"/>
-      <c r="AU19" s="143"/>
-      <c r="AV19" s="143"/>
-      <c r="AW19" s="144"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="165"/>
+      <c r="O19" s="165"/>
+      <c r="P19" s="165"/>
+      <c r="Q19" s="165"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="167"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="168"/>
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="168"/>
+      <c r="AH19" s="168"/>
+      <c r="AI19" s="168"/>
+      <c r="AJ19" s="168"/>
+      <c r="AK19" s="168"/>
+      <c r="AL19" s="168"/>
+      <c r="AM19" s="169"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="151"/>
+      <c r="AS19" s="170"/>
+      <c r="AT19" s="171"/>
+      <c r="AU19" s="171"/>
+      <c r="AV19" s="171"/>
+      <c r="AW19" s="172"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
-      <c r="AL20" s="157"/>
-      <c r="AM20" s="158"/>
-      <c r="AN20" s="142"/>
-      <c r="AO20" s="143"/>
-      <c r="AP20" s="143"/>
-      <c r="AQ20" s="143"/>
-      <c r="AR20" s="144"/>
-      <c r="AS20" s="142"/>
-      <c r="AT20" s="143"/>
-      <c r="AU20" s="143"/>
-      <c r="AV20" s="143"/>
-      <c r="AW20" s="144"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="168"/>
+      <c r="AF20" s="168"/>
+      <c r="AG20" s="168"/>
+      <c r="AH20" s="168"/>
+      <c r="AI20" s="168"/>
+      <c r="AJ20" s="168"/>
+      <c r="AK20" s="168"/>
+      <c r="AL20" s="168"/>
+      <c r="AM20" s="169"/>
+      <c r="AN20" s="170"/>
+      <c r="AO20" s="171"/>
+      <c r="AP20" s="171"/>
+      <c r="AQ20" s="171"/>
+      <c r="AR20" s="172"/>
+      <c r="AS20" s="170"/>
+      <c r="AT20" s="171"/>
+      <c r="AU20" s="171"/>
+      <c r="AV20" s="171"/>
+      <c r="AW20" s="172"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="157"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="157"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="157"/>
-      <c r="AJ21" s="157"/>
-      <c r="AK21" s="157"/>
-      <c r="AL21" s="157"/>
-      <c r="AM21" s="158"/>
-      <c r="AN21" s="142"/>
-      <c r="AO21" s="143"/>
-      <c r="AP21" s="143"/>
-      <c r="AQ21" s="143"/>
-      <c r="AR21" s="144"/>
-      <c r="AS21" s="142"/>
-      <c r="AT21" s="143"/>
-      <c r="AU21" s="143"/>
-      <c r="AV21" s="143"/>
-      <c r="AW21" s="144"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="165"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="165"/>
+      <c r="Q21" s="165"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="167"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="168"/>
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="168"/>
+      <c r="AH21" s="168"/>
+      <c r="AI21" s="168"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="168"/>
+      <c r="AL21" s="168"/>
+      <c r="AM21" s="169"/>
+      <c r="AN21" s="170"/>
+      <c r="AO21" s="171"/>
+      <c r="AP21" s="171"/>
+      <c r="AQ21" s="171"/>
+      <c r="AR21" s="172"/>
+      <c r="AS21" s="170"/>
+      <c r="AT21" s="171"/>
+      <c r="AU21" s="171"/>
+      <c r="AV21" s="171"/>
+      <c r="AW21" s="172"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="157"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="157"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="157"/>
-      <c r="AJ22" s="157"/>
-      <c r="AK22" s="157"/>
-      <c r="AL22" s="157"/>
-      <c r="AM22" s="158"/>
-      <c r="AN22" s="142"/>
-      <c r="AO22" s="143"/>
-      <c r="AP22" s="143"/>
-      <c r="AQ22" s="143"/>
-      <c r="AR22" s="144"/>
-      <c r="AS22" s="142"/>
-      <c r="AT22" s="143"/>
-      <c r="AU22" s="143"/>
-      <c r="AV22" s="143"/>
-      <c r="AW22" s="144"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="165"/>
+      <c r="P22" s="165"/>
+      <c r="Q22" s="165"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="167"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="168"/>
+      <c r="AF22" s="168"/>
+      <c r="AG22" s="168"/>
+      <c r="AH22" s="168"/>
+      <c r="AI22" s="168"/>
+      <c r="AJ22" s="168"/>
+      <c r="AK22" s="168"/>
+      <c r="AL22" s="168"/>
+      <c r="AM22" s="169"/>
+      <c r="AN22" s="170"/>
+      <c r="AO22" s="171"/>
+      <c r="AP22" s="171"/>
+      <c r="AQ22" s="171"/>
+      <c r="AR22" s="172"/>
+      <c r="AS22" s="170"/>
+      <c r="AT22" s="171"/>
+      <c r="AU22" s="171"/>
+      <c r="AV22" s="171"/>
+      <c r="AW22" s="172"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="157"/>
-      <c r="Z23" s="157"/>
-      <c r="AA23" s="157"/>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="157"/>
-      <c r="AJ23" s="157"/>
-      <c r="AK23" s="157"/>
-      <c r="AL23" s="157"/>
-      <c r="AM23" s="158"/>
-      <c r="AN23" s="142"/>
-      <c r="AO23" s="143"/>
-      <c r="AP23" s="143"/>
-      <c r="AQ23" s="143"/>
-      <c r="AR23" s="144"/>
-      <c r="AS23" s="142"/>
-      <c r="AT23" s="143"/>
-      <c r="AU23" s="143"/>
-      <c r="AV23" s="143"/>
-      <c r="AW23" s="144"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="167"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="168"/>
+      <c r="AF23" s="168"/>
+      <c r="AG23" s="168"/>
+      <c r="AH23" s="168"/>
+      <c r="AI23" s="168"/>
+      <c r="AJ23" s="168"/>
+      <c r="AK23" s="168"/>
+      <c r="AL23" s="168"/>
+      <c r="AM23" s="169"/>
+      <c r="AN23" s="170"/>
+      <c r="AO23" s="171"/>
+      <c r="AP23" s="171"/>
+      <c r="AQ23" s="171"/>
+      <c r="AR23" s="172"/>
+      <c r="AS23" s="170"/>
+      <c r="AT23" s="171"/>
+      <c r="AU23" s="171"/>
+      <c r="AV23" s="171"/>
+      <c r="AW23" s="172"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
-      <c r="Y24" s="157"/>
-      <c r="Z24" s="157"/>
-      <c r="AA24" s="157"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="157"/>
-      <c r="AJ24" s="157"/>
-      <c r="AK24" s="157"/>
-      <c r="AL24" s="157"/>
-      <c r="AM24" s="158"/>
-      <c r="AN24" s="142"/>
-      <c r="AO24" s="143"/>
-      <c r="AP24" s="143"/>
-      <c r="AQ24" s="143"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="142"/>
-      <c r="AT24" s="143"/>
-      <c r="AU24" s="143"/>
-      <c r="AV24" s="143"/>
-      <c r="AW24" s="144"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
+      <c r="AC24" s="168"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="168"/>
+      <c r="AF24" s="168"/>
+      <c r="AG24" s="168"/>
+      <c r="AH24" s="168"/>
+      <c r="AI24" s="168"/>
+      <c r="AJ24" s="168"/>
+      <c r="AK24" s="168"/>
+      <c r="AL24" s="168"/>
+      <c r="AM24" s="169"/>
+      <c r="AN24" s="170"/>
+      <c r="AO24" s="171"/>
+      <c r="AP24" s="171"/>
+      <c r="AQ24" s="171"/>
+      <c r="AR24" s="172"/>
+      <c r="AS24" s="170"/>
+      <c r="AT24" s="171"/>
+      <c r="AU24" s="171"/>
+      <c r="AV24" s="171"/>
+      <c r="AW24" s="172"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="161"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="157"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="142"/>
-      <c r="AO25" s="143"/>
-      <c r="AP25" s="143"/>
-      <c r="AQ25" s="143"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="142"/>
-      <c r="AT25" s="143"/>
-      <c r="AU25" s="143"/>
-      <c r="AV25" s="143"/>
-      <c r="AW25" s="144"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="168"/>
+      <c r="AF25" s="168"/>
+      <c r="AG25" s="168"/>
+      <c r="AH25" s="168"/>
+      <c r="AI25" s="168"/>
+      <c r="AJ25" s="168"/>
+      <c r="AK25" s="168"/>
+      <c r="AL25" s="168"/>
+      <c r="AM25" s="169"/>
+      <c r="AN25" s="170"/>
+      <c r="AO25" s="171"/>
+      <c r="AP25" s="171"/>
+      <c r="AQ25" s="171"/>
+      <c r="AR25" s="172"/>
+      <c r="AS25" s="170"/>
+      <c r="AT25" s="171"/>
+      <c r="AU25" s="171"/>
+      <c r="AV25" s="171"/>
+      <c r="AW25" s="172"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="157"/>
-      <c r="AJ26" s="157"/>
-      <c r="AK26" s="157"/>
-      <c r="AL26" s="157"/>
-      <c r="AM26" s="158"/>
-      <c r="AN26" s="142"/>
-      <c r="AO26" s="143"/>
-      <c r="AP26" s="143"/>
-      <c r="AQ26" s="143"/>
-      <c r="AR26" s="144"/>
-      <c r="AS26" s="142"/>
-      <c r="AT26" s="143"/>
-      <c r="AU26" s="143"/>
-      <c r="AV26" s="143"/>
-      <c r="AW26" s="144"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="167"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="168"/>
+      <c r="AF26" s="168"/>
+      <c r="AG26" s="168"/>
+      <c r="AH26" s="168"/>
+      <c r="AI26" s="168"/>
+      <c r="AJ26" s="168"/>
+      <c r="AK26" s="168"/>
+      <c r="AL26" s="168"/>
+      <c r="AM26" s="169"/>
+      <c r="AN26" s="170"/>
+      <c r="AO26" s="171"/>
+      <c r="AP26" s="171"/>
+      <c r="AQ26" s="171"/>
+      <c r="AR26" s="172"/>
+      <c r="AS26" s="170"/>
+      <c r="AT26" s="171"/>
+      <c r="AU26" s="171"/>
+      <c r="AV26" s="171"/>
+      <c r="AW26" s="172"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="157"/>
-      <c r="Z27" s="157"/>
-      <c r="AA27" s="157"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="157"/>
-      <c r="AD27" s="157"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="157"/>
-      <c r="AI27" s="157"/>
-      <c r="AJ27" s="157"/>
-      <c r="AK27" s="157"/>
-      <c r="AL27" s="157"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="142"/>
-      <c r="AO27" s="143"/>
-      <c r="AP27" s="143"/>
-      <c r="AQ27" s="143"/>
-      <c r="AR27" s="144"/>
-      <c r="AS27" s="142"/>
-      <c r="AT27" s="143"/>
-      <c r="AU27" s="143"/>
-      <c r="AV27" s="143"/>
-      <c r="AW27" s="144"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="167"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="168"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="168"/>
+      <c r="AF27" s="168"/>
+      <c r="AG27" s="168"/>
+      <c r="AH27" s="168"/>
+      <c r="AI27" s="168"/>
+      <c r="AJ27" s="168"/>
+      <c r="AK27" s="168"/>
+      <c r="AL27" s="168"/>
+      <c r="AM27" s="169"/>
+      <c r="AN27" s="170"/>
+      <c r="AO27" s="171"/>
+      <c r="AP27" s="171"/>
+      <c r="AQ27" s="171"/>
+      <c r="AR27" s="172"/>
+      <c r="AS27" s="170"/>
+      <c r="AT27" s="171"/>
+      <c r="AU27" s="171"/>
+      <c r="AV27" s="171"/>
+      <c r="AW27" s="172"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="157"/>
-      <c r="AH28" s="157"/>
-      <c r="AI28" s="157"/>
-      <c r="AJ28" s="157"/>
-      <c r="AK28" s="157"/>
-      <c r="AL28" s="157"/>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="142"/>
-      <c r="AO28" s="143"/>
-      <c r="AP28" s="143"/>
-      <c r="AQ28" s="143"/>
-      <c r="AR28" s="144"/>
-      <c r="AS28" s="142"/>
-      <c r="AT28" s="143"/>
-      <c r="AU28" s="143"/>
-      <c r="AV28" s="143"/>
-      <c r="AW28" s="144"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="168"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="168"/>
+      <c r="AF28" s="168"/>
+      <c r="AG28" s="168"/>
+      <c r="AH28" s="168"/>
+      <c r="AI28" s="168"/>
+      <c r="AJ28" s="168"/>
+      <c r="AK28" s="168"/>
+      <c r="AL28" s="168"/>
+      <c r="AM28" s="169"/>
+      <c r="AN28" s="170"/>
+      <c r="AO28" s="171"/>
+      <c r="AP28" s="171"/>
+      <c r="AQ28" s="171"/>
+      <c r="AR28" s="172"/>
+      <c r="AS28" s="170"/>
+      <c r="AT28" s="171"/>
+      <c r="AU28" s="171"/>
+      <c r="AV28" s="171"/>
+      <c r="AW28" s="172"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="157"/>
-      <c r="AI29" s="157"/>
-      <c r="AJ29" s="157"/>
-      <c r="AK29" s="157"/>
-      <c r="AL29" s="157"/>
-      <c r="AM29" s="158"/>
-      <c r="AN29" s="142"/>
-      <c r="AO29" s="143"/>
-      <c r="AP29" s="143"/>
-      <c r="AQ29" s="143"/>
-      <c r="AR29" s="144"/>
-      <c r="AS29" s="142"/>
-      <c r="AT29" s="143"/>
-      <c r="AU29" s="143"/>
-      <c r="AV29" s="143"/>
-      <c r="AW29" s="144"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="167"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="168"/>
+      <c r="Y29" s="168"/>
+      <c r="Z29" s="168"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="168"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="168"/>
+      <c r="AF29" s="168"/>
+      <c r="AG29" s="168"/>
+      <c r="AH29" s="168"/>
+      <c r="AI29" s="168"/>
+      <c r="AJ29" s="168"/>
+      <c r="AK29" s="168"/>
+      <c r="AL29" s="168"/>
+      <c r="AM29" s="169"/>
+      <c r="AN29" s="170"/>
+      <c r="AO29" s="171"/>
+      <c r="AP29" s="171"/>
+      <c r="AQ29" s="171"/>
+      <c r="AR29" s="172"/>
+      <c r="AS29" s="170"/>
+      <c r="AT29" s="171"/>
+      <c r="AU29" s="171"/>
+      <c r="AV29" s="171"/>
+      <c r="AW29" s="172"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="157"/>
-      <c r="AM30" s="158"/>
-      <c r="AN30" s="142"/>
-      <c r="AO30" s="143"/>
-      <c r="AP30" s="143"/>
-      <c r="AQ30" s="143"/>
-      <c r="AR30" s="144"/>
-      <c r="AS30" s="142"/>
-      <c r="AT30" s="143"/>
-      <c r="AU30" s="143"/>
-      <c r="AV30" s="143"/>
-      <c r="AW30" s="144"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="167"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="168"/>
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="168"/>
+      <c r="AH30" s="168"/>
+      <c r="AI30" s="168"/>
+      <c r="AJ30" s="168"/>
+      <c r="AK30" s="168"/>
+      <c r="AL30" s="168"/>
+      <c r="AM30" s="169"/>
+      <c r="AN30" s="170"/>
+      <c r="AO30" s="171"/>
+      <c r="AP30" s="171"/>
+      <c r="AQ30" s="171"/>
+      <c r="AR30" s="172"/>
+      <c r="AS30" s="170"/>
+      <c r="AT30" s="171"/>
+      <c r="AU30" s="171"/>
+      <c r="AV30" s="171"/>
+      <c r="AW30" s="172"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="157"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="157"/>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="142"/>
-      <c r="AO31" s="143"/>
-      <c r="AP31" s="143"/>
-      <c r="AQ31" s="143"/>
-      <c r="AR31" s="144"/>
-      <c r="AS31" s="142"/>
-      <c r="AT31" s="143"/>
-      <c r="AU31" s="143"/>
-      <c r="AV31" s="143"/>
-      <c r="AW31" s="144"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="167"/>
+      <c r="W31" s="168"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="168"/>
+      <c r="AF31" s="168"/>
+      <c r="AG31" s="168"/>
+      <c r="AH31" s="168"/>
+      <c r="AI31" s="168"/>
+      <c r="AJ31" s="168"/>
+      <c r="AK31" s="168"/>
+      <c r="AL31" s="168"/>
+      <c r="AM31" s="169"/>
+      <c r="AN31" s="170"/>
+      <c r="AO31" s="171"/>
+      <c r="AP31" s="171"/>
+      <c r="AQ31" s="171"/>
+      <c r="AR31" s="172"/>
+      <c r="AS31" s="170"/>
+      <c r="AT31" s="171"/>
+      <c r="AU31" s="171"/>
+      <c r="AV31" s="171"/>
+      <c r="AW31" s="172"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="157"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="157"/>
-      <c r="AM32" s="158"/>
-      <c r="AN32" s="142"/>
-      <c r="AO32" s="143"/>
-      <c r="AP32" s="143"/>
-      <c r="AQ32" s="143"/>
-      <c r="AR32" s="144"/>
-      <c r="AS32" s="142"/>
-      <c r="AT32" s="143"/>
-      <c r="AU32" s="143"/>
-      <c r="AV32" s="143"/>
-      <c r="AW32" s="144"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="168"/>
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="168"/>
+      <c r="AH32" s="168"/>
+      <c r="AI32" s="168"/>
+      <c r="AJ32" s="168"/>
+      <c r="AK32" s="168"/>
+      <c r="AL32" s="168"/>
+      <c r="AM32" s="169"/>
+      <c r="AN32" s="170"/>
+      <c r="AO32" s="171"/>
+      <c r="AP32" s="171"/>
+      <c r="AQ32" s="171"/>
+      <c r="AR32" s="172"/>
+      <c r="AS32" s="170"/>
+      <c r="AT32" s="171"/>
+      <c r="AU32" s="171"/>
+      <c r="AV32" s="171"/>
+      <c r="AW32" s="172"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="158"/>
-      <c r="AN33" s="142"/>
-      <c r="AO33" s="143"/>
-      <c r="AP33" s="143"/>
-      <c r="AQ33" s="143"/>
-      <c r="AR33" s="144"/>
-      <c r="AS33" s="142"/>
-      <c r="AT33" s="143"/>
-      <c r="AU33" s="143"/>
-      <c r="AV33" s="143"/>
-      <c r="AW33" s="144"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="168"/>
+      <c r="X33" s="168"/>
+      <c r="Y33" s="168"/>
+      <c r="Z33" s="168"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="168"/>
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="168"/>
+      <c r="AH33" s="168"/>
+      <c r="AI33" s="168"/>
+      <c r="AJ33" s="168"/>
+      <c r="AK33" s="168"/>
+      <c r="AL33" s="168"/>
+      <c r="AM33" s="169"/>
+      <c r="AN33" s="170"/>
+      <c r="AO33" s="171"/>
+      <c r="AP33" s="171"/>
+      <c r="AQ33" s="171"/>
+      <c r="AR33" s="172"/>
+      <c r="AS33" s="170"/>
+      <c r="AT33" s="171"/>
+      <c r="AU33" s="171"/>
+      <c r="AV33" s="171"/>
+      <c r="AW33" s="172"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="155"/>
-      <c r="U34" s="155"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="157"/>
-      <c r="AM34" s="158"/>
-      <c r="AN34" s="142"/>
-      <c r="AO34" s="143"/>
-      <c r="AP34" s="143"/>
-      <c r="AQ34" s="143"/>
-      <c r="AR34" s="144"/>
-      <c r="AS34" s="142"/>
-      <c r="AT34" s="143"/>
-      <c r="AU34" s="143"/>
-      <c r="AV34" s="143"/>
-      <c r="AW34" s="144"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="180"/>
+      <c r="R34" s="181"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
+      <c r="U34" s="151"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="168"/>
+      <c r="X34" s="168"/>
+      <c r="Y34" s="168"/>
+      <c r="Z34" s="168"/>
+      <c r="AA34" s="168"/>
+      <c r="AB34" s="168"/>
+      <c r="AC34" s="168"/>
+      <c r="AD34" s="168"/>
+      <c r="AE34" s="168"/>
+      <c r="AF34" s="168"/>
+      <c r="AG34" s="168"/>
+      <c r="AH34" s="168"/>
+      <c r="AI34" s="168"/>
+      <c r="AJ34" s="168"/>
+      <c r="AK34" s="168"/>
+      <c r="AL34" s="168"/>
+      <c r="AM34" s="169"/>
+      <c r="AN34" s="170"/>
+      <c r="AO34" s="171"/>
+      <c r="AP34" s="171"/>
+      <c r="AQ34" s="171"/>
+      <c r="AR34" s="172"/>
+      <c r="AS34" s="170"/>
+      <c r="AT34" s="171"/>
+      <c r="AU34" s="171"/>
+      <c r="AV34" s="171"/>
+      <c r="AW34" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7939,230 +8153,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8178,7 +8177,7 @@
   <dimension ref="A1:BN54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -8301,7 +8300,7 @@
       <c r="U2" s="88"/>
       <c r="V2" s="89"/>
       <c r="W2" s="35" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
@@ -8322,11 +8321,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="183"/>
-      <c r="AR2" s="183"/>
-      <c r="AS2" s="184"/>
+      <c r="AO2" s="186"/>
+      <c r="AP2" s="187"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="187"/>
+      <c r="AS2" s="188"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8335,14 +8334,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="185"/>
-      <c r="BA2" s="186"/>
-      <c r="BB2" s="186"/>
-      <c r="BC2" s="186"/>
-      <c r="BD2" s="186"/>
-      <c r="BE2" s="186"/>
-      <c r="BF2" s="186"/>
-      <c r="BG2" s="187"/>
+      <c r="AZ2" s="189"/>
+      <c r="BA2" s="190"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="190"/>
+      <c r="BE2" s="190"/>
+      <c r="BF2" s="190"/>
+      <c r="BG2" s="191"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9408,7 +9407,7 @@
       <c r="G33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -9514,7 +9513,7 @@
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL35" s="11"/>
       <c r="AN35" s="11"/>
@@ -9742,7 +9741,7 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -9928,10 +9927,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="190" t="s">
+      <c r="B45" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="191"/>
+      <c r="C45" s="193"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -10014,10 +10013,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="192">
+      <c r="B46" s="182">
         <v>1</v>
       </c>
-      <c r="C46" s="193"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -10049,16 +10048,16 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="188" t="s">
+      <c r="AE46" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF46" s="189"/>
-      <c r="AG46" s="188"/>
-      <c r="AH46" s="189"/>
+      <c r="AF46" s="185"/>
+      <c r="AG46" s="184"/>
+      <c r="AH46" s="185"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="188"/>
-      <c r="AL46" s="189"/>
+      <c r="AK46" s="184"/>
+      <c r="AL46" s="185"/>
       <c r="AM46" s="76" t="s">
         <v>224</v>
       </c>
@@ -10092,10 +10091,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="192">
+      <c r="B47" s="182">
         <v>2</v>
       </c>
-      <c r="C47" s="193"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -10106,7 +10105,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="111"/>
       <c r="K47" s="110" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="79"/>
@@ -10127,16 +10126,16 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="188" t="s">
+      <c r="AE47" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF47" s="189"/>
-      <c r="AG47" s="188"/>
-      <c r="AH47" s="189"/>
+      <c r="AF47" s="185"/>
+      <c r="AG47" s="184"/>
+      <c r="AH47" s="185"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="188"/>
-      <c r="AL47" s="189"/>
+      <c r="AK47" s="184"/>
+      <c r="AL47" s="185"/>
       <c r="AM47" s="76" t="s">
         <v>227</v>
       </c>
@@ -10170,10 +10169,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="192">
+      <c r="B48" s="182">
         <v>3</v>
       </c>
-      <c r="C48" s="193"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -10205,16 +10204,16 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="188" t="s">
+      <c r="AE48" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF48" s="189"/>
-      <c r="AG48" s="188"/>
-      <c r="AH48" s="189"/>
+      <c r="AF48" s="185"/>
+      <c r="AG48" s="184"/>
+      <c r="AH48" s="185"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="188"/>
-      <c r="AL48" s="189"/>
+      <c r="AK48" s="184"/>
+      <c r="AL48" s="185"/>
       <c r="AM48" s="76" t="s">
         <v>223</v>
       </c>
@@ -10248,10 +10247,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="192">
+      <c r="B49" s="182">
         <v>4</v>
       </c>
-      <c r="C49" s="193"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10283,16 +10282,16 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="188" t="s">
+      <c r="AE49" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF49" s="189"/>
-      <c r="AG49" s="188"/>
-      <c r="AH49" s="189"/>
+      <c r="AF49" s="185"/>
+      <c r="AG49" s="184"/>
+      <c r="AH49" s="185"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="188"/>
-      <c r="AL49" s="189"/>
+      <c r="AK49" s="184"/>
+      <c r="AL49" s="185"/>
       <c r="AM49" s="76" t="s">
         <v>225</v>
       </c>
@@ -10326,10 +10325,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="192">
+      <c r="B50" s="182">
         <v>5</v>
       </c>
-      <c r="C50" s="193"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10361,16 +10360,16 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="188" t="s">
+      <c r="AE50" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF50" s="189"/>
-      <c r="AG50" s="188"/>
-      <c r="AH50" s="189"/>
+      <c r="AF50" s="185"/>
+      <c r="AG50" s="184"/>
+      <c r="AH50" s="185"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="188"/>
-      <c r="AL50" s="189"/>
+      <c r="AK50" s="184"/>
+      <c r="AL50" s="185"/>
       <c r="AM50" s="76" t="s">
         <v>226</v>
       </c>
@@ -10404,10 +10403,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="192">
+      <c r="B51" s="182">
         <v>6</v>
       </c>
-      <c r="C51" s="193"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="119" t="s">
         <v>196</v>
       </c>
@@ -10439,16 +10438,16 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="188" t="s">
+      <c r="AE51" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF51" s="189"/>
-      <c r="AG51" s="188"/>
-      <c r="AH51" s="189"/>
+      <c r="AF51" s="185"/>
+      <c r="AG51" s="184"/>
+      <c r="AH51" s="185"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="188"/>
-      <c r="AL51" s="189"/>
+      <c r="AK51" s="184"/>
+      <c r="AL51" s="185"/>
       <c r="AM51" s="76" t="s">
         <v>229</v>
       </c>
@@ -10482,10 +10481,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="192">
+      <c r="B52" s="182">
         <v>7</v>
       </c>
-      <c r="C52" s="193"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="119" t="s">
         <v>196</v>
       </c>
@@ -10517,16 +10516,16 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="188" t="s">
+      <c r="AE52" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF52" s="189"/>
-      <c r="AG52" s="188"/>
-      <c r="AH52" s="189"/>
+      <c r="AF52" s="185"/>
+      <c r="AG52" s="184"/>
+      <c r="AH52" s="185"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="188"/>
-      <c r="AL52" s="189"/>
+      <c r="AK52" s="184"/>
+      <c r="AL52" s="185"/>
       <c r="AM52" s="76" t="s">
         <v>229</v>
       </c>
@@ -10560,10 +10559,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="192">
+      <c r="B53" s="182">
         <v>8</v>
       </c>
-      <c r="C53" s="193"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="119" t="s">
         <v>196</v>
       </c>
@@ -10595,16 +10594,16 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="188" t="s">
+      <c r="AE53" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF53" s="189"/>
-      <c r="AG53" s="188"/>
-      <c r="AH53" s="189"/>
+      <c r="AF53" s="185"/>
+      <c r="AG53" s="184"/>
+      <c r="AH53" s="185"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="188"/>
-      <c r="AL53" s="189"/>
+      <c r="AK53" s="184"/>
+      <c r="AL53" s="185"/>
       <c r="AM53" s="76" t="s">
         <v>229</v>
       </c>
@@ -10638,10 +10637,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="192">
+      <c r="B54" s="182">
         <v>9</v>
       </c>
-      <c r="C54" s="193"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="119" t="s">
         <v>196</v>
       </c>
@@ -10652,7 +10651,7 @@
       <c r="I54" s="79"/>
       <c r="J54" s="120"/>
       <c r="K54" s="119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="79"/>
@@ -10673,16 +10672,16 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="188" t="s">
+      <c r="AE54" s="184" t="s">
         <v>103</v>
       </c>
-      <c r="AF54" s="189"/>
-      <c r="AG54" s="188"/>
-      <c r="AH54" s="189"/>
+      <c r="AF54" s="185"/>
+      <c r="AG54" s="184"/>
+      <c r="AH54" s="185"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="188"/>
-      <c r="AL54" s="189"/>
+      <c r="AK54" s="184"/>
+      <c r="AL54" s="185"/>
       <c r="AM54" s="76" t="s">
         <v>228</v>
       </c>
@@ -10716,22 +10715,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10748,13 +10738,22 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10776,7 +10775,7 @@
   <dimension ref="A1:DI5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -10900,7 +10899,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="185" t="str">
+      <c r="CU1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11031,7 +11030,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="185"/>
+      <c r="CU2" s="189"/>
       <c r="CV2" s="194"/>
       <c r="CW2" s="194"/>
       <c r="CX2" s="194"/>
@@ -11127,10 +11126,10 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L31" sqref="L31"/>
       <selection pane="topRight" activeCell="L31" sqref="L31"/>
       <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
@@ -11250,22 +11249,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="175" t="s">
+      <c r="D6" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="175" t="s">
+      <c r="F6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="144" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="203" t="s">
@@ -11274,13 +11273,13 @@
       <c r="J6" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="175" t="s">
+      <c r="K6" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="175" t="s">
+      <c r="L6" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="175" t="s">
+      <c r="M6" s="144" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11295,17 +11294,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
       <c r="I7" s="203"/>
       <c r="J7" s="203"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11477,22 +11476,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="175" t="s">
+      <c r="D13" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="175" t="s">
+      <c r="E13" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="175" t="s">
+      <c r="F13" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="175" t="s">
+      <c r="H13" s="144" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="204" t="s">
@@ -11501,13 +11500,13 @@
       <c r="J13" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="175" t="s">
+      <c r="K13" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="175" t="s">
+      <c r="L13" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="175" t="s">
+      <c r="M13" s="144" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11522,17 +11521,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="205"/>
       <c r="J14" s="203"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11606,7 +11605,7 @@
         <v>164</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>167</v>
@@ -11624,10 +11623,10 @@
         <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -11639,7 +11638,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30.75" x14ac:dyDescent="0.15">
@@ -11655,7 +11654,7 @@
         <v>165</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>167</v>
@@ -11673,10 +11672,10 @@
         <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -11688,7 +11687,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="125" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11783,10 +11782,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="130" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -11835,7 +11834,7 @@
         <v>170</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -11851,7 +11850,7 @@
         <v>133</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11875,13 +11874,13 @@
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>34</v>
@@ -11918,7 +11917,7 @@
         <v>169</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -11979,7 +11978,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -12007,28 +12006,28 @@
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="175" t="s">
+      <c r="F26" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="175" t="s">
+      <c r="G26" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="175" t="s">
+      <c r="H26" s="144" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="203" t="s">
@@ -12037,13 +12036,13 @@
       <c r="J26" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="175" t="s">
+      <c r="K26" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="175" t="s">
+      <c r="L26" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="175" t="s">
+      <c r="M26" s="144" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -12058,17 +12057,17 @@
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
       <c r="I27" s="203"/>
       <c r="J27" s="203"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -12290,8 +12289,8 @@
       <c r="O32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>352</v>
+      <c r="P32" s="129" t="s">
+        <v>443</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -12340,7 +12339,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -12389,7 +12388,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>35</v>
@@ -12487,7 +12486,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -12585,7 +12584,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -12634,7 +12633,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
@@ -12683,10 +12682,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q40" s="125" t="s">
-        <v>365</v>
+        <v>277</v>
+      </c>
+      <c r="Q40" s="206" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12717,7 +12716,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -12732,10 +12731,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12766,7 +12765,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -12781,35 +12780,35 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="127" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="128"/>
-      <c r="C45" s="175" t="s">
+      <c r="C45" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="175" t="s">
+      <c r="E45" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="175" t="s">
+      <c r="F45" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="175" t="s">
+      <c r="G45" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="175" t="s">
+      <c r="H45" s="144" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="203" t="s">
@@ -12818,13 +12817,13 @@
       <c r="J45" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="175" t="s">
+      <c r="K45" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="175" t="s">
+      <c r="L45" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="175" t="s">
+      <c r="M45" s="144" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12838,17 +12837,17 @@
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="128"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
       <c r="I46" s="203"/>
       <c r="J46" s="203"/>
-      <c r="K46" s="175"/>
-      <c r="L46" s="175"/>
-      <c r="M46" s="175"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>136</v>
@@ -12896,8 +12895,8 @@
       <c r="M47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N47" s="7" t="s">
-        <v>233</v>
+      <c r="N47" s="129" t="s">
+        <v>35</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>35</v>
@@ -12916,16 +12915,16 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>101</v>
@@ -12940,13 +12939,13 @@
         <v>35</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>35</v>
@@ -12965,13 +12964,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>108</v>
@@ -12989,13 +12988,13 @@
         <v>35</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>35</v>
@@ -13014,13 +13013,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>108</v>
@@ -13044,7 +13043,7 @@
         <v>35</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>35</v>
@@ -13063,13 +13062,13 @@
         <v>5</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>108</v>
@@ -13093,7 +13092,7 @@
         <v>35</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>35</v>
@@ -13112,13 +13111,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>108</v>
@@ -13142,7 +13141,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>35</v>
@@ -13161,13 +13160,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>108</v>
@@ -13191,7 +13190,7 @@
         <v>35</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>35</v>
@@ -13210,13 +13209,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>108</v>
@@ -13240,7 +13239,7 @@
         <v>35</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
@@ -13259,13 +13258,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>108</v>
@@ -13280,7 +13279,7 @@
         <v>35</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>35</v>
@@ -13289,7 +13288,7 @@
         <v>35</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
@@ -13298,7 +13297,7 @@
         <v>35</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13308,13 +13307,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>108</v>
@@ -13329,7 +13328,7 @@
         <v>35</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>35</v>
@@ -13347,36 +13346,97 @@
         <v>35</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C57" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>399</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="7">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C58" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="D59" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13389,30 +13449,18 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13488,7 +13536,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="182">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -13504,7 +13552,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="185" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -13575,7 +13623,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="185"/>
+      <c r="AT2" s="189"/>
       <c r="AU2" s="194"/>
       <c r="AV2" s="194"/>
       <c r="AW2" s="194"/>
@@ -13925,7 +13973,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="67"/>
       <c r="L11" s="133" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M11" s="136"/>
       <c r="N11" s="136"/>
@@ -14013,7 +14061,7 @@
       <c r="L13" s="137"/>
       <c r="M13" s="133"/>
       <c r="N13" s="132" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
@@ -14054,7 +14102,7 @@
       <c r="L14" s="137"/>
       <c r="M14" s="133"/>
       <c r="N14" s="132" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
@@ -14175,7 +14223,7 @@
       <c r="L17" s="137"/>
       <c r="M17" s="133"/>
       <c r="N17" s="132" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
@@ -14216,7 +14264,7 @@
       <c r="L18" s="137"/>
       <c r="M18" s="133"/>
       <c r="N18" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
@@ -14258,7 +14306,7 @@
       <c r="M19" s="133"/>
       <c r="N19" s="132"/>
       <c r="O19" s="132" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P19" s="132"/>
       <c r="Q19" s="132"/>
@@ -14273,7 +14321,7 @@
         <v>115</v>
       </c>
       <c r="Z19" s="132" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AA19" s="132"/>
       <c r="AB19" s="132"/>
@@ -14302,7 +14350,7 @@
       <c r="L20" s="137"/>
       <c r="M20" s="133"/>
       <c r="N20" s="132" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
@@ -14344,7 +14392,7 @@
       <c r="M21" s="133"/>
       <c r="N21" s="132"/>
       <c r="O21" s="132" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P21" s="132"/>
       <c r="Q21" s="132"/>
@@ -14359,7 +14407,7 @@
         <v>115</v>
       </c>
       <c r="Z21" s="132" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AA21" s="132"/>
       <c r="AB21" s="132"/>
@@ -14389,7 +14437,7 @@
       <c r="M22" s="133"/>
       <c r="N22" s="132"/>
       <c r="O22" s="132" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P22" s="132"/>
       <c r="Q22" s="132"/>
@@ -14404,7 +14452,7 @@
         <v>115</v>
       </c>
       <c r="Z22" s="132" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AA22" s="132"/>
       <c r="AB22" s="132"/>
@@ -14434,7 +14482,7 @@
       <c r="M23" s="133"/>
       <c r="N23" s="132"/>
       <c r="O23" s="132" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P23" s="132"/>
       <c r="Q23" s="132"/>
@@ -14449,7 +14497,7 @@
         <v>115</v>
       </c>
       <c r="Z23" s="132" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AA23" s="132"/>
       <c r="AB23" s="132"/>
@@ -14479,7 +14527,7 @@
       <c r="M24" s="133"/>
       <c r="N24" s="132"/>
       <c r="O24" s="132" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P24" s="132"/>
       <c r="Q24" s="132"/>
@@ -14494,7 +14542,7 @@
         <v>115</v>
       </c>
       <c r="Z24" s="132" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA24" s="132"/>
       <c r="AB24" s="132"/>
@@ -14524,7 +14572,7 @@
       <c r="M25" s="133"/>
       <c r="N25" s="132"/>
       <c r="O25" s="132" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P25" s="132"/>
       <c r="Q25" s="132"/>
@@ -14539,7 +14587,7 @@
         <v>115</v>
       </c>
       <c r="Z25" s="132" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AA25" s="132"/>
       <c r="AB25" s="132"/>
@@ -14609,7 +14657,7 @@
       <c r="L27" s="137"/>
       <c r="M27" s="133"/>
       <c r="N27" s="132" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O27" s="132"/>
       <c r="P27" s="132"/>
@@ -14625,7 +14673,7 @@
         <v>115</v>
       </c>
       <c r="Z27" s="132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA27" s="132"/>
       <c r="AB27" s="132"/>
@@ -14654,7 +14702,7 @@
       <c r="L28" s="137"/>
       <c r="M28" s="133"/>
       <c r="N28" s="132" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O28" s="132"/>
       <c r="P28" s="132"/>
@@ -14670,7 +14718,7 @@
         <v>115</v>
       </c>
       <c r="Z28" s="131" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA28" s="132"/>
       <c r="AB28" s="132"/>
@@ -14752,7 +14800,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="67"/>
       <c r="L30" s="133" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M30" s="136"/>
       <c r="N30" s="136"/>
@@ -14840,7 +14888,7 @@
       <c r="L32" s="137"/>
       <c r="M32" s="133"/>
       <c r="N32" s="132" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
@@ -14881,7 +14929,7 @@
       <c r="L33" s="137"/>
       <c r="M33" s="133"/>
       <c r="N33" s="132" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
@@ -15002,7 +15050,7 @@
       <c r="L36" s="137"/>
       <c r="M36" s="133"/>
       <c r="N36" s="132" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
@@ -15043,7 +15091,7 @@
       <c r="L37" s="137"/>
       <c r="M37" s="133"/>
       <c r="N37" s="132" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
@@ -15085,7 +15133,7 @@
       <c r="M38" s="133"/>
       <c r="N38" s="132"/>
       <c r="O38" s="132" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
@@ -15100,7 +15148,7 @@
         <v>115</v>
       </c>
       <c r="Z38" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA38" s="132"/>
       <c r="AB38" s="132"/>
@@ -15130,7 +15178,7 @@
       <c r="M39" s="133"/>
       <c r="N39" s="132"/>
       <c r="O39" s="132" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P39" s="132"/>
       <c r="Q39" s="132"/>
@@ -15145,7 +15193,7 @@
         <v>115</v>
       </c>
       <c r="Z39" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA39" s="132"/>
       <c r="AB39" s="132"/>
@@ -15175,7 +15223,7 @@
       <c r="M40" s="133"/>
       <c r="N40" s="132"/>
       <c r="O40" s="132" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
@@ -15190,7 +15238,7 @@
         <v>115</v>
       </c>
       <c r="Z40" s="132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA40" s="132"/>
       <c r="AB40" s="132"/>
@@ -15220,7 +15268,7 @@
       <c r="M41" s="133"/>
       <c r="N41" s="132"/>
       <c r="O41" s="132" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P41" s="132"/>
       <c r="Q41" s="132"/>
@@ -15235,7 +15283,7 @@
         <v>115</v>
       </c>
       <c r="Z41" s="132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA41" s="132"/>
       <c r="AB41" s="132"/>
@@ -15265,7 +15313,7 @@
       <c r="M42" s="133"/>
       <c r="N42" s="132"/>
       <c r="O42" s="132" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P42" s="132"/>
       <c r="Q42" s="132"/>
@@ -15280,7 +15328,7 @@
         <v>115</v>
       </c>
       <c r="Z42" s="132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA42" s="132"/>
       <c r="AB42" s="132"/>
@@ -15350,7 +15398,7 @@
       <c r="L44" s="137"/>
       <c r="M44" s="133"/>
       <c r="N44" s="132" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
@@ -15366,7 +15414,7 @@
         <v>115</v>
       </c>
       <c r="Z44" s="132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA44" s="132"/>
       <c r="AB44" s="132"/>
@@ -15395,7 +15443,7 @@
       <c r="L45" s="137"/>
       <c r="M45" s="133"/>
       <c r="N45" s="132" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
@@ -15411,7 +15459,7 @@
         <v>115</v>
       </c>
       <c r="Z45" s="131" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA45" s="132"/>
       <c r="AB45" s="132"/>
@@ -15446,7 +15494,7 @@
       <c r="L46" s="133"/>
       <c r="M46" s="136"/>
       <c r="N46" s="132" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O46" s="136"/>
       <c r="P46" s="136"/>
@@ -15462,7 +15510,7 @@
         <v>115</v>
       </c>
       <c r="Z46" s="132" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA46" s="132"/>
       <c r="AB46" s="132"/>
@@ -15476,7 +15524,7 @@
       <c r="AJ46" s="132"/>
       <c r="AK46" s="132"/>
       <c r="AL46" s="133" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AM46" s="132"/>
       <c r="AN46" s="134"/>
@@ -15736,10 +15784,10 @@
       <c r="F52" s="67"/>
       <c r="G52" s="66"/>
       <c r="L52" s="135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M52" s="132" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N52" s="132"/>
       <c r="O52" s="132"/>
@@ -15819,7 +15867,7 @@
       <c r="L54" s="135"/>
       <c r="M54" s="132"/>
       <c r="N54" s="132" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O54" s="133"/>
       <c r="P54" s="133"/>
@@ -15846,7 +15894,7 @@
       <c r="L55" s="135"/>
       <c r="M55" s="132"/>
       <c r="N55" s="132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O55" s="133"/>
       <c r="P55" s="133"/>
@@ -15873,7 +15921,7 @@
       <c r="L56" s="135"/>
       <c r="M56" s="132"/>
       <c r="N56" s="132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O56" s="133"/>
       <c r="P56" s="133"/>
@@ -15900,7 +15948,7 @@
       <c r="L57" s="135"/>
       <c r="M57" s="132"/>
       <c r="N57" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O57" s="133"/>
       <c r="P57" s="133"/>
@@ -15927,7 +15975,7 @@
       <c r="L58" s="135"/>
       <c r="M58" s="132"/>
       <c r="N58" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O58" s="133"/>
       <c r="P58" s="133"/>
@@ -15954,7 +16002,7 @@
       <c r="L59" s="135"/>
       <c r="M59" s="132"/>
       <c r="N59" s="132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O59" s="133"/>
       <c r="P59" s="133"/>
@@ -15981,7 +16029,7 @@
       <c r="L60" s="135"/>
       <c r="M60" s="132"/>
       <c r="N60" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O60" s="133"/>
       <c r="P60" s="133"/>
@@ -16008,7 +16056,7 @@
       <c r="L61" s="135"/>
       <c r="M61" s="132"/>
       <c r="N61" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O61" s="133"/>
       <c r="P61" s="133"/>
@@ -16035,7 +16083,7 @@
       <c r="L62" s="135"/>
       <c r="M62" s="132"/>
       <c r="N62" s="132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O62" s="133"/>
       <c r="P62" s="133"/>
@@ -16098,7 +16146,7 @@
       <c r="G64" s="66"/>
       <c r="L64" s="135"/>
       <c r="M64" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N64" s="132"/>
       <c r="O64" s="132"/>
@@ -16138,7 +16186,7 @@
       <c r="L65" s="135"/>
       <c r="M65" s="133"/>
       <c r="N65" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O65" s="132"/>
       <c r="P65" s="132"/>
@@ -16211,10 +16259,10 @@
       <c r="F67" s="67"/>
       <c r="G67" s="66"/>
       <c r="L67" s="66" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M67" s="114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N67" s="114"/>
       <c r="O67" s="114"/>
@@ -16294,7 +16342,7 @@
       <c r="L69" s="66"/>
       <c r="M69" s="114"/>
       <c r="N69" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL69" s="114"/>
       <c r="AM69" s="114"/>
@@ -16310,7 +16358,7 @@
       <c r="L70" s="66"/>
       <c r="M70" s="114"/>
       <c r="N70" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL70" s="114"/>
       <c r="AM70" s="114"/>
@@ -16326,7 +16374,7 @@
       <c r="L71" s="66"/>
       <c r="M71" s="114"/>
       <c r="N71" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL71" s="114"/>
       <c r="AM71" s="114"/>
@@ -16342,7 +16390,7 @@
       <c r="L72" s="66"/>
       <c r="M72" s="114"/>
       <c r="N72" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL72" s="114"/>
       <c r="AM72" s="114"/>
@@ -16358,7 +16406,7 @@
       <c r="L73" s="66"/>
       <c r="M73" s="114"/>
       <c r="N73" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL73" s="114"/>
       <c r="AM73" s="114"/>
@@ -16373,7 +16421,7 @@
       <c r="G74" s="66"/>
       <c r="L74" s="66"/>
       <c r="N74" s="132" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="114"/>
@@ -16448,7 +16496,7 @@
       <c r="G76" s="66"/>
       <c r="L76" s="66"/>
       <c r="M76" s="114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N76" s="114"/>
       <c r="O76" s="114"/>
@@ -16487,7 +16535,7 @@
       <c r="G77" s="66"/>
       <c r="L77" s="66"/>
       <c r="N77" s="132" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O77" s="114"/>
       <c r="P77" s="114"/>
@@ -16596,7 +16644,7 @@
       <c r="G80" s="66"/>
       <c r="L80" s="66"/>
       <c r="N80" s="132" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O80" s="114"/>
       <c r="P80" s="114"/>
@@ -16611,7 +16659,7 @@
         <v>115</v>
       </c>
       <c r="Z80" s="131" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA80" s="132"/>
       <c r="AB80" s="114"/>
@@ -16629,7 +16677,7 @@
       <c r="G81" s="66"/>
       <c r="L81" s="66"/>
       <c r="N81" s="114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O81" s="114"/>
       <c r="P81" s="114"/>
@@ -16644,7 +16692,7 @@
         <v>115</v>
       </c>
       <c r="Z81" s="114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA81" s="114"/>
       <c r="AB81" s="114"/>
@@ -16663,7 +16711,7 @@
       <c r="L82" s="66"/>
       <c r="M82" s="114"/>
       <c r="N82" s="114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O82" s="114"/>
       <c r="P82" s="114"/>
@@ -16678,7 +16726,7 @@
         <v>115</v>
       </c>
       <c r="Z82" s="131" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA82" s="132"/>
       <c r="AB82" s="114"/>
@@ -16699,7 +16747,7 @@
       <c r="G83" s="66"/>
       <c r="L83" s="66"/>
       <c r="N83" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O83" s="114"/>
       <c r="P83" s="114"/>
@@ -16711,7 +16759,7 @@
       <c r="V83" s="114"/>
       <c r="W83" s="114"/>
       <c r="Y83" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z83" s="114"/>
       <c r="AA83" s="114"/>
@@ -16734,7 +16782,7 @@
       <c r="G84" s="66"/>
       <c r="L84" s="66"/>
       <c r="N84" s="132" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
@@ -16750,7 +16798,7 @@
         <v>115</v>
       </c>
       <c r="Z84" s="132" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA84" s="132"/>
       <c r="AB84" s="132"/>
@@ -16817,7 +16865,7 @@
       <c r="G86" s="66"/>
       <c r="L86" s="66"/>
       <c r="M86" s="114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL86" s="114"/>
       <c r="AM86" s="114"/>
@@ -16833,7 +16881,7 @@
       <c r="L87" s="66"/>
       <c r="M87" s="114"/>
       <c r="N87" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL87" s="114"/>
       <c r="AM87" s="114"/>
@@ -16849,7 +16897,7 @@
       <c r="L88" s="66"/>
       <c r="M88" s="114"/>
       <c r="N88" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL88" s="114"/>
       <c r="AM88" s="114"/>
@@ -16865,7 +16913,7 @@
       <c r="L89" s="66"/>
       <c r="M89" s="114"/>
       <c r="N89" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL89" s="114"/>
       <c r="AM89" s="114"/>
@@ -16881,7 +16929,7 @@
       <c r="L90" s="66"/>
       <c r="M90" s="114"/>
       <c r="N90" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL90" s="114"/>
       <c r="AM90" s="114"/>
@@ -16897,7 +16945,7 @@
       <c r="L91" s="66"/>
       <c r="M91" s="114"/>
       <c r="N91" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL91" s="114"/>
       <c r="AM91" s="114"/>
@@ -16952,7 +17000,7 @@
       <c r="G93" s="66"/>
       <c r="K93" s="67"/>
       <c r="L93" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M93" s="118"/>
       <c r="N93" s="118"/>
@@ -17075,7 +17123,7 @@
       <c r="G96" s="66"/>
       <c r="L96" s="117"/>
       <c r="N96" s="114" t="s">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="O96" s="114"/>
       <c r="P96" s="114"/>
@@ -17115,7 +17163,7 @@
       <c r="G97" s="66"/>
       <c r="L97" s="117"/>
       <c r="N97" s="114" t="s">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="O97" s="114"/>
       <c r="P97" s="114"/>
@@ -17155,7 +17203,7 @@
       <c r="G98" s="66"/>
       <c r="L98" s="117"/>
       <c r="N98" s="114" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="O98" s="114"/>
       <c r="P98" s="114"/>
@@ -17195,7 +17243,7 @@
       <c r="G99" s="66"/>
       <c r="L99" s="117"/>
       <c r="N99" s="114" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="O99" s="114"/>
       <c r="P99" s="114"/>
@@ -17235,7 +17283,7 @@
       <c r="G100" s="66"/>
       <c r="L100" s="117"/>
       <c r="N100" s="114" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="O100" s="114"/>
       <c r="P100" s="114"/>
@@ -17274,8 +17322,9 @@
       <c r="F101" s="67"/>
       <c r="G101" s="66"/>
       <c r="L101" s="117"/>
+      <c r="M101" s="124"/>
       <c r="N101" s="114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O101" s="114"/>
       <c r="P101" s="114"/>
@@ -17357,7 +17406,7 @@
       <c r="L103" s="117"/>
       <c r="M103" s="124"/>
       <c r="N103" s="114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O103" s="114"/>
       <c r="P103" s="114"/>
@@ -17398,7 +17447,7 @@
       <c r="L104" s="117"/>
       <c r="M104" s="124"/>
       <c r="N104" s="114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O104" s="114"/>
       <c r="P104" s="114"/>
@@ -17439,7 +17488,7 @@
       <c r="L105" s="117"/>
       <c r="M105" s="124"/>
       <c r="N105" s="114" t="s">
-        <v>360</v>
+        <v>258</v>
       </c>
       <c r="O105" s="114"/>
       <c r="P105" s="114"/>
@@ -17480,7 +17529,7 @@
       <c r="L106" s="117"/>
       <c r="M106" s="124"/>
       <c r="N106" s="114" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="O106" s="114"/>
       <c r="P106" s="114"/>
@@ -17521,7 +17570,7 @@
       <c r="L107" s="117"/>
       <c r="M107" s="124"/>
       <c r="N107" s="114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O107" s="114"/>
       <c r="P107" s="114"/>
@@ -17560,10 +17609,8 @@
       <c r="F108" s="67"/>
       <c r="G108" s="66"/>
       <c r="L108" s="117"/>
-      <c r="M108" s="124"/>
-      <c r="N108" s="114" t="s">
-        <v>362</v>
-      </c>
+      <c r="M108" s="114"/>
+      <c r="N108" s="114"/>
       <c r="O108" s="114"/>
       <c r="P108" s="114"/>
       <c r="Q108" s="114"/>
@@ -17601,7 +17648,9 @@
       <c r="F109" s="67"/>
       <c r="G109" s="66"/>
       <c r="L109" s="117"/>
-      <c r="M109" s="114"/>
+      <c r="M109" s="114" t="s">
+        <v>253</v>
+      </c>
       <c r="N109" s="114"/>
       <c r="O109" s="114"/>
       <c r="P109" s="114"/>
@@ -17640,10 +17689,9 @@
       <c r="F110" s="67"/>
       <c r="G110" s="66"/>
       <c r="L110" s="117"/>
-      <c r="M110" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="N110" s="114"/>
+      <c r="N110" s="114" t="s">
+        <v>172</v>
+      </c>
       <c r="O110" s="114"/>
       <c r="P110" s="114"/>
       <c r="Q110" s="114"/>
@@ -17682,7 +17730,7 @@
       <c r="G111" s="66"/>
       <c r="L111" s="117"/>
       <c r="N111" s="114" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="O111" s="114"/>
       <c r="P111" s="114"/>
@@ -17721,10 +17769,10 @@
       <c r="F112" s="67"/>
       <c r="G112" s="66"/>
       <c r="L112" s="117"/>
-      <c r="N112" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="O112" s="114"/>
+      <c r="N112" s="114"/>
+      <c r="O112" s="114" t="s">
+        <v>295</v>
+      </c>
       <c r="P112" s="114"/>
       <c r="Q112" s="114"/>
       <c r="R112" s="114"/>
@@ -17734,8 +17782,12 @@
       <c r="V112" s="114"/>
       <c r="W112" s="114"/>
       <c r="X112" s="114"/>
-      <c r="Y112" s="114"/>
-      <c r="Z112" s="114"/>
+      <c r="Y112" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z112" s="114" t="s">
+        <v>294</v>
+      </c>
       <c r="AA112" s="114"/>
       <c r="AB112" s="114"/>
       <c r="AC112" s="114"/>
@@ -17778,7 +17830,7 @@
         <v>115</v>
       </c>
       <c r="Z113" s="114" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA113" s="114"/>
       <c r="AB113" s="114"/>
@@ -17805,10 +17857,10 @@
       <c r="F114" s="67"/>
       <c r="G114" s="66"/>
       <c r="L114" s="117"/>
-      <c r="N114" s="114"/>
-      <c r="O114" s="114" t="s">
-        <v>297</v>
-      </c>
+      <c r="N114" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="O114" s="114"/>
       <c r="P114" s="114"/>
       <c r="Q114" s="114"/>
       <c r="R114" s="114"/>
@@ -17818,12 +17870,8 @@
       <c r="V114" s="114"/>
       <c r="W114" s="114"/>
       <c r="X114" s="114"/>
-      <c r="Y114" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z114" s="114" t="s">
-        <v>298</v>
-      </c>
+      <c r="Y114" s="114"/>
+      <c r="Z114" s="114"/>
       <c r="AA114" s="114"/>
       <c r="AB114" s="114"/>
       <c r="AC114" s="114"/>
@@ -17849,10 +17897,10 @@
       <c r="F115" s="67"/>
       <c r="G115" s="66"/>
       <c r="L115" s="117"/>
-      <c r="N115" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="O115" s="114"/>
+      <c r="N115" s="114"/>
+      <c r="O115" s="114" t="s">
+        <v>295</v>
+      </c>
       <c r="P115" s="114"/>
       <c r="Q115" s="114"/>
       <c r="R115" s="114"/>
@@ -17862,8 +17910,12 @@
       <c r="V115" s="114"/>
       <c r="W115" s="114"/>
       <c r="X115" s="114"/>
-      <c r="Y115" s="114"/>
-      <c r="Z115" s="114"/>
+      <c r="Y115" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z115" s="114" t="s">
+        <v>298</v>
+      </c>
       <c r="AA115" s="114"/>
       <c r="AB115" s="114"/>
       <c r="AC115" s="114"/>
@@ -17935,7 +17987,7 @@
       <c r="L117" s="117"/>
       <c r="N117" s="114"/>
       <c r="O117" s="114" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="P117" s="114"/>
       <c r="Q117" s="114"/>
@@ -17950,7 +18002,7 @@
         <v>115</v>
       </c>
       <c r="Z117" s="114" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="AA117" s="114"/>
       <c r="AB117" s="114"/>
@@ -17979,7 +18031,7 @@
       <c r="L118" s="117"/>
       <c r="N118" s="114"/>
       <c r="O118" s="114" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P118" s="114"/>
       <c r="Q118" s="114"/>
@@ -18153,10 +18205,10 @@
       <c r="F122" s="67"/>
       <c r="G122" s="66"/>
       <c r="L122" s="117"/>
-      <c r="N122" s="114"/>
-      <c r="O122" s="114" t="s">
-        <v>305</v>
-      </c>
+      <c r="N122" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="O122" s="114"/>
       <c r="P122" s="114"/>
       <c r="Q122" s="114"/>
       <c r="R122" s="114"/>
@@ -18166,12 +18218,8 @@
       <c r="V122" s="114"/>
       <c r="W122" s="114"/>
       <c r="X122" s="114"/>
-      <c r="Y122" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z122" s="114" t="s">
-        <v>324</v>
-      </c>
+      <c r="Y122" s="114"/>
+      <c r="Z122" s="114"/>
       <c r="AA122" s="114"/>
       <c r="AB122" s="114"/>
       <c r="AC122" s="114"/>
@@ -18197,10 +18245,10 @@
       <c r="F123" s="67"/>
       <c r="G123" s="66"/>
       <c r="L123" s="117"/>
-      <c r="N123" s="114" t="s">
-        <v>390</v>
-      </c>
-      <c r="O123" s="114"/>
+      <c r="N123" s="114"/>
+      <c r="O123" s="114" t="s">
+        <v>300</v>
+      </c>
       <c r="P123" s="114"/>
       <c r="Q123" s="114"/>
       <c r="R123" s="114"/>
@@ -18210,8 +18258,12 @@
       <c r="V123" s="114"/>
       <c r="W123" s="114"/>
       <c r="X123" s="114"/>
-      <c r="Y123" s="114"/>
-      <c r="Z123" s="114"/>
+      <c r="Y123" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z123" s="114" t="s">
+        <v>388</v>
+      </c>
       <c r="AA123" s="114"/>
       <c r="AB123" s="114"/>
       <c r="AC123" s="114"/>
@@ -18254,7 +18306,7 @@
         <v>115</v>
       </c>
       <c r="Z124" s="114" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AA124" s="114"/>
       <c r="AB124" s="114"/>
@@ -18298,7 +18350,7 @@
         <v>115</v>
       </c>
       <c r="Z125" s="114" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AA125" s="114"/>
       <c r="AB125" s="114"/>
@@ -18342,7 +18394,7 @@
         <v>115</v>
       </c>
       <c r="Z126" s="114" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AA126" s="114"/>
       <c r="AB126" s="114"/>
@@ -18386,7 +18438,7 @@
         <v>115</v>
       </c>
       <c r="Z127" s="114" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AA127" s="114"/>
       <c r="AB127" s="114"/>
@@ -18413,10 +18465,10 @@
       <c r="F128" s="67"/>
       <c r="G128" s="66"/>
       <c r="L128" s="117"/>
-      <c r="N128" s="114"/>
-      <c r="O128" s="114" t="s">
-        <v>305</v>
-      </c>
+      <c r="N128" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="O128" s="114"/>
       <c r="P128" s="114"/>
       <c r="Q128" s="114"/>
       <c r="R128" s="114"/>
@@ -18426,12 +18478,8 @@
       <c r="V128" s="114"/>
       <c r="W128" s="114"/>
       <c r="X128" s="114"/>
-      <c r="Y128" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z128" s="114" t="s">
-        <v>395</v>
-      </c>
+      <c r="Y128" s="114"/>
+      <c r="Z128" s="114"/>
       <c r="AA128" s="114"/>
       <c r="AB128" s="114"/>
       <c r="AC128" s="114"/>
@@ -18457,10 +18505,10 @@
       <c r="F129" s="67"/>
       <c r="G129" s="66"/>
       <c r="L129" s="117"/>
-      <c r="N129" s="114" t="s">
-        <v>325</v>
-      </c>
-      <c r="O129" s="114"/>
+      <c r="N129" s="114"/>
+      <c r="O129" s="114" t="s">
+        <v>300</v>
+      </c>
       <c r="P129" s="114"/>
       <c r="Q129" s="114"/>
       <c r="R129" s="114"/>
@@ -18470,8 +18518,12 @@
       <c r="V129" s="114"/>
       <c r="W129" s="114"/>
       <c r="X129" s="114"/>
-      <c r="Y129" s="114"/>
-      <c r="Z129" s="114"/>
+      <c r="Y129" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z129" s="114" t="s">
+        <v>325</v>
+      </c>
       <c r="AA129" s="114"/>
       <c r="AB129" s="114"/>
       <c r="AC129" s="114"/>
@@ -18673,10 +18725,10 @@
       <c r="F134" s="67"/>
       <c r="G134" s="66"/>
       <c r="L134" s="117"/>
-      <c r="N134" s="114"/>
-      <c r="O134" s="114" t="s">
-        <v>305</v>
-      </c>
+      <c r="N134" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="O134" s="114"/>
       <c r="P134" s="114"/>
       <c r="Q134" s="114"/>
       <c r="R134" s="114"/>
@@ -18686,12 +18738,8 @@
       <c r="V134" s="114"/>
       <c r="W134" s="114"/>
       <c r="X134" s="114"/>
-      <c r="Y134" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z134" s="114" t="s">
-        <v>330</v>
-      </c>
+      <c r="Y134" s="114"/>
+      <c r="Z134" s="114"/>
       <c r="AA134" s="114"/>
       <c r="AB134" s="114"/>
       <c r="AC134" s="114"/>
@@ -18717,10 +18765,10 @@
       <c r="F135" s="67"/>
       <c r="G135" s="66"/>
       <c r="L135" s="117"/>
-      <c r="N135" s="114" t="s">
-        <v>262</v>
-      </c>
-      <c r="O135" s="114"/>
+      <c r="N135" s="114"/>
+      <c r="O135" s="114" t="s">
+        <v>295</v>
+      </c>
       <c r="P135" s="114"/>
       <c r="Q135" s="114"/>
       <c r="R135" s="114"/>
@@ -18730,8 +18778,12 @@
       <c r="V135" s="114"/>
       <c r="W135" s="114"/>
       <c r="X135" s="114"/>
-      <c r="Y135" s="114"/>
-      <c r="Z135" s="114"/>
+      <c r="Y135" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z135" s="114" t="s">
+        <v>305</v>
+      </c>
       <c r="AA135" s="114"/>
       <c r="AB135" s="114"/>
       <c r="AC135" s="114"/>
@@ -18759,7 +18811,7 @@
       <c r="L136" s="117"/>
       <c r="N136" s="114"/>
       <c r="O136" s="114" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P136" s="114"/>
       <c r="Q136" s="114"/>
@@ -18774,7 +18826,7 @@
         <v>115</v>
       </c>
       <c r="Z136" s="114" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA136" s="114"/>
       <c r="AB136" s="114"/>
@@ -18801,10 +18853,10 @@
       <c r="F137" s="67"/>
       <c r="G137" s="66"/>
       <c r="L137" s="117"/>
-      <c r="N137" s="114"/>
-      <c r="O137" s="114" t="s">
-        <v>307</v>
-      </c>
+      <c r="N137" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="O137" s="114"/>
       <c r="P137" s="114"/>
       <c r="Q137" s="114"/>
       <c r="R137" s="114"/>
@@ -18814,12 +18866,8 @@
       <c r="V137" s="114"/>
       <c r="W137" s="114"/>
       <c r="X137" s="114"/>
-      <c r="Y137" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z137" s="114" t="s">
-        <v>308</v>
-      </c>
+      <c r="Y137" s="114"/>
+      <c r="Z137" s="114"/>
       <c r="AA137" s="114"/>
       <c r="AB137" s="114"/>
       <c r="AC137" s="114"/>
@@ -18845,10 +18893,10 @@
       <c r="F138" s="67"/>
       <c r="G138" s="66"/>
       <c r="L138" s="117"/>
-      <c r="N138" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="O138" s="114"/>
+      <c r="N138" s="114"/>
+      <c r="O138" s="114" t="s">
+        <v>308</v>
+      </c>
       <c r="P138" s="114"/>
       <c r="Q138" s="114"/>
       <c r="R138" s="114"/>
@@ -18858,8 +18906,12 @@
       <c r="V138" s="114"/>
       <c r="W138" s="114"/>
       <c r="X138" s="114"/>
-      <c r="Y138" s="114"/>
-      <c r="Z138" s="114"/>
+      <c r="Y138" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z138" s="114" t="s">
+        <v>309</v>
+      </c>
       <c r="AA138" s="114"/>
       <c r="AB138" s="114"/>
       <c r="AC138" s="114"/>
@@ -18887,7 +18939,7 @@
       <c r="L139" s="117"/>
       <c r="N139" s="114"/>
       <c r="O139" s="114" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P139" s="114"/>
       <c r="Q139" s="114"/>
@@ -18897,26 +18949,20 @@
       <c r="U139" s="114"/>
       <c r="V139" s="114"/>
       <c r="W139" s="114"/>
-      <c r="X139" s="114"/>
       <c r="Y139" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="Z139" s="114" t="s">
-        <v>310</v>
+      <c r="Z139" s="115" t="s">
+        <v>316</v>
       </c>
       <c r="AA139" s="114"/>
       <c r="AB139" s="114"/>
       <c r="AC139" s="114"/>
-      <c r="AD139" s="114"/>
-      <c r="AE139" s="114"/>
-      <c r="AF139" s="114"/>
       <c r="AG139" s="114"/>
       <c r="AH139" s="114"/>
       <c r="AI139" s="114"/>
       <c r="AJ139" s="114"/>
-      <c r="AK139" s="114"/>
-      <c r="AL139" s="114"/>
-      <c r="AM139" s="114"/>
+      <c r="AK139" s="116"/>
       <c r="AN139" s="118"/>
       <c r="AO139" s="118"/>
       <c r="AP139" s="118"/>
@@ -18929,10 +18975,10 @@
       <c r="F140" s="67"/>
       <c r="G140" s="66"/>
       <c r="L140" s="117"/>
-      <c r="N140" s="114"/>
-      <c r="O140" s="114" t="s">
-        <v>311</v>
-      </c>
+      <c r="N140" s="114" t="s">
+        <v>411</v>
+      </c>
+      <c r="O140" s="114"/>
       <c r="P140" s="114"/>
       <c r="Q140" s="114"/>
       <c r="R140" s="114"/>
@@ -18941,20 +18987,22 @@
       <c r="U140" s="114"/>
       <c r="V140" s="114"/>
       <c r="W140" s="114"/>
-      <c r="Y140" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z140" s="115" t="s">
-        <v>317</v>
-      </c>
+      <c r="X140" s="114"/>
+      <c r="Y140" s="114"/>
+      <c r="Z140" s="114"/>
       <c r="AA140" s="114"/>
       <c r="AB140" s="114"/>
       <c r="AC140" s="114"/>
+      <c r="AD140" s="114"/>
+      <c r="AE140" s="114"/>
+      <c r="AF140" s="114"/>
       <c r="AG140" s="114"/>
       <c r="AH140" s="114"/>
       <c r="AI140" s="114"/>
       <c r="AJ140" s="114"/>
-      <c r="AK140" s="116"/>
+      <c r="AK140" s="114"/>
+      <c r="AL140" s="114"/>
+      <c r="AM140" s="114"/>
       <c r="AN140" s="118"/>
       <c r="AO140" s="118"/>
       <c r="AP140" s="118"/>
@@ -18967,10 +19015,10 @@
       <c r="F141" s="67"/>
       <c r="G141" s="66"/>
       <c r="L141" s="117"/>
-      <c r="N141" s="114" t="s">
-        <v>414</v>
-      </c>
-      <c r="O141" s="114"/>
+      <c r="N141" s="114"/>
+      <c r="O141" s="114" t="s">
+        <v>300</v>
+      </c>
       <c r="P141" s="114"/>
       <c r="Q141" s="114"/>
       <c r="R141" s="114"/>
@@ -18980,8 +19028,12 @@
       <c r="V141" s="114"/>
       <c r="W141" s="114"/>
       <c r="X141" s="114"/>
-      <c r="Y141" s="114"/>
-      <c r="Z141" s="114"/>
+      <c r="Y141" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z141" s="114" t="s">
+        <v>337</v>
+      </c>
       <c r="AA141" s="114"/>
       <c r="AB141" s="114"/>
       <c r="AC141" s="114"/>
@@ -19183,10 +19235,9 @@
       <c r="F146" s="67"/>
       <c r="G146" s="66"/>
       <c r="L146" s="117"/>
+      <c r="M146" s="114"/>
       <c r="N146" s="114"/>
-      <c r="O146" s="114" t="s">
-        <v>305</v>
-      </c>
+      <c r="O146" s="114"/>
       <c r="P146" s="114"/>
       <c r="Q146" s="114"/>
       <c r="R146" s="114"/>
@@ -19196,12 +19247,8 @@
       <c r="V146" s="114"/>
       <c r="W146" s="114"/>
       <c r="X146" s="114"/>
-      <c r="Y146" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z146" s="114" t="s">
-        <v>342</v>
-      </c>
+      <c r="Y146" s="114"/>
+      <c r="Z146" s="114"/>
       <c r="AA146" s="114"/>
       <c r="AB146" s="114"/>
       <c r="AC146" s="114"/>
@@ -19227,7 +19274,9 @@
       <c r="F147" s="67"/>
       <c r="G147" s="66"/>
       <c r="L147" s="117"/>
-      <c r="M147" s="114"/>
+      <c r="M147" s="114" t="s">
+        <v>254</v>
+      </c>
       <c r="N147" s="114"/>
       <c r="O147" s="114"/>
       <c r="P147" s="114"/>
@@ -19266,10 +19315,9 @@
       <c r="F148" s="67"/>
       <c r="G148" s="66"/>
       <c r="L148" s="117"/>
-      <c r="M148" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="N148" s="114"/>
+      <c r="N148" s="114" t="s">
+        <v>263</v>
+      </c>
       <c r="O148" s="114"/>
       <c r="P148" s="114"/>
       <c r="Q148" s="114"/>
@@ -19279,22 +19327,20 @@
       <c r="U148" s="114"/>
       <c r="V148" s="114"/>
       <c r="W148" s="114"/>
-      <c r="X148" s="114"/>
-      <c r="Y148" s="114"/>
-      <c r="Z148" s="114"/>
+      <c r="Y148" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z148" s="114" t="s">
+        <v>350</v>
+      </c>
       <c r="AA148" s="114"/>
       <c r="AB148" s="114"/>
       <c r="AC148" s="114"/>
-      <c r="AD148" s="114"/>
-      <c r="AE148" s="114"/>
-      <c r="AF148" s="114"/>
       <c r="AG148" s="114"/>
       <c r="AH148" s="114"/>
       <c r="AI148" s="114"/>
       <c r="AJ148" s="114"/>
-      <c r="AK148" s="114"/>
-      <c r="AL148" s="114"/>
-      <c r="AM148" s="114"/>
+      <c r="AK148" s="116"/>
       <c r="AN148" s="118"/>
       <c r="AO148" s="118"/>
       <c r="AP148" s="118"/>
@@ -19322,17 +19368,18 @@
       <c r="Y149" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="Z149" s="114" t="s">
-        <v>351</v>
+      <c r="Z149" s="115" t="s">
+        <v>404</v>
       </c>
       <c r="AA149" s="114"/>
       <c r="AB149" s="114"/>
       <c r="AC149" s="114"/>
-      <c r="AG149" s="114"/>
       <c r="AH149" s="114"/>
       <c r="AI149" s="114"/>
       <c r="AJ149" s="114"/>
-      <c r="AK149" s="116"/>
+      <c r="AK149" s="114"/>
+      <c r="AL149" s="114"/>
+      <c r="AM149" s="114"/>
       <c r="AN149" s="118"/>
       <c r="AO149" s="118"/>
       <c r="AP149" s="118"/>
@@ -19346,7 +19393,7 @@
       <c r="G150" s="66"/>
       <c r="L150" s="117"/>
       <c r="N150" s="114" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="O150" s="114"/>
       <c r="P150" s="114"/>
@@ -19356,22 +19403,24 @@
       <c r="T150" s="114"/>
       <c r="U150" s="114"/>
       <c r="V150" s="114"/>
-      <c r="W150" s="114"/>
+      <c r="W150" s="114" t="s">
+        <v>343</v>
+      </c>
       <c r="Y150" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z150" s="115" t="s">
-        <v>407</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="Z150" s="114"/>
       <c r="AA150" s="114"/>
       <c r="AB150" s="114"/>
       <c r="AC150" s="114"/>
+      <c r="AG150" s="114"/>
       <c r="AH150" s="114"/>
       <c r="AI150" s="114"/>
       <c r="AJ150" s="114"/>
-      <c r="AK150" s="114"/>
-      <c r="AL150" s="114"/>
-      <c r="AM150" s="114"/>
+      <c r="AK150" s="116"/>
+      <c r="AL150" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="AN150" s="118"/>
       <c r="AO150" s="118"/>
       <c r="AP150" s="118"/>
@@ -19385,7 +19434,7 @@
       <c r="G151" s="66"/>
       <c r="L151" s="117"/>
       <c r="N151" s="114" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O151" s="114"/>
       <c r="P151" s="114"/>
@@ -19395,24 +19444,24 @@
       <c r="T151" s="114"/>
       <c r="U151" s="114"/>
       <c r="V151" s="114"/>
-      <c r="W151" s="114" t="s">
-        <v>344</v>
-      </c>
+      <c r="W151" s="114"/>
       <c r="Y151" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z151" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="Z151" s="114"/>
       <c r="AA151" s="114"/>
       <c r="AB151" s="114"/>
       <c r="AC151" s="114"/>
-      <c r="AG151" s="114"/>
       <c r="AH151" s="114"/>
       <c r="AI151" s="114"/>
       <c r="AJ151" s="114"/>
-      <c r="AK151" s="116"/>
+      <c r="AK151" s="114"/>
       <c r="AL151" s="15" t="s">
-        <v>175</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AM151" s="114"/>
       <c r="AN151" s="118"/>
       <c r="AO151" s="118"/>
       <c r="AP151" s="118"/>
@@ -19426,7 +19475,7 @@
       <c r="G152" s="66"/>
       <c r="L152" s="117"/>
       <c r="N152" s="114" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O152" s="114"/>
       <c r="P152" s="114"/>
@@ -19451,7 +19500,7 @@
       <c r="AJ152" s="114"/>
       <c r="AK152" s="114"/>
       <c r="AL152" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM152" s="114"/>
       <c r="AN152" s="118"/>
@@ -19467,7 +19516,7 @@
       <c r="G153" s="66"/>
       <c r="L153" s="117"/>
       <c r="N153" s="114" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="O153" s="114"/>
       <c r="P153" s="114"/>
@@ -19508,7 +19557,7 @@
       <c r="G154" s="66"/>
       <c r="L154" s="117"/>
       <c r="N154" s="114" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="O154" s="114"/>
       <c r="P154" s="114"/>
@@ -19549,7 +19598,7 @@
       <c r="G155" s="66"/>
       <c r="L155" s="117"/>
       <c r="N155" s="114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O155" s="114"/>
       <c r="P155" s="114"/>
@@ -19574,7 +19623,7 @@
       <c r="AJ155" s="114"/>
       <c r="AK155" s="114"/>
       <c r="AL155" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM155" s="114"/>
       <c r="AN155" s="118"/>
@@ -19590,7 +19639,7 @@
       <c r="G156" s="66"/>
       <c r="L156" s="117"/>
       <c r="N156" s="114" t="s">
-        <v>181</v>
+        <v>394</v>
       </c>
       <c r="O156" s="114"/>
       <c r="P156" s="114"/>
@@ -19601,11 +19650,11 @@
       <c r="U156" s="114"/>
       <c r="V156" s="114"/>
       <c r="W156" s="114"/>
+      <c r="X156" s="15" t="s">
+        <v>342</v>
+      </c>
       <c r="Y156" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z156" s="114" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="AA156" s="114"/>
       <c r="AB156" s="114"/>
@@ -19615,7 +19664,7 @@
       <c r="AJ156" s="114"/>
       <c r="AK156" s="114"/>
       <c r="AL156" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM156" s="114"/>
       <c r="AN156" s="118"/>
@@ -19629,40 +19678,14 @@
       <c r="C157" s="66"/>
       <c r="F157" s="67"/>
       <c r="G157" s="66"/>
-      <c r="L157" s="117"/>
-      <c r="N157" s="114" t="s">
-        <v>397</v>
-      </c>
+      <c r="L157" s="66"/>
+      <c r="M157" s="114"/>
+      <c r="N157" s="114"/>
       <c r="O157" s="114"/>
-      <c r="P157" s="114"/>
-      <c r="Q157" s="114"/>
-      <c r="R157" s="114"/>
-      <c r="S157" s="114"/>
-      <c r="T157" s="114"/>
-      <c r="U157" s="114"/>
-      <c r="V157" s="114"/>
-      <c r="W157" s="114"/>
-      <c r="X157" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y157" s="114" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA157" s="114"/>
-      <c r="AB157" s="114"/>
-      <c r="AC157" s="114"/>
-      <c r="AH157" s="114"/>
-      <c r="AI157" s="114"/>
-      <c r="AJ157" s="114"/>
-      <c r="AK157" s="114"/>
-      <c r="AL157" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="AM157" s="114"/>
-      <c r="AN157" s="118"/>
-      <c r="AO157" s="118"/>
-      <c r="AP157" s="118"/>
-      <c r="AQ157" s="118"/>
+      <c r="AN157" s="114"/>
+      <c r="AO157" s="114"/>
+      <c r="AP157" s="114"/>
       <c r="AV157" s="67"/>
     </row>
     <row r="158" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19671,9 +19694,9 @@
       <c r="F158" s="67"/>
       <c r="G158" s="66"/>
       <c r="L158" s="66"/>
-      <c r="M158" s="114"/>
-      <c r="N158" s="114"/>
-      <c r="O158" s="114"/>
+      <c r="M158" s="114" t="s">
+        <v>116</v>
+      </c>
       <c r="AM158" s="114"/>
       <c r="AN158" s="114"/>
       <c r="AO158" s="114"/>
@@ -19685,14 +19708,18 @@
       <c r="C159" s="66"/>
       <c r="F159" s="67"/>
       <c r="G159" s="66"/>
-      <c r="L159" s="66"/>
-      <c r="M159" s="114" t="s">
-        <v>116</v>
-      </c>
+      <c r="L159" s="117"/>
+      <c r="N159" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ159" s="114"/>
+      <c r="AK159" s="114"/>
+      <c r="AL159" s="114"/>
       <c r="AM159" s="114"/>
-      <c r="AN159" s="114"/>
-      <c r="AO159" s="114"/>
-      <c r="AP159" s="114"/>
+      <c r="AN159" s="118"/>
+      <c r="AO159" s="118"/>
+      <c r="AP159" s="118"/>
+      <c r="AQ159" s="118"/>
       <c r="AV159" s="67"/>
     </row>
     <row r="160" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19701,8 +19728,8 @@
       <c r="F160" s="67"/>
       <c r="G160" s="66"/>
       <c r="L160" s="117"/>
-      <c r="N160" s="114" t="s">
-        <v>255</v>
+      <c r="N160" s="132" t="s">
+        <v>393</v>
       </c>
       <c r="AJ160" s="114"/>
       <c r="AK160" s="114"/>
@@ -19720,9 +19747,30 @@
       <c r="F161" s="67"/>
       <c r="G161" s="66"/>
       <c r="L161" s="117"/>
-      <c r="N161" s="114" t="s">
-        <v>256</v>
-      </c>
+      <c r="N161" s="132" t="s">
+        <v>257</v>
+      </c>
+      <c r="O161" s="114"/>
+      <c r="P161" s="114"/>
+      <c r="Q161" s="114"/>
+      <c r="R161" s="114"/>
+      <c r="S161" s="114"/>
+      <c r="T161" s="114"/>
+      <c r="U161" s="114"/>
+      <c r="V161" s="114"/>
+      <c r="W161" s="114"/>
+      <c r="X161" s="114"/>
+      <c r="Y161" s="114"/>
+      <c r="Z161" s="114"/>
+      <c r="AA161" s="114"/>
+      <c r="AB161" s="114"/>
+      <c r="AC161" s="114"/>
+      <c r="AD161" s="114"/>
+      <c r="AE161" s="114"/>
+      <c r="AF161" s="114"/>
+      <c r="AG161" s="114"/>
+      <c r="AH161" s="114"/>
+      <c r="AI161" s="114"/>
       <c r="AJ161" s="114"/>
       <c r="AK161" s="114"/>
       <c r="AL161" s="114"/>
@@ -19779,7 +19827,7 @@
       <c r="F163" s="67"/>
       <c r="G163" s="66"/>
       <c r="L163" s="66" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M163" s="114"/>
       <c r="N163" s="114"/>
@@ -19819,7 +19867,7 @@
       <c r="F164" s="67"/>
       <c r="G164" s="66"/>
       <c r="L164" s="66" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M164" s="114"/>
       <c r="N164" s="114"/>
@@ -19860,7 +19908,7 @@
       <c r="G165" s="66"/>
       <c r="L165" s="66"/>
       <c r="M165" s="114" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="N165" s="114"/>
       <c r="O165" s="114"/>
@@ -19901,7 +19949,7 @@
       <c r="L166" s="66"/>
       <c r="M166" s="114"/>
       <c r="N166" s="114" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O166" s="114"/>
       <c r="P166" s="114"/>
@@ -20237,7 +20285,7 @@
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
       <c r="L174" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M174" s="20"/>
       <c r="N174" s="20"/>
@@ -20285,7 +20333,7 @@
       </c>
       <c r="L175" s="66"/>
       <c r="M175" s="15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AV175" s="67"/>
     </row>
@@ -20296,7 +20344,7 @@
       <c r="G176" s="66"/>
       <c r="L176" s="66"/>
       <c r="N176" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AV176" s="67"/>
     </row>
@@ -20307,7 +20355,7 @@
       <c r="G177" s="66"/>
       <c r="L177" s="66"/>
       <c r="M177" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AV177" s="67"/>
     </row>
@@ -20399,7 +20447,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="182">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -20415,7 +20463,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="185" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -20486,7 +20534,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="185"/>
+      <c r="AT2" s="189"/>
       <c r="AU2" s="194"/>
       <c r="AV2" s="194"/>
       <c r="AW2" s="194"/>
@@ -21828,7 +21876,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="182">
+      <c r="AI1" s="186">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -21844,7 +21892,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="185" t="str">
+      <c r="AT1" s="189" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -21915,7 +21963,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="185"/>
+      <c r="AT2" s="189"/>
       <c r="AU2" s="194"/>
       <c r="AV2" s="194"/>
       <c r="AW2" s="194"/>
@@ -22201,7 +22249,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -22257,7 +22305,7 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -22313,7 +22361,7 @@
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -22437,15 +22485,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -22603,6 +22642,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22610,14 +22658,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22635,6 +22675,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F538B31B-C451-4E17-8015-90079A9990B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D24545E-19F0-4E2E-8DEE-AB6CDD5AFAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -992,10 +993,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SC-K16</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>HEAD-002</t>
   </si>
   <si>
@@ -3044,6 +3041,10 @@
   </si>
   <si>
     <t>RSLT-CNT1-011</t>
+  </si>
+  <si>
+    <t>K-16</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -3930,6 +3931,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3939,6 +3943,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3966,103 +4055,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4081,10 +4073,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4122,9 +4126,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5927,108 +5928,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="139"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="139"/>
-      <c r="AJ32" s="139"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="139"/>
-      <c r="AM32" s="139"/>
-      <c r="AN32" s="139"/>
-      <c r="AO32" s="139"/>
-      <c r="AP32" s="139"/>
-      <c r="AQ32" s="139"/>
-      <c r="AR32" s="139"/>
-      <c r="AS32" s="139"/>
-      <c r="AT32" s="139"/>
-      <c r="AU32" s="139"/>
-      <c r="AV32" s="139"/>
-      <c r="AW32" s="139"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="140"/>
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="140"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="140"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="140"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="140"/>
-      <c r="U33" s="140"/>
-      <c r="V33" s="140"/>
-      <c r="W33" s="140"/>
-      <c r="X33" s="140"/>
-      <c r="Y33" s="140"/>
-      <c r="Z33" s="140"/>
-      <c r="AA33" s="140"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="140"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="140"/>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="140"/>
-      <c r="AN33" s="140"/>
-      <c r="AO33" s="140"/>
-      <c r="AP33" s="140"/>
-      <c r="AQ33" s="140"/>
-      <c r="AR33" s="140"/>
-      <c r="AS33" s="140"/>
-      <c r="AT33" s="140"/>
-      <c r="AU33" s="140"/>
-      <c r="AV33" s="140"/>
-      <c r="AW33" s="140"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="141"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="141"/>
+      <c r="AH33" s="141"/>
+      <c r="AI33" s="141"/>
+      <c r="AJ33" s="141"/>
+      <c r="AK33" s="141"/>
+      <c r="AL33" s="141"/>
+      <c r="AM33" s="141"/>
+      <c r="AN33" s="141"/>
+      <c r="AO33" s="141"/>
+      <c r="AP33" s="141"/>
+      <c r="AQ33" s="141"/>
+      <c r="AR33" s="141"/>
+      <c r="AS33" s="141"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AV33" s="141"/>
+      <c r="AW33" s="141"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6066,55 +6067,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="141"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
-      <c r="W35" s="141"/>
-      <c r="X35" s="141"/>
-      <c r="Y35" s="141"/>
-      <c r="Z35" s="141"/>
-      <c r="AA35" s="141"/>
-      <c r="AB35" s="141"/>
-      <c r="AC35" s="141"/>
-      <c r="AD35" s="141"/>
-      <c r="AE35" s="141"/>
-      <c r="AF35" s="141"/>
-      <c r="AG35" s="141"/>
-      <c r="AH35" s="141"/>
-      <c r="AI35" s="141"/>
-      <c r="AJ35" s="141"/>
-      <c r="AK35" s="141"/>
-      <c r="AL35" s="141"/>
-      <c r="AM35" s="141"/>
-      <c r="AN35" s="141"/>
-      <c r="AO35" s="141"/>
-      <c r="AP35" s="141"/>
-      <c r="AQ35" s="141"/>
-      <c r="AR35" s="141"/>
-      <c r="AS35" s="141"/>
-      <c r="AT35" s="141"/>
-      <c r="AU35" s="141"/>
-      <c r="AV35" s="141"/>
-      <c r="AW35" s="141"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="142"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="142"/>
+      <c r="AB35" s="142"/>
+      <c r="AC35" s="142"/>
+      <c r="AD35" s="142"/>
+      <c r="AE35" s="142"/>
+      <c r="AF35" s="142"/>
+      <c r="AG35" s="142"/>
+      <c r="AH35" s="142"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="142"/>
+      <c r="AK35" s="142"/>
+      <c r="AL35" s="142"/>
+      <c r="AM35" s="142"/>
+      <c r="AN35" s="142"/>
+      <c r="AO35" s="142"/>
+      <c r="AP35" s="142"/>
+      <c r="AQ35" s="142"/>
+      <c r="AR35" s="142"/>
+      <c r="AS35" s="142"/>
+      <c r="AT35" s="142"/>
+      <c r="AU35" s="142"/>
+      <c r="AV35" s="142"/>
+      <c r="AW35" s="142"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -6149,1770 +6150,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="142"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="142"/>
-      <c r="AW1" s="142"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="143"/>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144" t="s">
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="145" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="144" t="s">
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144" t="s">
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144" t="s">
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
+      <c r="AJ3" s="176"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="176"/>
+      <c r="AN3" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
-      <c r="AR3" s="144"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="144"/>
-      <c r="AV3" s="144"/>
-      <c r="AW3" s="144"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="144"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="144"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="176"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="152">
+      <c r="B5" s="168">
         <v>1</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="149">
         <v>43734</v>
       </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="154" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="151" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="160" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="160"/>
-      <c r="AM5" s="160"/>
-      <c r="AN5" s="151" t="s">
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AR5" s="151"/>
-      <c r="AS5" s="151"/>
-      <c r="AT5" s="151"/>
-      <c r="AU5" s="151"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="151"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="160"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="160"/>
-      <c r="AK6" s="160"/>
-      <c r="AL6" s="160"/>
-      <c r="AM6" s="160"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="151"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="151"/>
-      <c r="AS6" s="151"/>
-      <c r="AT6" s="151"/>
-      <c r="AU6" s="151"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="151"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="158"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="160"/>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="160"/>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="160"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="151"/>
-      <c r="AQ7" s="151"/>
-      <c r="AR7" s="151"/>
-      <c r="AS7" s="151"/>
-      <c r="AT7" s="151"/>
-      <c r="AU7" s="151"/>
-      <c r="AV7" s="151"/>
-      <c r="AW7" s="151"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="167"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="160"/>
-      <c r="AN8" s="151"/>
-      <c r="AO8" s="151"/>
-      <c r="AP8" s="151"/>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="151"/>
-      <c r="AS8" s="151"/>
-      <c r="AT8" s="151"/>
-      <c r="AU8" s="151"/>
-      <c r="AV8" s="151"/>
-      <c r="AW8" s="151"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167"/>
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167"/>
+      <c r="AM8" s="167"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="151"/>
-      <c r="AQ9" s="151"/>
-      <c r="AR9" s="151"/>
-      <c r="AS9" s="151"/>
-      <c r="AT9" s="151"/>
-      <c r="AU9" s="151"/>
-      <c r="AV9" s="151"/>
-      <c r="AW9" s="151"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="167"/>
+      <c r="AK9" s="167"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
-      <c r="AM10" s="160"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="151"/>
-      <c r="AQ10" s="151"/>
-      <c r="AR10" s="151"/>
-      <c r="AS10" s="151"/>
-      <c r="AT10" s="151"/>
-      <c r="AU10" s="151"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="151"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="167"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="167"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="174"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151"/>
-      <c r="AP11" s="151"/>
-      <c r="AQ11" s="151"/>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="169"/>
+      <c r="AJ11" s="169"/>
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="169"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="167"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="168"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="168"/>
-      <c r="AM12" s="169"/>
-      <c r="AN12" s="170"/>
-      <c r="AO12" s="171"/>
-      <c r="AP12" s="171"/>
-      <c r="AQ12" s="171"/>
-      <c r="AR12" s="172"/>
-      <c r="AS12" s="170"/>
-      <c r="AT12" s="171"/>
-      <c r="AU12" s="171"/>
-      <c r="AV12" s="171"/>
-      <c r="AW12" s="172"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="158"/>
+      <c r="AC12" s="158"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="158"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="158"/>
+      <c r="AJ12" s="158"/>
+      <c r="AK12" s="158"/>
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="144"/>
+      <c r="AP12" s="144"/>
+      <c r="AQ12" s="144"/>
+      <c r="AR12" s="145"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="144"/>
+      <c r="AU12" s="144"/>
+      <c r="AV12" s="144"/>
+      <c r="AW12" s="145"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="168"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="168"/>
-      <c r="AH13" s="168"/>
-      <c r="AI13" s="168"/>
-      <c r="AJ13" s="168"/>
-      <c r="AK13" s="168"/>
-      <c r="AL13" s="168"/>
-      <c r="AM13" s="169"/>
-      <c r="AN13" s="170"/>
-      <c r="AO13" s="171"/>
-      <c r="AP13" s="171"/>
-      <c r="AQ13" s="171"/>
-      <c r="AR13" s="172"/>
-      <c r="AS13" s="170"/>
-      <c r="AT13" s="171"/>
-      <c r="AU13" s="171"/>
-      <c r="AV13" s="171"/>
-      <c r="AW13" s="172"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="158"/>
+      <c r="AB13" s="158"/>
+      <c r="AC13" s="158"/>
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="158"/>
+      <c r="AJ13" s="158"/>
+      <c r="AK13" s="158"/>
+      <c r="AL13" s="158"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="144"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="144"/>
+      <c r="AW13" s="145"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="160"/>
-      <c r="AM14" s="160"/>
-      <c r="AN14" s="151"/>
-      <c r="AO14" s="151"/>
-      <c r="AP14" s="151"/>
-      <c r="AQ14" s="151"/>
-      <c r="AR14" s="151"/>
-      <c r="AS14" s="170"/>
-      <c r="AT14" s="171"/>
-      <c r="AU14" s="171"/>
-      <c r="AV14" s="171"/>
-      <c r="AW14" s="172"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="167"/>
+      <c r="AH14" s="167"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="167"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="143"/>
+      <c r="AT14" s="144"/>
+      <c r="AU14" s="144"/>
+      <c r="AV14" s="144"/>
+      <c r="AW14" s="145"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="168"/>
-      <c r="AF15" s="168"/>
-      <c r="AG15" s="168"/>
-      <c r="AH15" s="168"/>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="168"/>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="168"/>
-      <c r="AM15" s="169"/>
-      <c r="AN15" s="170"/>
-      <c r="AO15" s="171"/>
-      <c r="AP15" s="171"/>
-      <c r="AQ15" s="171"/>
-      <c r="AR15" s="172"/>
-      <c r="AS15" s="170"/>
-      <c r="AT15" s="171"/>
-      <c r="AU15" s="171"/>
-      <c r="AV15" s="171"/>
-      <c r="AW15" s="172"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="158"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="158"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="158"/>
+      <c r="AB15" s="158"/>
+      <c r="AC15" s="158"/>
+      <c r="AD15" s="158"/>
+      <c r="AE15" s="158"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="158"/>
+      <c r="AJ15" s="158"/>
+      <c r="AK15" s="158"/>
+      <c r="AL15" s="158"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="144"/>
+      <c r="AP15" s="144"/>
+      <c r="AQ15" s="144"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="143"/>
+      <c r="AT15" s="144"/>
+      <c r="AU15" s="144"/>
+      <c r="AV15" s="144"/>
+      <c r="AW15" s="145"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="167"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="168"/>
-      <c r="AH16" s="168"/>
-      <c r="AI16" s="168"/>
-      <c r="AJ16" s="168"/>
-      <c r="AK16" s="168"/>
-      <c r="AL16" s="168"/>
-      <c r="AM16" s="169"/>
-      <c r="AN16" s="170"/>
-      <c r="AO16" s="171"/>
-      <c r="AP16" s="171"/>
-      <c r="AQ16" s="171"/>
-      <c r="AR16" s="172"/>
-      <c r="AS16" s="170"/>
-      <c r="AT16" s="171"/>
-      <c r="AU16" s="171"/>
-      <c r="AV16" s="171"/>
-      <c r="AW16" s="172"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="158"/>
+      <c r="AB16" s="158"/>
+      <c r="AC16" s="158"/>
+      <c r="AD16" s="158"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="158"/>
+      <c r="AJ16" s="158"/>
+      <c r="AK16" s="158"/>
+      <c r="AL16" s="158"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="144"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="144"/>
+      <c r="AV16" s="144"/>
+      <c r="AW16" s="145"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="177"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="168"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="168"/>
-      <c r="AJ17" s="168"/>
-      <c r="AK17" s="168"/>
-      <c r="AL17" s="168"/>
-      <c r="AM17" s="169"/>
-      <c r="AN17" s="170"/>
-      <c r="AO17" s="171"/>
-      <c r="AP17" s="171"/>
-      <c r="AQ17" s="171"/>
-      <c r="AR17" s="172"/>
-      <c r="AS17" s="170"/>
-      <c r="AT17" s="171"/>
-      <c r="AU17" s="171"/>
-      <c r="AV17" s="171"/>
-      <c r="AW17" s="172"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="158"/>
+      <c r="AD17" s="158"/>
+      <c r="AE17" s="158"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="158"/>
+      <c r="AJ17" s="158"/>
+      <c r="AK17" s="158"/>
+      <c r="AL17" s="158"/>
+      <c r="AM17" s="159"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="144"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="143"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="144"/>
+      <c r="AV17" s="144"/>
+      <c r="AW17" s="145"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="167"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="168"/>
-      <c r="AE18" s="168"/>
-      <c r="AF18" s="168"/>
-      <c r="AG18" s="168"/>
-      <c r="AH18" s="168"/>
-      <c r="AI18" s="168"/>
-      <c r="AJ18" s="168"/>
-      <c r="AK18" s="168"/>
-      <c r="AL18" s="168"/>
-      <c r="AM18" s="169"/>
-      <c r="AN18" s="170"/>
-      <c r="AO18" s="171"/>
-      <c r="AP18" s="171"/>
-      <c r="AQ18" s="171"/>
-      <c r="AR18" s="172"/>
-      <c r="AS18" s="170"/>
-      <c r="AT18" s="171"/>
-      <c r="AU18" s="171"/>
-      <c r="AV18" s="171"/>
-      <c r="AW18" s="172"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="158"/>
+      <c r="AK18" s="158"/>
+      <c r="AL18" s="158"/>
+      <c r="AM18" s="159"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="144"/>
+      <c r="AQ18" s="144"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="143"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="144"/>
+      <c r="AV18" s="144"/>
+      <c r="AW18" s="145"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="167"/>
-      <c r="W19" s="168"/>
-      <c r="X19" s="168"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="168"/>
-      <c r="AC19" s="168"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="168"/>
-      <c r="AF19" s="168"/>
-      <c r="AG19" s="168"/>
-      <c r="AH19" s="168"/>
-      <c r="AI19" s="168"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="168"/>
-      <c r="AL19" s="168"/>
-      <c r="AM19" s="169"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="151"/>
-      <c r="AP19" s="151"/>
-      <c r="AQ19" s="151"/>
-      <c r="AR19" s="151"/>
-      <c r="AS19" s="170"/>
-      <c r="AT19" s="171"/>
-      <c r="AU19" s="171"/>
-      <c r="AV19" s="171"/>
-      <c r="AW19" s="172"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="158"/>
+      <c r="AD19" s="158"/>
+      <c r="AE19" s="158"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="158"/>
+      <c r="AJ19" s="158"/>
+      <c r="AK19" s="158"/>
+      <c r="AL19" s="158"/>
+      <c r="AM19" s="159"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="144"/>
+      <c r="AV19" s="144"/>
+      <c r="AW19" s="145"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="168"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="168"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="168"/>
-      <c r="AF20" s="168"/>
-      <c r="AG20" s="168"/>
-      <c r="AH20" s="168"/>
-      <c r="AI20" s="168"/>
-      <c r="AJ20" s="168"/>
-      <c r="AK20" s="168"/>
-      <c r="AL20" s="168"/>
-      <c r="AM20" s="169"/>
-      <c r="AN20" s="170"/>
-      <c r="AO20" s="171"/>
-      <c r="AP20" s="171"/>
-      <c r="AQ20" s="171"/>
-      <c r="AR20" s="172"/>
-      <c r="AS20" s="170"/>
-      <c r="AT20" s="171"/>
-      <c r="AU20" s="171"/>
-      <c r="AV20" s="171"/>
-      <c r="AW20" s="172"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="158"/>
+      <c r="AD20" s="158"/>
+      <c r="AE20" s="158"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="158"/>
+      <c r="AJ20" s="158"/>
+      <c r="AK20" s="158"/>
+      <c r="AL20" s="158"/>
+      <c r="AM20" s="159"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="144"/>
+      <c r="AP20" s="144"/>
+      <c r="AQ20" s="144"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="143"/>
+      <c r="AT20" s="144"/>
+      <c r="AU20" s="144"/>
+      <c r="AV20" s="144"/>
+      <c r="AW20" s="145"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="167"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="168"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="168"/>
-      <c r="AC21" s="168"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="168"/>
-      <c r="AF21" s="168"/>
-      <c r="AG21" s="168"/>
-      <c r="AH21" s="168"/>
-      <c r="AI21" s="168"/>
-      <c r="AJ21" s="168"/>
-      <c r="AK21" s="168"/>
-      <c r="AL21" s="168"/>
-      <c r="AM21" s="169"/>
-      <c r="AN21" s="170"/>
-      <c r="AO21" s="171"/>
-      <c r="AP21" s="171"/>
-      <c r="AQ21" s="171"/>
-      <c r="AR21" s="172"/>
-      <c r="AS21" s="170"/>
-      <c r="AT21" s="171"/>
-      <c r="AU21" s="171"/>
-      <c r="AV21" s="171"/>
-      <c r="AW21" s="172"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="158"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="158"/>
+      <c r="AB21" s="158"/>
+      <c r="AC21" s="158"/>
+      <c r="AD21" s="158"/>
+      <c r="AE21" s="158"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="158"/>
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="158"/>
+      <c r="AL21" s="158"/>
+      <c r="AM21" s="159"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="144"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="143"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="144"/>
+      <c r="AV21" s="144"/>
+      <c r="AW21" s="145"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="167"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="168"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="168"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="168"/>
-      <c r="AF22" s="168"/>
-      <c r="AG22" s="168"/>
-      <c r="AH22" s="168"/>
-      <c r="AI22" s="168"/>
-      <c r="AJ22" s="168"/>
-      <c r="AK22" s="168"/>
-      <c r="AL22" s="168"/>
-      <c r="AM22" s="169"/>
-      <c r="AN22" s="170"/>
-      <c r="AO22" s="171"/>
-      <c r="AP22" s="171"/>
-      <c r="AQ22" s="171"/>
-      <c r="AR22" s="172"/>
-      <c r="AS22" s="170"/>
-      <c r="AT22" s="171"/>
-      <c r="AU22" s="171"/>
-      <c r="AV22" s="171"/>
-      <c r="AW22" s="172"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="158"/>
+      <c r="AL22" s="158"/>
+      <c r="AM22" s="159"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="144"/>
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="144"/>
+      <c r="AR22" s="145"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="144"/>
+      <c r="AV22" s="144"/>
+      <c r="AW22" s="145"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="168"/>
-      <c r="AH23" s="168"/>
-      <c r="AI23" s="168"/>
-      <c r="AJ23" s="168"/>
-      <c r="AK23" s="168"/>
-      <c r="AL23" s="168"/>
-      <c r="AM23" s="169"/>
-      <c r="AN23" s="170"/>
-      <c r="AO23" s="171"/>
-      <c r="AP23" s="171"/>
-      <c r="AQ23" s="171"/>
-      <c r="AR23" s="172"/>
-      <c r="AS23" s="170"/>
-      <c r="AT23" s="171"/>
-      <c r="AU23" s="171"/>
-      <c r="AV23" s="171"/>
-      <c r="AW23" s="172"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="158"/>
+      <c r="AD23" s="158"/>
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="158"/>
+      <c r="AJ23" s="158"/>
+      <c r="AK23" s="158"/>
+      <c r="AL23" s="158"/>
+      <c r="AM23" s="159"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+      <c r="AW23" s="145"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="168"/>
-      <c r="X24" s="168"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="168"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="168"/>
-      <c r="AC24" s="168"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
-      <c r="AF24" s="168"/>
-      <c r="AG24" s="168"/>
-      <c r="AH24" s="168"/>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="168"/>
-      <c r="AK24" s="168"/>
-      <c r="AL24" s="168"/>
-      <c r="AM24" s="169"/>
-      <c r="AN24" s="170"/>
-      <c r="AO24" s="171"/>
-      <c r="AP24" s="171"/>
-      <c r="AQ24" s="171"/>
-      <c r="AR24" s="172"/>
-      <c r="AS24" s="170"/>
-      <c r="AT24" s="171"/>
-      <c r="AU24" s="171"/>
-      <c r="AV24" s="171"/>
-      <c r="AW24" s="172"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="158"/>
+      <c r="AD24" s="158"/>
+      <c r="AE24" s="158"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="158"/>
+      <c r="AJ24" s="158"/>
+      <c r="AK24" s="158"/>
+      <c r="AL24" s="158"/>
+      <c r="AM24" s="159"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="143"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="145"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="167"/>
-      <c r="W25" s="168"/>
-      <c r="X25" s="168"/>
-      <c r="Y25" s="168"/>
-      <c r="Z25" s="168"/>
-      <c r="AA25" s="168"/>
-      <c r="AB25" s="168"/>
-      <c r="AC25" s="168"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="168"/>
-      <c r="AF25" s="168"/>
-      <c r="AG25" s="168"/>
-      <c r="AH25" s="168"/>
-      <c r="AI25" s="168"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="168"/>
-      <c r="AL25" s="168"/>
-      <c r="AM25" s="169"/>
-      <c r="AN25" s="170"/>
-      <c r="AO25" s="171"/>
-      <c r="AP25" s="171"/>
-      <c r="AQ25" s="171"/>
-      <c r="AR25" s="172"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="171"/>
-      <c r="AU25" s="171"/>
-      <c r="AV25" s="171"/>
-      <c r="AW25" s="172"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="158"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="158"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="158"/>
+      <c r="AJ25" s="158"/>
+      <c r="AK25" s="158"/>
+      <c r="AL25" s="158"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="145"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="167"/>
-      <c r="W26" s="168"/>
-      <c r="X26" s="168"/>
-      <c r="Y26" s="168"/>
-      <c r="Z26" s="168"/>
-      <c r="AA26" s="168"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="168"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="168"/>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="168"/>
-      <c r="AH26" s="168"/>
-      <c r="AI26" s="168"/>
-      <c r="AJ26" s="168"/>
-      <c r="AK26" s="168"/>
-      <c r="AL26" s="168"/>
-      <c r="AM26" s="169"/>
-      <c r="AN26" s="170"/>
-      <c r="AO26" s="171"/>
-      <c r="AP26" s="171"/>
-      <c r="AQ26" s="171"/>
-      <c r="AR26" s="172"/>
-      <c r="AS26" s="170"/>
-      <c r="AT26" s="171"/>
-      <c r="AU26" s="171"/>
-      <c r="AV26" s="171"/>
-      <c r="AW26" s="172"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="158"/>
+      <c r="AK26" s="158"/>
+      <c r="AL26" s="158"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="144"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="145"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="168"/>
-      <c r="X27" s="168"/>
-      <c r="Y27" s="168"/>
-      <c r="Z27" s="168"/>
-      <c r="AA27" s="168"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
-      <c r="AF27" s="168"/>
-      <c r="AG27" s="168"/>
-      <c r="AH27" s="168"/>
-      <c r="AI27" s="168"/>
-      <c r="AJ27" s="168"/>
-      <c r="AK27" s="168"/>
-      <c r="AL27" s="168"/>
-      <c r="AM27" s="169"/>
-      <c r="AN27" s="170"/>
-      <c r="AO27" s="171"/>
-      <c r="AP27" s="171"/>
-      <c r="AQ27" s="171"/>
-      <c r="AR27" s="172"/>
-      <c r="AS27" s="170"/>
-      <c r="AT27" s="171"/>
-      <c r="AU27" s="171"/>
-      <c r="AV27" s="171"/>
-      <c r="AW27" s="172"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="158"/>
+      <c r="AJ27" s="158"/>
+      <c r="AK27" s="158"/>
+      <c r="AL27" s="158"/>
+      <c r="AM27" s="159"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="143"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
+      <c r="AV27" s="144"/>
+      <c r="AW27" s="145"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="167"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
-      <c r="AF28" s="168"/>
-      <c r="AG28" s="168"/>
-      <c r="AH28" s="168"/>
-      <c r="AI28" s="168"/>
-      <c r="AJ28" s="168"/>
-      <c r="AK28" s="168"/>
-      <c r="AL28" s="168"/>
-      <c r="AM28" s="169"/>
-      <c r="AN28" s="170"/>
-      <c r="AO28" s="171"/>
-      <c r="AP28" s="171"/>
-      <c r="AQ28" s="171"/>
-      <c r="AR28" s="172"/>
-      <c r="AS28" s="170"/>
-      <c r="AT28" s="171"/>
-      <c r="AU28" s="171"/>
-      <c r="AV28" s="171"/>
-      <c r="AW28" s="172"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="145"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="167"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="168"/>
-      <c r="Y29" s="168"/>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="168"/>
-      <c r="AC29" s="168"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="168"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="168"/>
-      <c r="AH29" s="168"/>
-      <c r="AI29" s="168"/>
-      <c r="AJ29" s="168"/>
-      <c r="AK29" s="168"/>
-      <c r="AL29" s="168"/>
-      <c r="AM29" s="169"/>
-      <c r="AN29" s="170"/>
-      <c r="AO29" s="171"/>
-      <c r="AP29" s="171"/>
-      <c r="AQ29" s="171"/>
-      <c r="AR29" s="172"/>
-      <c r="AS29" s="170"/>
-      <c r="AT29" s="171"/>
-      <c r="AU29" s="171"/>
-      <c r="AV29" s="171"/>
-      <c r="AW29" s="172"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="158"/>
+      <c r="AC29" s="158"/>
+      <c r="AD29" s="158"/>
+      <c r="AE29" s="158"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="158"/>
+      <c r="AJ29" s="158"/>
+      <c r="AK29" s="158"/>
+      <c r="AL29" s="158"/>
+      <c r="AM29" s="159"/>
+      <c r="AN29" s="143"/>
+      <c r="AO29" s="144"/>
+      <c r="AP29" s="144"/>
+      <c r="AQ29" s="144"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="144"/>
+      <c r="AU29" s="144"/>
+      <c r="AV29" s="144"/>
+      <c r="AW29" s="145"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="167"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="168"/>
-      <c r="AH30" s="168"/>
-      <c r="AI30" s="168"/>
-      <c r="AJ30" s="168"/>
-      <c r="AK30" s="168"/>
-      <c r="AL30" s="168"/>
-      <c r="AM30" s="169"/>
-      <c r="AN30" s="170"/>
-      <c r="AO30" s="171"/>
-      <c r="AP30" s="171"/>
-      <c r="AQ30" s="171"/>
-      <c r="AR30" s="172"/>
-      <c r="AS30" s="170"/>
-      <c r="AT30" s="171"/>
-      <c r="AU30" s="171"/>
-      <c r="AV30" s="171"/>
-      <c r="AW30" s="172"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="158"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="158"/>
+      <c r="AJ30" s="158"/>
+      <c r="AK30" s="158"/>
+      <c r="AL30" s="158"/>
+      <c r="AM30" s="159"/>
+      <c r="AN30" s="143"/>
+      <c r="AO30" s="144"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="144"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="144"/>
+      <c r="AV30" s="144"/>
+      <c r="AW30" s="145"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="167"/>
-      <c r="W31" s="168"/>
-      <c r="X31" s="168"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="168"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="168"/>
-      <c r="AC31" s="168"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="168"/>
-      <c r="AH31" s="168"/>
-      <c r="AI31" s="168"/>
-      <c r="AJ31" s="168"/>
-      <c r="AK31" s="168"/>
-      <c r="AL31" s="168"/>
-      <c r="AM31" s="169"/>
-      <c r="AN31" s="170"/>
-      <c r="AO31" s="171"/>
-      <c r="AP31" s="171"/>
-      <c r="AQ31" s="171"/>
-      <c r="AR31" s="172"/>
-      <c r="AS31" s="170"/>
-      <c r="AT31" s="171"/>
-      <c r="AU31" s="171"/>
-      <c r="AV31" s="171"/>
-      <c r="AW31" s="172"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="158"/>
+      <c r="AC31" s="158"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="158"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="158"/>
+      <c r="AJ31" s="158"/>
+      <c r="AK31" s="158"/>
+      <c r="AL31" s="158"/>
+      <c r="AM31" s="159"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="144"/>
+      <c r="AP31" s="144"/>
+      <c r="AQ31" s="144"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="144"/>
+      <c r="AU31" s="144"/>
+      <c r="AV31" s="144"/>
+      <c r="AW31" s="145"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="167"/>
-      <c r="W32" s="168"/>
-      <c r="X32" s="168"/>
-      <c r="Y32" s="168"/>
-      <c r="Z32" s="168"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168"/>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="168"/>
-      <c r="AH32" s="168"/>
-      <c r="AI32" s="168"/>
-      <c r="AJ32" s="168"/>
-      <c r="AK32" s="168"/>
-      <c r="AL32" s="168"/>
-      <c r="AM32" s="169"/>
-      <c r="AN32" s="170"/>
-      <c r="AO32" s="171"/>
-      <c r="AP32" s="171"/>
-      <c r="AQ32" s="171"/>
-      <c r="AR32" s="172"/>
-      <c r="AS32" s="170"/>
-      <c r="AT32" s="171"/>
-      <c r="AU32" s="171"/>
-      <c r="AV32" s="171"/>
-      <c r="AW32" s="172"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="158"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="158"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="158"/>
+      <c r="AJ32" s="158"/>
+      <c r="AK32" s="158"/>
+      <c r="AL32" s="158"/>
+      <c r="AM32" s="159"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="144"/>
+      <c r="AQ32" s="144"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="144"/>
+      <c r="AU32" s="144"/>
+      <c r="AV32" s="144"/>
+      <c r="AW32" s="145"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="161"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="167"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="168"/>
-      <c r="AH33" s="168"/>
-      <c r="AI33" s="168"/>
-      <c r="AJ33" s="168"/>
-      <c r="AK33" s="168"/>
-      <c r="AL33" s="168"/>
-      <c r="AM33" s="169"/>
-      <c r="AN33" s="170"/>
-      <c r="AO33" s="171"/>
-      <c r="AP33" s="171"/>
-      <c r="AQ33" s="171"/>
-      <c r="AR33" s="172"/>
-      <c r="AS33" s="170"/>
-      <c r="AT33" s="171"/>
-      <c r="AU33" s="171"/>
-      <c r="AV33" s="171"/>
-      <c r="AW33" s="172"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="158"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="158"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="158"/>
+      <c r="AJ33" s="158"/>
+      <c r="AK33" s="158"/>
+      <c r="AL33" s="158"/>
+      <c r="AM33" s="159"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="145"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="161"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="180"/>
-      <c r="Q34" s="180"/>
-      <c r="R34" s="181"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="167"/>
-      <c r="W34" s="168"/>
-      <c r="X34" s="168"/>
-      <c r="Y34" s="168"/>
-      <c r="Z34" s="168"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="168"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168"/>
-      <c r="AF34" s="168"/>
-      <c r="AG34" s="168"/>
-      <c r="AH34" s="168"/>
-      <c r="AI34" s="168"/>
-      <c r="AJ34" s="168"/>
-      <c r="AK34" s="168"/>
-      <c r="AL34" s="168"/>
-      <c r="AM34" s="169"/>
-      <c r="AN34" s="170"/>
-      <c r="AO34" s="171"/>
-      <c r="AP34" s="171"/>
-      <c r="AQ34" s="171"/>
-      <c r="AR34" s="172"/>
-      <c r="AS34" s="170"/>
-      <c r="AT34" s="171"/>
-      <c r="AU34" s="171"/>
-      <c r="AV34" s="171"/>
-      <c r="AW34" s="172"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="158"/>
+      <c r="AC34" s="158"/>
+      <c r="AD34" s="158"/>
+      <c r="AE34" s="158"/>
+      <c r="AF34" s="158"/>
+      <c r="AG34" s="158"/>
+      <c r="AH34" s="158"/>
+      <c r="AI34" s="158"/>
+      <c r="AJ34" s="158"/>
+      <c r="AK34" s="158"/>
+      <c r="AL34" s="158"/>
+      <c r="AM34" s="159"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="144"/>
+      <c r="AP34" s="144"/>
+      <c r="AQ34" s="144"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="144"/>
+      <c r="AU34" s="144"/>
+      <c r="AV34" s="144"/>
+      <c r="AW34" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7929,239 +8163,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8293,14 +8294,14 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="87" t="s">
-        <v>128</v>
+        <v>445</v>
       </c>
       <c r="S2" s="88"/>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
       <c r="V2" s="89"/>
       <c r="W2" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
@@ -8321,11 +8322,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="186"/>
-      <c r="AP2" s="187"/>
-      <c r="AQ2" s="187"/>
-      <c r="AR2" s="187"/>
-      <c r="AS2" s="188"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="185"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8334,14 +8335,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="190"/>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="190"/>
-      <c r="BE2" s="190"/>
-      <c r="BF2" s="190"/>
-      <c r="BG2" s="191"/>
+      <c r="AZ2" s="186"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="187"/>
+      <c r="BF2" s="187"/>
+      <c r="BG2" s="188"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -8422,7 +8423,7 @@
     </row>
     <row r="8" spans="1:59" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -9358,7 +9359,7 @@
       <c r="G32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -9382,7 +9383,7 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
@@ -9407,7 +9408,7 @@
       <c r="G33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -9430,7 +9431,7 @@
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
@@ -9453,7 +9454,7 @@
     </row>
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J34" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -9472,7 +9473,7 @@
       <c r="AE34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL34" s="11"/>
       <c r="AN34" s="11"/>
@@ -9490,13 +9491,13 @@
     </row>
     <row r="35" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="R35" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -9513,7 +9514,7 @@
       </c>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL35" s="11"/>
       <c r="AN35" s="11"/>
@@ -9741,7 +9742,7 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -9927,10 +9928,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="193"/>
+      <c r="C45" s="192"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -10013,10 +10014,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="182">
+      <c r="B46" s="193">
         <v>1</v>
       </c>
-      <c r="C46" s="183"/>
+      <c r="C46" s="194"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -10027,7 +10028,7 @@
       <c r="I46" s="79"/>
       <c r="J46" s="80"/>
       <c r="K46" s="119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
@@ -10048,18 +10049,18 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="184" t="s">
+      <c r="AE46" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF46" s="185"/>
-      <c r="AG46" s="184"/>
-      <c r="AH46" s="185"/>
+      <c r="AF46" s="190"/>
+      <c r="AG46" s="189"/>
+      <c r="AH46" s="190"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="184"/>
-      <c r="AL46" s="185"/>
+      <c r="AK46" s="189"/>
+      <c r="AL46" s="190"/>
       <c r="AM46" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN46" s="77"/>
       <c r="AO46" s="77"/>
@@ -10091,10 +10092,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="182">
+      <c r="B47" s="193">
         <v>2</v>
       </c>
-      <c r="C47" s="183"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -10105,7 +10106,7 @@
       <c r="I47" s="79"/>
       <c r="J47" s="111"/>
       <c r="K47" s="110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L47" s="79"/>
       <c r="M47" s="79"/>
@@ -10126,18 +10127,18 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="184" t="s">
+      <c r="AE47" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF47" s="185"/>
-      <c r="AG47" s="184"/>
-      <c r="AH47" s="185"/>
+      <c r="AF47" s="190"/>
+      <c r="AG47" s="189"/>
+      <c r="AH47" s="190"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="184"/>
-      <c r="AL47" s="185"/>
+      <c r="AK47" s="189"/>
+      <c r="AL47" s="190"/>
       <c r="AM47" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN47" s="77"/>
       <c r="AO47" s="77"/>
@@ -10169,10 +10170,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="182">
+      <c r="B48" s="193">
         <v>3</v>
       </c>
-      <c r="C48" s="183"/>
+      <c r="C48" s="194"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -10183,7 +10184,7 @@
       <c r="I48" s="79"/>
       <c r="J48" s="120"/>
       <c r="K48" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L48" s="79"/>
       <c r="M48" s="79"/>
@@ -10204,18 +10205,18 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="184" t="s">
+      <c r="AE48" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF48" s="185"/>
-      <c r="AG48" s="184"/>
-      <c r="AH48" s="185"/>
+      <c r="AF48" s="190"/>
+      <c r="AG48" s="189"/>
+      <c r="AH48" s="190"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="184"/>
-      <c r="AL48" s="185"/>
+      <c r="AK48" s="189"/>
+      <c r="AL48" s="190"/>
       <c r="AM48" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN48" s="77"/>
       <c r="AO48" s="77"/>
@@ -10247,10 +10248,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="182">
+      <c r="B49" s="193">
         <v>4</v>
       </c>
-      <c r="C49" s="183"/>
+      <c r="C49" s="194"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10261,7 +10262,7 @@
       <c r="I49" s="79"/>
       <c r="J49" s="120"/>
       <c r="K49" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L49" s="79"/>
       <c r="M49" s="79"/>
@@ -10282,18 +10283,18 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="184" t="s">
+      <c r="AE49" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF49" s="185"/>
-      <c r="AG49" s="184"/>
-      <c r="AH49" s="185"/>
+      <c r="AF49" s="190"/>
+      <c r="AG49" s="189"/>
+      <c r="AH49" s="190"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="184"/>
-      <c r="AL49" s="185"/>
+      <c r="AK49" s="189"/>
+      <c r="AL49" s="190"/>
       <c r="AM49" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN49" s="77"/>
       <c r="AO49" s="77"/>
@@ -10325,10 +10326,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="182">
+      <c r="B50" s="193">
         <v>5</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10339,7 +10340,7 @@
       <c r="I50" s="79"/>
       <c r="J50" s="120"/>
       <c r="K50" s="119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L50" s="79"/>
       <c r="M50" s="79"/>
@@ -10360,18 +10361,18 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="184" t="s">
+      <c r="AE50" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF50" s="185"/>
-      <c r="AG50" s="184"/>
-      <c r="AH50" s="185"/>
+      <c r="AF50" s="190"/>
+      <c r="AG50" s="189"/>
+      <c r="AH50" s="190"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="184"/>
-      <c r="AL50" s="185"/>
+      <c r="AK50" s="189"/>
+      <c r="AL50" s="190"/>
       <c r="AM50" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN50" s="77"/>
       <c r="AO50" s="77"/>
@@ -10403,12 +10404,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="182">
+      <c r="B51" s="193">
         <v>6</v>
       </c>
-      <c r="C51" s="183"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
@@ -10417,7 +10418,7 @@
       <c r="I51" s="79"/>
       <c r="J51" s="120"/>
       <c r="K51" s="119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L51" s="79"/>
       <c r="M51" s="79"/>
@@ -10438,18 +10439,18 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="184" t="s">
+      <c r="AE51" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF51" s="185"/>
-      <c r="AG51" s="184"/>
-      <c r="AH51" s="185"/>
+      <c r="AF51" s="190"/>
+      <c r="AG51" s="189"/>
+      <c r="AH51" s="190"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="184"/>
-      <c r="AL51" s="185"/>
+      <c r="AK51" s="189"/>
+      <c r="AL51" s="190"/>
       <c r="AM51" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN51" s="77"/>
       <c r="AO51" s="77"/>
@@ -10481,12 +10482,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="182">
+      <c r="B52" s="193">
         <v>7</v>
       </c>
-      <c r="C52" s="183"/>
+      <c r="C52" s="194"/>
       <c r="D52" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="79"/>
       <c r="F52" s="79"/>
@@ -10495,7 +10496,7 @@
       <c r="I52" s="79"/>
       <c r="J52" s="111"/>
       <c r="K52" s="110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L52" s="79"/>
       <c r="M52" s="79"/>
@@ -10516,18 +10517,18 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="184" t="s">
+      <c r="AE52" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF52" s="185"/>
-      <c r="AG52" s="184"/>
-      <c r="AH52" s="185"/>
+      <c r="AF52" s="190"/>
+      <c r="AG52" s="189"/>
+      <c r="AH52" s="190"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="184"/>
-      <c r="AL52" s="185"/>
+      <c r="AK52" s="189"/>
+      <c r="AL52" s="190"/>
       <c r="AM52" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN52" s="77"/>
       <c r="AO52" s="77"/>
@@ -10559,12 +10560,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="182">
+      <c r="B53" s="193">
         <v>8</v>
       </c>
-      <c r="C53" s="183"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
@@ -10573,7 +10574,7 @@
       <c r="I53" s="79"/>
       <c r="J53" s="120"/>
       <c r="K53" s="119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L53" s="79"/>
       <c r="M53" s="79"/>
@@ -10594,18 +10595,18 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="184" t="s">
+      <c r="AE53" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF53" s="185"/>
-      <c r="AG53" s="184"/>
-      <c r="AH53" s="185"/>
+      <c r="AF53" s="190"/>
+      <c r="AG53" s="189"/>
+      <c r="AH53" s="190"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="184"/>
-      <c r="AL53" s="185"/>
+      <c r="AK53" s="189"/>
+      <c r="AL53" s="190"/>
       <c r="AM53" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN53" s="77"/>
       <c r="AO53" s="77"/>
@@ -10637,12 +10638,12 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="182">
+      <c r="B54" s="193">
         <v>9</v>
       </c>
-      <c r="C54" s="183"/>
+      <c r="C54" s="194"/>
       <c r="D54" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E54" s="79"/>
       <c r="F54" s="79"/>
@@ -10651,7 +10652,7 @@
       <c r="I54" s="79"/>
       <c r="J54" s="120"/>
       <c r="K54" s="119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="79"/>
@@ -10672,18 +10673,18 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="184" t="s">
+      <c r="AE54" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="AF54" s="185"/>
-      <c r="AG54" s="184"/>
-      <c r="AH54" s="185"/>
+      <c r="AF54" s="190"/>
+      <c r="AG54" s="189"/>
+      <c r="AH54" s="190"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="184"/>
-      <c r="AL54" s="185"/>
+      <c r="AK54" s="189"/>
+      <c r="AL54" s="190"/>
       <c r="AM54" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN54" s="77"/>
       <c r="AO54" s="77"/>
@@ -10715,13 +10716,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10738,22 +10748,13 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10877,20 +10878,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="196">
+      <c r="CD1" s="197">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="197"/>
-      <c r="CF1" s="197"/>
-      <c r="CG1" s="197"/>
-      <c r="CH1" s="197"/>
-      <c r="CI1" s="197"/>
-      <c r="CJ1" s="197"/>
-      <c r="CK1" s="197"/>
-      <c r="CL1" s="197"/>
-      <c r="CM1" s="197"/>
-      <c r="CN1" s="198"/>
+      <c r="CE1" s="198"/>
+      <c r="CF1" s="198"/>
+      <c r="CG1" s="198"/>
+      <c r="CH1" s="198"/>
+      <c r="CI1" s="198"/>
+      <c r="CJ1" s="198"/>
+      <c r="CK1" s="198"/>
+      <c r="CL1" s="198"/>
+      <c r="CM1" s="198"/>
+      <c r="CN1" s="199"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10899,23 +10900,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="189" t="str">
+      <c r="CU1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="194"/>
-      <c r="CW1" s="194"/>
-      <c r="CX1" s="194"/>
-      <c r="CY1" s="194"/>
-      <c r="CZ1" s="194"/>
-      <c r="DA1" s="194"/>
-      <c r="DB1" s="194"/>
-      <c r="DC1" s="194"/>
-      <c r="DD1" s="194"/>
-      <c r="DE1" s="194"/>
-      <c r="DF1" s="194"/>
-      <c r="DG1" s="194"/>
-      <c r="DH1" s="195"/>
+      <c r="CV1" s="195"/>
+      <c r="CW1" s="195"/>
+      <c r="CX1" s="195"/>
+      <c r="CY1" s="195"/>
+      <c r="CZ1" s="195"/>
+      <c r="DA1" s="195"/>
+      <c r="DB1" s="195"/>
+      <c r="DC1" s="195"/>
+      <c r="DD1" s="195"/>
+      <c r="DE1" s="195"/>
+      <c r="DF1" s="195"/>
+      <c r="DG1" s="195"/>
+      <c r="DH1" s="196"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -10957,7 +10958,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="87" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K16</v>
+        <v>K-16</v>
       </c>
       <c r="AI2" s="88"/>
       <c r="AJ2" s="88"/>
@@ -10970,39 +10971,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="200" t="str">
+      <c r="AT2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="AU2" s="201"/>
-      <c r="AV2" s="201"/>
-      <c r="AW2" s="201"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="201"/>
-      <c r="AZ2" s="201"/>
-      <c r="BA2" s="201"/>
-      <c r="BB2" s="201"/>
-      <c r="BC2" s="201"/>
-      <c r="BD2" s="201"/>
-      <c r="BE2" s="201"/>
-      <c r="BF2" s="201"/>
-      <c r="BG2" s="201"/>
-      <c r="BH2" s="201"/>
-      <c r="BI2" s="201"/>
-      <c r="BJ2" s="201"/>
-      <c r="BK2" s="201"/>
-      <c r="BL2" s="201"/>
-      <c r="BM2" s="201"/>
-      <c r="BN2" s="201"/>
-      <c r="BO2" s="201"/>
-      <c r="BP2" s="201"/>
-      <c r="BQ2" s="201"/>
-      <c r="BR2" s="201"/>
-      <c r="BS2" s="201"/>
-      <c r="BT2" s="201"/>
-      <c r="BU2" s="201"/>
-      <c r="BV2" s="201"/>
-      <c r="BW2" s="202"/>
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="202"/>
+      <c r="BC2" s="202"/>
+      <c r="BD2" s="202"/>
+      <c r="BE2" s="202"/>
+      <c r="BF2" s="202"/>
+      <c r="BG2" s="202"/>
+      <c r="BH2" s="202"/>
+      <c r="BI2" s="202"/>
+      <c r="BJ2" s="202"/>
+      <c r="BK2" s="202"/>
+      <c r="BL2" s="202"/>
+      <c r="BM2" s="202"/>
+      <c r="BN2" s="202"/>
+      <c r="BO2" s="202"/>
+      <c r="BP2" s="202"/>
+      <c r="BQ2" s="202"/>
+      <c r="BR2" s="202"/>
+      <c r="BS2" s="202"/>
+      <c r="BT2" s="202"/>
+      <c r="BU2" s="202"/>
+      <c r="BV2" s="202"/>
+      <c r="BW2" s="203"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11011,17 +11012,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="199"/>
-      <c r="CE2" s="194"/>
-      <c r="CF2" s="194"/>
-      <c r="CG2" s="194"/>
-      <c r="CH2" s="194"/>
-      <c r="CI2" s="194"/>
-      <c r="CJ2" s="194"/>
-      <c r="CK2" s="194"/>
-      <c r="CL2" s="194"/>
-      <c r="CM2" s="194"/>
-      <c r="CN2" s="195"/>
+      <c r="CD2" s="200"/>
+      <c r="CE2" s="195"/>
+      <c r="CF2" s="195"/>
+      <c r="CG2" s="195"/>
+      <c r="CH2" s="195"/>
+      <c r="CI2" s="195"/>
+      <c r="CJ2" s="195"/>
+      <c r="CK2" s="195"/>
+      <c r="CL2" s="195"/>
+      <c r="CM2" s="195"/>
+      <c r="CN2" s="196"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -11030,20 +11031,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="189"/>
-      <c r="CV2" s="194"/>
-      <c r="CW2" s="194"/>
-      <c r="CX2" s="194"/>
-      <c r="CY2" s="194"/>
-      <c r="CZ2" s="194"/>
-      <c r="DA2" s="194"/>
-      <c r="DB2" s="194"/>
-      <c r="DC2" s="194"/>
-      <c r="DD2" s="194"/>
-      <c r="DE2" s="194"/>
-      <c r="DF2" s="194"/>
-      <c r="DG2" s="194"/>
-      <c r="DH2" s="195"/>
+      <c r="CU2" s="186"/>
+      <c r="CV2" s="195"/>
+      <c r="CW2" s="195"/>
+      <c r="CX2" s="195"/>
+      <c r="CY2" s="195"/>
+      <c r="CZ2" s="195"/>
+      <c r="DA2" s="195"/>
+      <c r="DB2" s="195"/>
+      <c r="DC2" s="195"/>
+      <c r="DD2" s="195"/>
+      <c r="DE2" s="195"/>
+      <c r="DF2" s="195"/>
+      <c r="DG2" s="195"/>
+      <c r="DH2" s="196"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11207,7 +11208,7 @@
       </c>
       <c r="F2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K16</v>
+        <v>K-16</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>'１．機能概要'!W2</f>
@@ -11249,37 +11250,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="144" t="s">
+      <c r="H6" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="203" t="s">
+      <c r="J6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="144" t="s">
+      <c r="K6" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="144" t="s">
+      <c r="M6" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11287,24 +11288,24 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="203" t="s">
+      <c r="Q6" s="204" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11314,7 +11315,7 @@
       <c r="P7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="203"/>
+      <c r="Q7" s="204"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -11329,7 +11330,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>88</v>
@@ -11372,13 +11373,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>88</v>
@@ -11421,7 +11422,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>93</v>
@@ -11476,37 +11477,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="144" t="s">
+      <c r="E13" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="144" t="s">
+      <c r="F13" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="144" t="s">
+      <c r="H13" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="204" t="s">
+      <c r="I13" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="203" t="s">
+      <c r="J13" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="144" t="s">
+      <c r="K13" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="144" t="s">
+      <c r="L13" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="144" t="s">
+      <c r="M13" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11514,24 +11515,24 @@
       </c>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="204" t="s">
+      <c r="Q13" s="205" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11541,7 +11542,7 @@
       <c r="P14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="205"/>
+      <c r="Q14" s="206"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -11553,13 +11554,13 @@
         <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>41</v>
@@ -11574,13 +11575,13 @@
         <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11599,16 +11600,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>41</v>
@@ -11620,13 +11621,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -11638,7 +11639,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="30.75" x14ac:dyDescent="0.15">
@@ -11648,16 +11649,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>41</v>
@@ -11669,13 +11670,13 @@
         <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -11687,7 +11688,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11697,13 +11698,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>89</v>
@@ -11718,10 +11719,10 @@
         <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>43</v>
@@ -11733,7 +11734,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>34</v>
@@ -11746,13 +11747,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>89</v>
@@ -11770,7 +11771,7 @@
         <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>34</v>
@@ -11782,10 +11783,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="130" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -11795,13 +11796,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>89</v>
@@ -11819,7 +11820,7 @@
         <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>34</v>
@@ -11831,10 +11832,10 @@
         <v>34</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -11844,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -11868,19 +11869,19 @@
         <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>34</v>
@@ -11893,16 +11894,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>41</v>
@@ -11914,10 +11915,10 @@
         <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
@@ -11942,13 +11943,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>89</v>
@@ -11966,7 +11967,7 @@
         <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>34</v>
@@ -11978,7 +11979,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -12006,43 +12007,43 @@
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="144" t="s">
+      <c r="F26" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="144" t="s">
+      <c r="G26" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="144" t="s">
+      <c r="H26" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="203" t="s">
+      <c r="I26" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="203" t="s">
+      <c r="J26" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="144" t="s">
+      <c r="K26" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="144" t="s">
+      <c r="L26" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="144" t="s">
+      <c r="M26" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -12050,24 +12051,24 @@
       </c>
       <c r="O26" s="63"/>
       <c r="P26" s="63"/>
-      <c r="Q26" s="203" t="s">
+      <c r="Q26" s="204" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="203"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -12077,7 +12078,7 @@
       <c r="P27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="203"/>
+      <c r="Q27" s="204"/>
     </row>
     <row r="28" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -12110,10 +12111,10 @@
         <v>99</v>
       </c>
       <c r="E29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>108</v>
@@ -12137,7 +12138,7 @@
         <v>35</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>35</v>
@@ -12159,10 +12160,10 @@
         <v>105</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>88</v>
@@ -12208,10 +12209,10 @@
         <v>106</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>108</v>
@@ -12241,7 +12242,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>35</v>
@@ -12254,13 +12255,13 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>108</v>
@@ -12290,7 +12291,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="129" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -12303,13 +12304,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>108</v>
@@ -12339,7 +12340,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>35</v>
@@ -12352,13 +12353,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>108</v>
@@ -12388,7 +12389,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>35</v>
@@ -12401,13 +12402,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>108</v>
@@ -12437,7 +12438,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>35</v>
@@ -12453,10 +12454,10 @@
         <v>100</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>108</v>
@@ -12486,7 +12487,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>35</v>
@@ -12502,10 +12503,10 @@
         <v>110</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>108</v>
@@ -12535,7 +12536,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>35</v>
@@ -12548,13 +12549,13 @@
         <v>10</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>108</v>
@@ -12584,7 +12585,7 @@
         <v>35</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>35</v>
@@ -12597,13 +12598,13 @@
         <v>11</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>108</v>
@@ -12633,7 +12634,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
@@ -12646,13 +12647,13 @@
         <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>108</v>
@@ -12682,10 +12683,10 @@
         <v>35</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q40" s="206" t="s">
-        <v>444</v>
+        <v>276</v>
+      </c>
+      <c r="Q40" s="139" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12695,13 +12696,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>108</v>
@@ -12716,7 +12717,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>35</v>
@@ -12731,10 +12732,10 @@
         <v>35</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12744,13 +12745,13 @@
         <v>14</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>108</v>
@@ -12765,7 +12766,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>35</v>
@@ -12780,50 +12781,50 @@
         <v>35</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="128"/>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="144" t="s">
+      <c r="D45" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="144" t="s">
+      <c r="E45" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="144" t="s">
+      <c r="F45" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="144" t="s">
+      <c r="G45" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="144" t="s">
+      <c r="H45" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="203" t="s">
+      <c r="I45" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="203" t="s">
+      <c r="J45" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="144" t="s">
+      <c r="K45" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="144" t="s">
+      <c r="L45" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="144" t="s">
+      <c r="M45" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12831,23 +12832,23 @@
       </c>
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
-      <c r="Q45" s="203" t="s">
+      <c r="Q45" s="204" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="128"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="203"/>
-      <c r="J46" s="203"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="176"/>
+      <c r="L46" s="176"/>
+      <c r="M46" s="176"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -12857,7 +12858,7 @@
       <c r="P46" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="Q46" s="203"/>
+      <c r="Q46" s="204"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
@@ -12866,13 +12867,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E47" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>108</v>
@@ -12915,13 +12916,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>88</v>
@@ -12964,13 +12965,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>95</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>108</v>
@@ -12988,13 +12989,13 @@
         <v>35</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>35</v>
@@ -13013,13 +13014,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>108</v>
@@ -13043,7 +13044,7 @@
         <v>35</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>35</v>
@@ -13062,13 +13063,13 @@
         <v>5</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>108</v>
@@ -13092,7 +13093,7 @@
         <v>35</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>35</v>
@@ -13111,13 +13112,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>108</v>
@@ -13141,7 +13142,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>35</v>
@@ -13160,13 +13161,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>108</v>
@@ -13190,7 +13191,7 @@
         <v>35</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>35</v>
@@ -13209,13 +13210,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>108</v>
@@ -13239,7 +13240,7 @@
         <v>35</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
@@ -13258,13 +13259,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>108</v>
@@ -13288,7 +13289,7 @@
         <v>35</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
@@ -13307,13 +13308,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>108</v>
@@ -13328,7 +13329,7 @@
         <v>35</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>35</v>
@@ -13346,7 +13347,7 @@
         <v>35</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13356,13 +13357,13 @@
         <v>11</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>108</v>
@@ -13377,7 +13378,7 @@
         <v>35</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>35</v>
@@ -13395,48 +13396,36 @@
         <v>35</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C58" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13449,18 +13438,30 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13536,14 +13537,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="186">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201"/>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -13552,16 +13553,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="189" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="194"/>
-      <c r="AX1" s="194"/>
-      <c r="AY1" s="194"/>
-      <c r="AZ1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -13583,38 +13584,38 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K16</v>
+        <v>K-16</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="200" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="195"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -13623,13 +13624,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="195"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -13973,7 +13974,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="67"/>
       <c r="L11" s="133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M11" s="136"/>
       <c r="N11" s="136"/>
@@ -14019,7 +14020,7 @@
       <c r="G12" s="66"/>
       <c r="L12" s="137"/>
       <c r="M12" s="132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N12" s="132"/>
       <c r="O12" s="132"/>
@@ -14061,7 +14062,7 @@
       <c r="L13" s="137"/>
       <c r="M13" s="133"/>
       <c r="N13" s="132" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
@@ -14102,7 +14103,7 @@
       <c r="L14" s="137"/>
       <c r="M14" s="133"/>
       <c r="N14" s="132" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
@@ -14181,7 +14182,7 @@
       <c r="G16" s="66"/>
       <c r="L16" s="137"/>
       <c r="M16" s="132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N16" s="132"/>
       <c r="O16" s="132"/>
@@ -14223,7 +14224,7 @@
       <c r="L17" s="137"/>
       <c r="M17" s="133"/>
       <c r="N17" s="132" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
@@ -14264,7 +14265,7 @@
       <c r="L18" s="137"/>
       <c r="M18" s="133"/>
       <c r="N18" s="132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
@@ -14306,7 +14307,7 @@
       <c r="M19" s="133"/>
       <c r="N19" s="132"/>
       <c r="O19" s="132" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P19" s="132"/>
       <c r="Q19" s="132"/>
@@ -14321,7 +14322,7 @@
         <v>115</v>
       </c>
       <c r="Z19" s="132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA19" s="132"/>
       <c r="AB19" s="132"/>
@@ -14350,7 +14351,7 @@
       <c r="L20" s="137"/>
       <c r="M20" s="133"/>
       <c r="N20" s="132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
@@ -14392,7 +14393,7 @@
       <c r="M21" s="133"/>
       <c r="N21" s="132"/>
       <c r="O21" s="132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P21" s="132"/>
       <c r="Q21" s="132"/>
@@ -14407,7 +14408,7 @@
         <v>115</v>
       </c>
       <c r="Z21" s="132" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA21" s="132"/>
       <c r="AB21" s="132"/>
@@ -14437,7 +14438,7 @@
       <c r="M22" s="133"/>
       <c r="N22" s="132"/>
       <c r="O22" s="132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P22" s="132"/>
       <c r="Q22" s="132"/>
@@ -14452,7 +14453,7 @@
         <v>115</v>
       </c>
       <c r="Z22" s="132" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA22" s="132"/>
       <c r="AB22" s="132"/>
@@ -14482,7 +14483,7 @@
       <c r="M23" s="133"/>
       <c r="N23" s="132"/>
       <c r="O23" s="132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P23" s="132"/>
       <c r="Q23" s="132"/>
@@ -14497,7 +14498,7 @@
         <v>115</v>
       </c>
       <c r="Z23" s="132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA23" s="132"/>
       <c r="AB23" s="132"/>
@@ -14527,7 +14528,7 @@
       <c r="M24" s="133"/>
       <c r="N24" s="132"/>
       <c r="O24" s="132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P24" s="132"/>
       <c r="Q24" s="132"/>
@@ -14542,7 +14543,7 @@
         <v>115</v>
       </c>
       <c r="Z24" s="132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA24" s="132"/>
       <c r="AB24" s="132"/>
@@ -14572,7 +14573,7 @@
       <c r="M25" s="133"/>
       <c r="N25" s="132"/>
       <c r="O25" s="132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P25" s="132"/>
       <c r="Q25" s="132"/>
@@ -14587,7 +14588,7 @@
         <v>115</v>
       </c>
       <c r="Z25" s="132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA25" s="132"/>
       <c r="AB25" s="132"/>
@@ -14615,7 +14616,7 @@
       <c r="G26" s="66"/>
       <c r="L26" s="137"/>
       <c r="M26" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N26" s="132"/>
       <c r="O26" s="132"/>
@@ -14657,7 +14658,7 @@
       <c r="L27" s="137"/>
       <c r="M27" s="133"/>
       <c r="N27" s="132" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O27" s="132"/>
       <c r="P27" s="132"/>
@@ -14673,7 +14674,7 @@
         <v>115</v>
       </c>
       <c r="Z27" s="132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA27" s="132"/>
       <c r="AB27" s="132"/>
@@ -14702,7 +14703,7 @@
       <c r="L28" s="137"/>
       <c r="M28" s="133"/>
       <c r="N28" s="132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O28" s="132"/>
       <c r="P28" s="132"/>
@@ -14718,7 +14719,7 @@
         <v>115</v>
       </c>
       <c r="Z28" s="131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA28" s="132"/>
       <c r="AB28" s="132"/>
@@ -14800,7 +14801,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="67"/>
       <c r="L30" s="133" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M30" s="136"/>
       <c r="N30" s="136"/>
@@ -14846,7 +14847,7 @@
       <c r="G31" s="66"/>
       <c r="L31" s="137"/>
       <c r="M31" s="132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N31" s="132"/>
       <c r="O31" s="132"/>
@@ -14888,7 +14889,7 @@
       <c r="L32" s="137"/>
       <c r="M32" s="133"/>
       <c r="N32" s="132" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
@@ -14929,7 +14930,7 @@
       <c r="L33" s="137"/>
       <c r="M33" s="133"/>
       <c r="N33" s="132" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
@@ -15008,7 +15009,7 @@
       <c r="G35" s="66"/>
       <c r="L35" s="137"/>
       <c r="M35" s="132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N35" s="132"/>
       <c r="O35" s="132"/>
@@ -15050,7 +15051,7 @@
       <c r="L36" s="137"/>
       <c r="M36" s="133"/>
       <c r="N36" s="132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
@@ -15091,7 +15092,7 @@
       <c r="L37" s="137"/>
       <c r="M37" s="133"/>
       <c r="N37" s="132" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
@@ -15133,7 +15134,7 @@
       <c r="M38" s="133"/>
       <c r="N38" s="132"/>
       <c r="O38" s="132" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
@@ -15148,7 +15149,7 @@
         <v>115</v>
       </c>
       <c r="Z38" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA38" s="132"/>
       <c r="AB38" s="132"/>
@@ -15178,7 +15179,7 @@
       <c r="M39" s="133"/>
       <c r="N39" s="132"/>
       <c r="O39" s="132" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P39" s="132"/>
       <c r="Q39" s="132"/>
@@ -15193,7 +15194,7 @@
         <v>115</v>
       </c>
       <c r="Z39" s="132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA39" s="132"/>
       <c r="AB39" s="132"/>
@@ -15223,7 +15224,7 @@
       <c r="M40" s="133"/>
       <c r="N40" s="132"/>
       <c r="O40" s="132" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
@@ -15238,7 +15239,7 @@
         <v>115</v>
       </c>
       <c r="Z40" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA40" s="132"/>
       <c r="AB40" s="132"/>
@@ -15268,7 +15269,7 @@
       <c r="M41" s="133"/>
       <c r="N41" s="132"/>
       <c r="O41" s="132" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P41" s="132"/>
       <c r="Q41" s="132"/>
@@ -15283,7 +15284,7 @@
         <v>115</v>
       </c>
       <c r="Z41" s="132" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA41" s="132"/>
       <c r="AB41" s="132"/>
@@ -15313,7 +15314,7 @@
       <c r="M42" s="133"/>
       <c r="N42" s="132"/>
       <c r="O42" s="132" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P42" s="132"/>
       <c r="Q42" s="132"/>
@@ -15328,7 +15329,7 @@
         <v>115</v>
       </c>
       <c r="Z42" s="132" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA42" s="132"/>
       <c r="AB42" s="132"/>
@@ -15356,7 +15357,7 @@
       <c r="G43" s="66"/>
       <c r="L43" s="137"/>
       <c r="M43" s="132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N43" s="132"/>
       <c r="O43" s="132"/>
@@ -15398,7 +15399,7 @@
       <c r="L44" s="137"/>
       <c r="M44" s="133"/>
       <c r="N44" s="132" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
@@ -15414,7 +15415,7 @@
         <v>115</v>
       </c>
       <c r="Z44" s="132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA44" s="132"/>
       <c r="AB44" s="132"/>
@@ -15443,7 +15444,7 @@
       <c r="L45" s="137"/>
       <c r="M45" s="133"/>
       <c r="N45" s="132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
@@ -15459,7 +15460,7 @@
         <v>115</v>
       </c>
       <c r="Z45" s="131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA45" s="132"/>
       <c r="AB45" s="132"/>
@@ -15494,7 +15495,7 @@
       <c r="L46" s="133"/>
       <c r="M46" s="136"/>
       <c r="N46" s="132" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O46" s="136"/>
       <c r="P46" s="136"/>
@@ -15510,7 +15511,7 @@
         <v>115</v>
       </c>
       <c r="Z46" s="132" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA46" s="132"/>
       <c r="AB46" s="132"/>
@@ -15524,7 +15525,7 @@
       <c r="AJ46" s="132"/>
       <c r="AK46" s="132"/>
       <c r="AL46" s="133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM46" s="132"/>
       <c r="AN46" s="134"/>
@@ -15784,10 +15785,10 @@
       <c r="F52" s="67"/>
       <c r="G52" s="66"/>
       <c r="L52" s="135" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M52" s="132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N52" s="132"/>
       <c r="O52" s="132"/>
@@ -15827,7 +15828,7 @@
       <c r="G53" s="66"/>
       <c r="L53" s="135"/>
       <c r="M53" s="132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N53" s="132"/>
       <c r="O53" s="132"/>
@@ -15867,7 +15868,7 @@
       <c r="L54" s="135"/>
       <c r="M54" s="132"/>
       <c r="N54" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O54" s="133"/>
       <c r="P54" s="133"/>
@@ -15894,7 +15895,7 @@
       <c r="L55" s="135"/>
       <c r="M55" s="132"/>
       <c r="N55" s="132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O55" s="133"/>
       <c r="P55" s="133"/>
@@ -15921,7 +15922,7 @@
       <c r="L56" s="135"/>
       <c r="M56" s="132"/>
       <c r="N56" s="132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O56" s="133"/>
       <c r="P56" s="133"/>
@@ -15948,7 +15949,7 @@
       <c r="L57" s="135"/>
       <c r="M57" s="132"/>
       <c r="N57" s="132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O57" s="133"/>
       <c r="P57" s="133"/>
@@ -15975,7 +15976,7 @@
       <c r="L58" s="135"/>
       <c r="M58" s="132"/>
       <c r="N58" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O58" s="133"/>
       <c r="P58" s="133"/>
@@ -16002,7 +16003,7 @@
       <c r="L59" s="135"/>
       <c r="M59" s="132"/>
       <c r="N59" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O59" s="133"/>
       <c r="P59" s="133"/>
@@ -16029,7 +16030,7 @@
       <c r="L60" s="135"/>
       <c r="M60" s="132"/>
       <c r="N60" s="132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O60" s="133"/>
       <c r="P60" s="133"/>
@@ -16056,7 +16057,7 @@
       <c r="L61" s="135"/>
       <c r="M61" s="132"/>
       <c r="N61" s="132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O61" s="133"/>
       <c r="P61" s="133"/>
@@ -16083,7 +16084,7 @@
       <c r="L62" s="135"/>
       <c r="M62" s="132"/>
       <c r="N62" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O62" s="133"/>
       <c r="P62" s="133"/>
@@ -16146,7 +16147,7 @@
       <c r="G64" s="66"/>
       <c r="L64" s="135"/>
       <c r="M64" s="132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N64" s="132"/>
       <c r="O64" s="132"/>
@@ -16186,7 +16187,7 @@
       <c r="L65" s="135"/>
       <c r="M65" s="133"/>
       <c r="N65" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O65" s="132"/>
       <c r="P65" s="132"/>
@@ -16259,10 +16260,10 @@
       <c r="F67" s="67"/>
       <c r="G67" s="66"/>
       <c r="L67" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M67" s="114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N67" s="114"/>
       <c r="O67" s="114"/>
@@ -16302,7 +16303,7 @@
       <c r="G68" s="66"/>
       <c r="L68" s="66"/>
       <c r="M68" s="114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N68" s="114"/>
       <c r="O68" s="114"/>
@@ -16342,7 +16343,7 @@
       <c r="L69" s="66"/>
       <c r="M69" s="114"/>
       <c r="N69" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL69" s="114"/>
       <c r="AM69" s="114"/>
@@ -16358,7 +16359,7 @@
       <c r="L70" s="66"/>
       <c r="M70" s="114"/>
       <c r="N70" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL70" s="114"/>
       <c r="AM70" s="114"/>
@@ -16374,7 +16375,7 @@
       <c r="L71" s="66"/>
       <c r="M71" s="114"/>
       <c r="N71" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL71" s="114"/>
       <c r="AM71" s="114"/>
@@ -16390,7 +16391,7 @@
       <c r="L72" s="66"/>
       <c r="M72" s="114"/>
       <c r="N72" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL72" s="114"/>
       <c r="AM72" s="114"/>
@@ -16406,7 +16407,7 @@
       <c r="L73" s="66"/>
       <c r="M73" s="114"/>
       <c r="N73" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL73" s="114"/>
       <c r="AM73" s="114"/>
@@ -16421,7 +16422,7 @@
       <c r="G74" s="66"/>
       <c r="L74" s="66"/>
       <c r="N74" s="132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="114"/>
@@ -16496,7 +16497,7 @@
       <c r="G76" s="66"/>
       <c r="L76" s="66"/>
       <c r="M76" s="114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N76" s="114"/>
       <c r="O76" s="114"/>
@@ -16535,7 +16536,7 @@
       <c r="G77" s="66"/>
       <c r="L77" s="66"/>
       <c r="N77" s="132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O77" s="114"/>
       <c r="P77" s="114"/>
@@ -16610,7 +16611,7 @@
       <c r="G79" s="66"/>
       <c r="L79" s="66"/>
       <c r="M79" s="114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O79" s="114"/>
       <c r="P79" s="114"/>
@@ -16644,7 +16645,7 @@
       <c r="G80" s="66"/>
       <c r="L80" s="66"/>
       <c r="N80" s="132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O80" s="114"/>
       <c r="P80" s="114"/>
@@ -16659,7 +16660,7 @@
         <v>115</v>
       </c>
       <c r="Z80" s="131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA80" s="132"/>
       <c r="AB80" s="114"/>
@@ -16677,7 +16678,7 @@
       <c r="G81" s="66"/>
       <c r="L81" s="66"/>
       <c r="N81" s="114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O81" s="114"/>
       <c r="P81" s="114"/>
@@ -16692,7 +16693,7 @@
         <v>115</v>
       </c>
       <c r="Z81" s="114" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA81" s="114"/>
       <c r="AB81" s="114"/>
@@ -16711,7 +16712,7 @@
       <c r="L82" s="66"/>
       <c r="M82" s="114"/>
       <c r="N82" s="114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O82" s="114"/>
       <c r="P82" s="114"/>
@@ -16726,7 +16727,7 @@
         <v>115</v>
       </c>
       <c r="Z82" s="131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA82" s="132"/>
       <c r="AB82" s="114"/>
@@ -16747,7 +16748,7 @@
       <c r="G83" s="66"/>
       <c r="L83" s="66"/>
       <c r="N83" s="114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O83" s="114"/>
       <c r="P83" s="114"/>
@@ -16759,7 +16760,7 @@
       <c r="V83" s="114"/>
       <c r="W83" s="114"/>
       <c r="Y83" s="114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z83" s="114"/>
       <c r="AA83" s="114"/>
@@ -16771,7 +16772,7 @@
       <c r="AJ83" s="114"/>
       <c r="AK83" s="116"/>
       <c r="AL83" s="133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AV83" s="67"/>
     </row>
@@ -16782,7 +16783,7 @@
       <c r="G84" s="66"/>
       <c r="L84" s="66"/>
       <c r="N84" s="132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
@@ -16798,7 +16799,7 @@
         <v>115</v>
       </c>
       <c r="Z84" s="132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA84" s="132"/>
       <c r="AB84" s="132"/>
@@ -16812,7 +16813,7 @@
       <c r="AJ84" s="132"/>
       <c r="AK84" s="132"/>
       <c r="AL84" s="133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM84" s="132"/>
       <c r="AN84" s="134"/>
@@ -16865,7 +16866,7 @@
       <c r="G86" s="66"/>
       <c r="L86" s="66"/>
       <c r="M86" s="114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL86" s="114"/>
       <c r="AM86" s="114"/>
@@ -16881,7 +16882,7 @@
       <c r="L87" s="66"/>
       <c r="M87" s="114"/>
       <c r="N87" s="114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL87" s="114"/>
       <c r="AM87" s="114"/>
@@ -16897,7 +16898,7 @@
       <c r="L88" s="66"/>
       <c r="M88" s="114"/>
       <c r="N88" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL88" s="114"/>
       <c r="AM88" s="114"/>
@@ -16913,7 +16914,7 @@
       <c r="L89" s="66"/>
       <c r="M89" s="114"/>
       <c r="N89" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AL89" s="114"/>
       <c r="AM89" s="114"/>
@@ -16929,7 +16930,7 @@
       <c r="L90" s="66"/>
       <c r="M90" s="114"/>
       <c r="N90" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL90" s="114"/>
       <c r="AM90" s="114"/>
@@ -16945,7 +16946,7 @@
       <c r="L91" s="66"/>
       <c r="M91" s="114"/>
       <c r="N91" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL91" s="114"/>
       <c r="AM91" s="114"/>
@@ -17000,7 +17001,7 @@
       <c r="G93" s="66"/>
       <c r="K93" s="67"/>
       <c r="L93" s="117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M93" s="118"/>
       <c r="N93" s="118"/>
@@ -17042,7 +17043,7 @@
       <c r="G94" s="66"/>
       <c r="L94" s="117"/>
       <c r="M94" s="114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N94" s="114"/>
       <c r="O94" s="114"/>
@@ -17083,7 +17084,7 @@
       <c r="G95" s="66"/>
       <c r="L95" s="117"/>
       <c r="N95" s="114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O95" s="114"/>
       <c r="P95" s="114"/>
@@ -17123,7 +17124,7 @@
       <c r="G96" s="66"/>
       <c r="L96" s="117"/>
       <c r="N96" s="114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O96" s="114"/>
       <c r="P96" s="114"/>
@@ -17163,7 +17164,7 @@
       <c r="G97" s="66"/>
       <c r="L97" s="117"/>
       <c r="N97" s="114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O97" s="114"/>
       <c r="P97" s="114"/>
@@ -17203,7 +17204,7 @@
       <c r="G98" s="66"/>
       <c r="L98" s="117"/>
       <c r="N98" s="114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O98" s="114"/>
       <c r="P98" s="114"/>
@@ -17243,7 +17244,7 @@
       <c r="G99" s="66"/>
       <c r="L99" s="117"/>
       <c r="N99" s="114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O99" s="114"/>
       <c r="P99" s="114"/>
@@ -17283,7 +17284,7 @@
       <c r="G100" s="66"/>
       <c r="L100" s="117"/>
       <c r="N100" s="114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O100" s="114"/>
       <c r="P100" s="114"/>
@@ -17324,7 +17325,7 @@
       <c r="L101" s="117"/>
       <c r="M101" s="124"/>
       <c r="N101" s="114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O101" s="114"/>
       <c r="P101" s="114"/>
@@ -17365,7 +17366,7 @@
       <c r="L102" s="117"/>
       <c r="M102" s="124"/>
       <c r="N102" s="114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O102" s="114"/>
       <c r="P102" s="114"/>
@@ -17406,7 +17407,7 @@
       <c r="L103" s="117"/>
       <c r="M103" s="124"/>
       <c r="N103" s="114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O103" s="114"/>
       <c r="P103" s="114"/>
@@ -17447,7 +17448,7 @@
       <c r="L104" s="117"/>
       <c r="M104" s="124"/>
       <c r="N104" s="114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O104" s="114"/>
       <c r="P104" s="114"/>
@@ -17488,7 +17489,7 @@
       <c r="L105" s="117"/>
       <c r="M105" s="124"/>
       <c r="N105" s="114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O105" s="114"/>
       <c r="P105" s="114"/>
@@ -17529,7 +17530,7 @@
       <c r="L106" s="117"/>
       <c r="M106" s="124"/>
       <c r="N106" s="114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O106" s="114"/>
       <c r="P106" s="114"/>
@@ -17570,7 +17571,7 @@
       <c r="L107" s="117"/>
       <c r="M107" s="124"/>
       <c r="N107" s="114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O107" s="114"/>
       <c r="P107" s="114"/>
@@ -17649,7 +17650,7 @@
       <c r="G109" s="66"/>
       <c r="L109" s="117"/>
       <c r="M109" s="114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N109" s="114"/>
       <c r="O109" s="114"/>
@@ -17690,7 +17691,7 @@
       <c r="G110" s="66"/>
       <c r="L110" s="117"/>
       <c r="N110" s="114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O110" s="114"/>
       <c r="P110" s="114"/>
@@ -17730,7 +17731,7 @@
       <c r="G111" s="66"/>
       <c r="L111" s="117"/>
       <c r="N111" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O111" s="114"/>
       <c r="P111" s="114"/>
@@ -17771,7 +17772,7 @@
       <c r="L112" s="117"/>
       <c r="N112" s="114"/>
       <c r="O112" s="114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P112" s="114"/>
       <c r="Q112" s="114"/>
@@ -17786,7 +17787,7 @@
         <v>115</v>
       </c>
       <c r="Z112" s="114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA112" s="114"/>
       <c r="AB112" s="114"/>
@@ -17815,7 +17816,7 @@
       <c r="L113" s="117"/>
       <c r="N113" s="114"/>
       <c r="O113" s="114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P113" s="114"/>
       <c r="Q113" s="114"/>
@@ -17830,7 +17831,7 @@
         <v>115</v>
       </c>
       <c r="Z113" s="114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA113" s="114"/>
       <c r="AB113" s="114"/>
@@ -17858,7 +17859,7 @@
       <c r="G114" s="66"/>
       <c r="L114" s="117"/>
       <c r="N114" s="114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O114" s="114"/>
       <c r="P114" s="114"/>
@@ -17899,7 +17900,7 @@
       <c r="L115" s="117"/>
       <c r="N115" s="114"/>
       <c r="O115" s="114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P115" s="114"/>
       <c r="Q115" s="114"/>
@@ -17914,7 +17915,7 @@
         <v>115</v>
       </c>
       <c r="Z115" s="114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA115" s="114"/>
       <c r="AB115" s="114"/>
@@ -17943,7 +17944,7 @@
       <c r="L116" s="117"/>
       <c r="N116" s="114"/>
       <c r="O116" s="114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P116" s="114"/>
       <c r="Q116" s="114"/>
@@ -17958,7 +17959,7 @@
         <v>115</v>
       </c>
       <c r="Z116" s="114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA116" s="114"/>
       <c r="AB116" s="114"/>
@@ -17987,7 +17988,7 @@
       <c r="L117" s="117"/>
       <c r="N117" s="114"/>
       <c r="O117" s="114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P117" s="114"/>
       <c r="Q117" s="114"/>
@@ -18002,7 +18003,7 @@
         <v>115</v>
       </c>
       <c r="Z117" s="114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA117" s="114"/>
       <c r="AB117" s="114"/>
@@ -18031,7 +18032,7 @@
       <c r="L118" s="117"/>
       <c r="N118" s="114"/>
       <c r="O118" s="114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P118" s="114"/>
       <c r="Q118" s="114"/>
@@ -18046,7 +18047,7 @@
         <v>115</v>
       </c>
       <c r="Z118" s="114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA118" s="114"/>
       <c r="AB118" s="114"/>
@@ -18075,7 +18076,7 @@
       <c r="L119" s="117"/>
       <c r="N119" s="114"/>
       <c r="O119" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P119" s="114"/>
       <c r="Q119" s="114"/>
@@ -18090,7 +18091,7 @@
         <v>115</v>
       </c>
       <c r="Z119" s="114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA119" s="114"/>
       <c r="AB119" s="114"/>
@@ -18119,7 +18120,7 @@
       <c r="L120" s="117"/>
       <c r="N120" s="114"/>
       <c r="O120" s="114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P120" s="114"/>
       <c r="Q120" s="114"/>
@@ -18134,7 +18135,7 @@
         <v>115</v>
       </c>
       <c r="Z120" s="114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA120" s="114"/>
       <c r="AB120" s="114"/>
@@ -18163,7 +18164,7 @@
       <c r="L121" s="117"/>
       <c r="N121" s="114"/>
       <c r="O121" s="114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P121" s="114"/>
       <c r="Q121" s="114"/>
@@ -18178,7 +18179,7 @@
         <v>115</v>
       </c>
       <c r="Z121" s="114" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA121" s="114"/>
       <c r="AB121" s="114"/>
@@ -18206,7 +18207,7 @@
       <c r="G122" s="66"/>
       <c r="L122" s="117"/>
       <c r="N122" s="114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O122" s="114"/>
       <c r="P122" s="114"/>
@@ -18247,7 +18248,7 @@
       <c r="L123" s="117"/>
       <c r="N123" s="114"/>
       <c r="O123" s="114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P123" s="114"/>
       <c r="Q123" s="114"/>
@@ -18262,7 +18263,7 @@
         <v>115</v>
       </c>
       <c r="Z123" s="114" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA123" s="114"/>
       <c r="AB123" s="114"/>
@@ -18291,7 +18292,7 @@
       <c r="L124" s="117"/>
       <c r="N124" s="114"/>
       <c r="O124" s="114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P124" s="114"/>
       <c r="Q124" s="114"/>
@@ -18306,7 +18307,7 @@
         <v>115</v>
       </c>
       <c r="Z124" s="114" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA124" s="114"/>
       <c r="AB124" s="114"/>
@@ -18335,7 +18336,7 @@
       <c r="L125" s="117"/>
       <c r="N125" s="114"/>
       <c r="O125" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P125" s="114"/>
       <c r="Q125" s="114"/>
@@ -18350,7 +18351,7 @@
         <v>115</v>
       </c>
       <c r="Z125" s="114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA125" s="114"/>
       <c r="AB125" s="114"/>
@@ -18379,7 +18380,7 @@
       <c r="L126" s="117"/>
       <c r="N126" s="114"/>
       <c r="O126" s="114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P126" s="114"/>
       <c r="Q126" s="114"/>
@@ -18394,7 +18395,7 @@
         <v>115</v>
       </c>
       <c r="Z126" s="114" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA126" s="114"/>
       <c r="AB126" s="114"/>
@@ -18423,7 +18424,7 @@
       <c r="L127" s="117"/>
       <c r="N127" s="114"/>
       <c r="O127" s="114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P127" s="114"/>
       <c r="Q127" s="114"/>
@@ -18438,7 +18439,7 @@
         <v>115</v>
       </c>
       <c r="Z127" s="114" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA127" s="114"/>
       <c r="AB127" s="114"/>
@@ -18466,7 +18467,7 @@
       <c r="G128" s="66"/>
       <c r="L128" s="117"/>
       <c r="N128" s="114" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O128" s="114"/>
       <c r="P128" s="114"/>
@@ -18507,7 +18508,7 @@
       <c r="L129" s="117"/>
       <c r="N129" s="114"/>
       <c r="O129" s="114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P129" s="114"/>
       <c r="Q129" s="114"/>
@@ -18522,7 +18523,7 @@
         <v>115</v>
       </c>
       <c r="Z129" s="114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA129" s="114"/>
       <c r="AB129" s="114"/>
@@ -18551,7 +18552,7 @@
       <c r="L130" s="117"/>
       <c r="N130" s="114"/>
       <c r="O130" s="114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P130" s="114"/>
       <c r="Q130" s="114"/>
@@ -18566,7 +18567,7 @@
         <v>115</v>
       </c>
       <c r="Z130" s="114" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA130" s="114"/>
       <c r="AB130" s="114"/>
@@ -18595,7 +18596,7 @@
       <c r="L131" s="117"/>
       <c r="N131" s="114"/>
       <c r="O131" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P131" s="114"/>
       <c r="Q131" s="114"/>
@@ -18610,7 +18611,7 @@
         <v>115</v>
       </c>
       <c r="Z131" s="114" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA131" s="114"/>
       <c r="AB131" s="114"/>
@@ -18639,7 +18640,7 @@
       <c r="L132" s="117"/>
       <c r="N132" s="114"/>
       <c r="O132" s="114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P132" s="114"/>
       <c r="Q132" s="114"/>
@@ -18654,7 +18655,7 @@
         <v>115</v>
       </c>
       <c r="Z132" s="114" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA132" s="114"/>
       <c r="AB132" s="114"/>
@@ -18683,7 +18684,7 @@
       <c r="L133" s="117"/>
       <c r="N133" s="114"/>
       <c r="O133" s="114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P133" s="114"/>
       <c r="Q133" s="114"/>
@@ -18698,7 +18699,7 @@
         <v>115</v>
       </c>
       <c r="Z133" s="114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA133" s="114"/>
       <c r="AB133" s="114"/>
@@ -18726,7 +18727,7 @@
       <c r="G134" s="66"/>
       <c r="L134" s="117"/>
       <c r="N134" s="114" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O134" s="114"/>
       <c r="P134" s="114"/>
@@ -18767,7 +18768,7 @@
       <c r="L135" s="117"/>
       <c r="N135" s="114"/>
       <c r="O135" s="114" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P135" s="114"/>
       <c r="Q135" s="114"/>
@@ -18782,7 +18783,7 @@
         <v>115</v>
       </c>
       <c r="Z135" s="114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA135" s="114"/>
       <c r="AB135" s="114"/>
@@ -18811,7 +18812,7 @@
       <c r="L136" s="117"/>
       <c r="N136" s="114"/>
       <c r="O136" s="114" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P136" s="114"/>
       <c r="Q136" s="114"/>
@@ -18826,7 +18827,7 @@
         <v>115</v>
       </c>
       <c r="Z136" s="114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA136" s="114"/>
       <c r="AB136" s="114"/>
@@ -18854,7 +18855,7 @@
       <c r="G137" s="66"/>
       <c r="L137" s="117"/>
       <c r="N137" s="114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O137" s="114"/>
       <c r="P137" s="114"/>
@@ -18895,7 +18896,7 @@
       <c r="L138" s="117"/>
       <c r="N138" s="114"/>
       <c r="O138" s="114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P138" s="114"/>
       <c r="Q138" s="114"/>
@@ -18910,7 +18911,7 @@
         <v>115</v>
       </c>
       <c r="Z138" s="114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA138" s="114"/>
       <c r="AB138" s="114"/>
@@ -18939,7 +18940,7 @@
       <c r="L139" s="117"/>
       <c r="N139" s="114"/>
       <c r="O139" s="114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P139" s="114"/>
       <c r="Q139" s="114"/>
@@ -18953,7 +18954,7 @@
         <v>115</v>
       </c>
       <c r="Z139" s="115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA139" s="114"/>
       <c r="AB139" s="114"/>
@@ -18976,7 +18977,7 @@
       <c r="G140" s="66"/>
       <c r="L140" s="117"/>
       <c r="N140" s="114" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O140" s="114"/>
       <c r="P140" s="114"/>
@@ -19017,7 +19018,7 @@
       <c r="L141" s="117"/>
       <c r="N141" s="114"/>
       <c r="O141" s="114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P141" s="114"/>
       <c r="Q141" s="114"/>
@@ -19032,7 +19033,7 @@
         <v>115</v>
       </c>
       <c r="Z141" s="114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA141" s="114"/>
       <c r="AB141" s="114"/>
@@ -19061,7 +19062,7 @@
       <c r="L142" s="117"/>
       <c r="N142" s="114"/>
       <c r="O142" s="114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P142" s="114"/>
       <c r="Q142" s="114"/>
@@ -19076,7 +19077,7 @@
         <v>115</v>
       </c>
       <c r="Z142" s="114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA142" s="114"/>
       <c r="AB142" s="114"/>
@@ -19105,7 +19106,7 @@
       <c r="L143" s="117"/>
       <c r="N143" s="114"/>
       <c r="O143" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P143" s="114"/>
       <c r="Q143" s="114"/>
@@ -19120,7 +19121,7 @@
         <v>115</v>
       </c>
       <c r="Z143" s="114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA143" s="114"/>
       <c r="AB143" s="114"/>
@@ -19149,7 +19150,7 @@
       <c r="L144" s="117"/>
       <c r="N144" s="114"/>
       <c r="O144" s="114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P144" s="114"/>
       <c r="Q144" s="114"/>
@@ -19164,7 +19165,7 @@
         <v>115</v>
       </c>
       <c r="Z144" s="114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA144" s="114"/>
       <c r="AB144" s="114"/>
@@ -19193,7 +19194,7 @@
       <c r="L145" s="117"/>
       <c r="N145" s="114"/>
       <c r="O145" s="114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P145" s="114"/>
       <c r="Q145" s="114"/>
@@ -19208,7 +19209,7 @@
         <v>115</v>
       </c>
       <c r="Z145" s="114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA145" s="114"/>
       <c r="AB145" s="114"/>
@@ -19275,7 +19276,7 @@
       <c r="G147" s="66"/>
       <c r="L147" s="117"/>
       <c r="M147" s="114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N147" s="114"/>
       <c r="O147" s="114"/>
@@ -19316,7 +19317,7 @@
       <c r="G148" s="66"/>
       <c r="L148" s="117"/>
       <c r="N148" s="114" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O148" s="114"/>
       <c r="P148" s="114"/>
@@ -19331,7 +19332,7 @@
         <v>115</v>
       </c>
       <c r="Z148" s="114" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA148" s="114"/>
       <c r="AB148" s="114"/>
@@ -19354,7 +19355,7 @@
       <c r="G149" s="66"/>
       <c r="L149" s="117"/>
       <c r="N149" s="114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O149" s="114"/>
       <c r="P149" s="114"/>
@@ -19369,7 +19370,7 @@
         <v>115</v>
       </c>
       <c r="Z149" s="115" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA149" s="114"/>
       <c r="AB149" s="114"/>
@@ -19393,7 +19394,7 @@
       <c r="G150" s="66"/>
       <c r="L150" s="117"/>
       <c r="N150" s="114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O150" s="114"/>
       <c r="P150" s="114"/>
@@ -19404,10 +19405,10 @@
       <c r="U150" s="114"/>
       <c r="V150" s="114"/>
       <c r="W150" s="114" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y150" s="114" t="s">
         <v>343</v>
-      </c>
-      <c r="Y150" s="114" t="s">
-        <v>344</v>
       </c>
       <c r="Z150" s="114"/>
       <c r="AA150" s="114"/>
@@ -19419,7 +19420,7 @@
       <c r="AJ150" s="114"/>
       <c r="AK150" s="116"/>
       <c r="AL150" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN150" s="118"/>
       <c r="AO150" s="118"/>
@@ -19434,7 +19435,7 @@
       <c r="G151" s="66"/>
       <c r="L151" s="117"/>
       <c r="N151" s="114" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O151" s="114"/>
       <c r="P151" s="114"/>
@@ -19449,7 +19450,7 @@
         <v>115</v>
       </c>
       <c r="Z151" s="114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA151" s="114"/>
       <c r="AB151" s="114"/>
@@ -19459,7 +19460,7 @@
       <c r="AJ151" s="114"/>
       <c r="AK151" s="114"/>
       <c r="AL151" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM151" s="114"/>
       <c r="AN151" s="118"/>
@@ -19475,7 +19476,7 @@
       <c r="G152" s="66"/>
       <c r="L152" s="117"/>
       <c r="N152" s="114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O152" s="114"/>
       <c r="P152" s="114"/>
@@ -19490,7 +19491,7 @@
         <v>115</v>
       </c>
       <c r="Z152" s="114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA152" s="114"/>
       <c r="AB152" s="114"/>
@@ -19500,7 +19501,7 @@
       <c r="AJ152" s="114"/>
       <c r="AK152" s="114"/>
       <c r="AL152" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM152" s="114"/>
       <c r="AN152" s="118"/>
@@ -19516,7 +19517,7 @@
       <c r="G153" s="66"/>
       <c r="L153" s="117"/>
       <c r="N153" s="114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O153" s="114"/>
       <c r="P153" s="114"/>
@@ -19531,7 +19532,7 @@
         <v>115</v>
       </c>
       <c r="Z153" s="114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA153" s="114"/>
       <c r="AB153" s="114"/>
@@ -19541,7 +19542,7 @@
       <c r="AJ153" s="114"/>
       <c r="AK153" s="114"/>
       <c r="AL153" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM153" s="114"/>
       <c r="AN153" s="118"/>
@@ -19557,7 +19558,7 @@
       <c r="G154" s="66"/>
       <c r="L154" s="117"/>
       <c r="N154" s="114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O154" s="114"/>
       <c r="P154" s="114"/>
@@ -19572,7 +19573,7 @@
         <v>115</v>
       </c>
       <c r="Z154" s="114" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA154" s="114"/>
       <c r="AB154" s="114"/>
@@ -19582,7 +19583,7 @@
       <c r="AJ154" s="114"/>
       <c r="AK154" s="114"/>
       <c r="AL154" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM154" s="114"/>
       <c r="AN154" s="118"/>
@@ -19598,7 +19599,7 @@
       <c r="G155" s="66"/>
       <c r="L155" s="117"/>
       <c r="N155" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O155" s="114"/>
       <c r="P155" s="114"/>
@@ -19613,7 +19614,7 @@
         <v>115</v>
       </c>
       <c r="Z155" s="114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA155" s="114"/>
       <c r="AB155" s="114"/>
@@ -19623,7 +19624,7 @@
       <c r="AJ155" s="114"/>
       <c r="AK155" s="114"/>
       <c r="AL155" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM155" s="114"/>
       <c r="AN155" s="118"/>
@@ -19639,7 +19640,7 @@
       <c r="G156" s="66"/>
       <c r="L156" s="117"/>
       <c r="N156" s="114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O156" s="114"/>
       <c r="P156" s="114"/>
@@ -19651,10 +19652,10 @@
       <c r="V156" s="114"/>
       <c r="W156" s="114"/>
       <c r="X156" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y156" s="114" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA156" s="114"/>
       <c r="AB156" s="114"/>
@@ -19664,7 +19665,7 @@
       <c r="AJ156" s="114"/>
       <c r="AK156" s="114"/>
       <c r="AL156" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM156" s="114"/>
       <c r="AN156" s="118"/>
@@ -19710,7 +19711,7 @@
       <c r="G159" s="66"/>
       <c r="L159" s="117"/>
       <c r="N159" s="114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ159" s="114"/>
       <c r="AK159" s="114"/>
@@ -19729,7 +19730,7 @@
       <c r="G160" s="66"/>
       <c r="L160" s="117"/>
       <c r="N160" s="132" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ160" s="114"/>
       <c r="AK160" s="114"/>
@@ -19748,7 +19749,7 @@
       <c r="G161" s="66"/>
       <c r="L161" s="117"/>
       <c r="N161" s="132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O161" s="114"/>
       <c r="P161" s="114"/>
@@ -19827,7 +19828,7 @@
       <c r="F163" s="67"/>
       <c r="G163" s="66"/>
       <c r="L163" s="66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M163" s="114"/>
       <c r="N163" s="114"/>
@@ -19867,7 +19868,7 @@
       <c r="F164" s="67"/>
       <c r="G164" s="66"/>
       <c r="L164" s="66" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M164" s="114"/>
       <c r="N164" s="114"/>
@@ -19908,7 +19909,7 @@
       <c r="G165" s="66"/>
       <c r="L165" s="66"/>
       <c r="M165" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N165" s="114"/>
       <c r="O165" s="114"/>
@@ -19949,7 +19950,7 @@
       <c r="L166" s="66"/>
       <c r="M166" s="114"/>
       <c r="N166" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O166" s="114"/>
       <c r="P166" s="114"/>
@@ -20096,7 +20097,7 @@
       </c>
       <c r="L169" s="66"/>
       <c r="M169" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AV169" s="67"/>
     </row>
@@ -20272,7 +20273,7 @@
         <v>5</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
@@ -20285,7 +20286,7 @@
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
       <c r="L174" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M174" s="20"/>
       <c r="N174" s="20"/>
@@ -20333,7 +20334,7 @@
       </c>
       <c r="L175" s="66"/>
       <c r="M175" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AV175" s="67"/>
     </row>
@@ -20344,7 +20345,7 @@
       <c r="G176" s="66"/>
       <c r="L176" s="66"/>
       <c r="N176" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV176" s="67"/>
     </row>
@@ -20355,7 +20356,7 @@
       <c r="G177" s="66"/>
       <c r="L177" s="66"/>
       <c r="M177" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV177" s="67"/>
     </row>
@@ -20447,14 +20448,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="186">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201"/>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -20463,16 +20464,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="189" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="194"/>
-      <c r="AX1" s="194"/>
-      <c r="AY1" s="194"/>
-      <c r="AZ1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -20494,38 +20495,38 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K16</v>
+        <v>K-16</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="200" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="195"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -20534,13 +20535,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="195"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -20900,7 +20901,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
       <c r="T9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -20912,7 +20913,7 @@
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -20986,7 +20987,7 @@
       <c r="C11" s="66"/>
       <c r="I11" s="67"/>
       <c r="J11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -21000,7 +21001,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="21"/>
       <c r="T11" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -21012,7 +21013,7 @@
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
@@ -21086,7 +21087,7 @@
       <c r="C13" s="66"/>
       <c r="I13" s="67"/>
       <c r="J13" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -21100,7 +21101,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="21"/>
       <c r="T13" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -21112,7 +21113,7 @@
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -21186,7 +21187,7 @@
       <c r="C15" s="66"/>
       <c r="I15" s="67"/>
       <c r="J15" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -21200,7 +21201,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="21"/>
       <c r="T15" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
@@ -21212,7 +21213,7 @@
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
@@ -21286,7 +21287,7 @@
       <c r="C17" s="66"/>
       <c r="I17" s="67"/>
       <c r="J17" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -21300,7 +21301,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -21312,7 +21313,7 @@
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
       <c r="AD17" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
@@ -21410,7 +21411,7 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
@@ -21697,7 +21698,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -21876,14 +21877,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="186">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201"/>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -21892,16 +21893,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="189" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="194"/>
-      <c r="AV1" s="194"/>
-      <c r="AW1" s="194"/>
-      <c r="AX1" s="194"/>
-      <c r="AY1" s="194"/>
-      <c r="AZ1" s="195"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -21923,38 +21924,38 @@
       <c r="M2" s="37"/>
       <c r="N2" s="35" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K16</v>
+        <v>K-16</v>
       </c>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="200" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="195"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -21963,13 +21964,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="195"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -22249,7 +22250,7 @@
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -22305,7 +22306,7 @@
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -22361,7 +22362,7 @@
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -22643,18 +22644,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22676,18 +22677,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D24545E-19F0-4E2E-8DEE-AB6CDD5AFAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D424B-3B85-471C-AB2A-2CE40D466CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3943,91 +3943,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4055,6 +3970,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4073,22 +4085,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6150,1779 +6150,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="143"/>
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+      <c r="AS1" s="143"/>
+      <c r="AT1" s="143"/>
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="143"/>
+      <c r="AW1" s="143"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="144"/>
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="144"/>
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="144"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176" t="s">
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="177" t="s">
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="176" t="s">
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176" t="s">
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176" t="s">
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="145"/>
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="145"/>
+      <c r="AN3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176" t="s">
+      <c r="AO3" s="145"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="145"/>
+      <c r="AR3" s="145"/>
+      <c r="AS3" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="145"/>
+      <c r="AV3" s="145"/>
+      <c r="AW3" s="145"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="145"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="168">
+      <c r="B5" s="153">
         <v>1</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="149">
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154">
         <v>43734</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150" t="s">
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="150" t="s">
+      <c r="K5" s="156"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="156" t="s">
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="167" t="s">
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="156" t="s">
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="161"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="161"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="156"/>
-      <c r="AW5" s="156"/>
+      <c r="AO5" s="152"/>
+      <c r="AP5" s="152"/>
+      <c r="AQ5" s="152"/>
+      <c r="AR5" s="152"/>
+      <c r="AS5" s="152"/>
+      <c r="AT5" s="152"/>
+      <c r="AU5" s="152"/>
+      <c r="AV5" s="152"/>
+      <c r="AW5" s="152"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="156"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="156"/>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="156"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
+      <c r="AD6" s="161"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="161"/>
+      <c r="AG6" s="161"/>
+      <c r="AH6" s="161"/>
+      <c r="AI6" s="161"/>
+      <c r="AJ6" s="161"/>
+      <c r="AK6" s="161"/>
+      <c r="AL6" s="161"/>
+      <c r="AM6" s="161"/>
+      <c r="AN6" s="152"/>
+      <c r="AO6" s="152"/>
+      <c r="AP6" s="152"/>
+      <c r="AQ6" s="152"/>
+      <c r="AR6" s="152"/>
+      <c r="AS6" s="152"/>
+      <c r="AT6" s="152"/>
+      <c r="AU6" s="152"/>
+      <c r="AV6" s="152"/>
+      <c r="AW6" s="152"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="167"/>
-      <c r="AK7" s="167"/>
-      <c r="AL7" s="167"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="156"/>
-      <c r="AR7" s="156"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="156"/>
-      <c r="AV7" s="156"/>
-      <c r="AW7" s="156"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161"/>
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="152"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="152"/>
+      <c r="AS7" s="152"/>
+      <c r="AT7" s="152"/>
+      <c r="AU7" s="152"/>
+      <c r="AV7" s="152"/>
+      <c r="AW7" s="152"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167"/>
-      <c r="AM8" s="167"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="161"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="161"/>
+      <c r="AJ8" s="161"/>
+      <c r="AK8" s="161"/>
+      <c r="AL8" s="161"/>
+      <c r="AM8" s="161"/>
+      <c r="AN8" s="152"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="152"/>
+      <c r="AU8" s="152"/>
+      <c r="AV8" s="152"/>
+      <c r="AW8" s="152"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="161"/>
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="161"/>
+      <c r="AK9" s="161"/>
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="167"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="152"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
+      <c r="AD10" s="161"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="161"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="161"/>
+      <c r="AJ10" s="161"/>
+      <c r="AK10" s="161"/>
+      <c r="AL10" s="161"/>
+      <c r="AM10" s="161"/>
+      <c r="AN10" s="152"/>
+      <c r="AO10" s="152"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="152"/>
+      <c r="AR10" s="152"/>
+      <c r="AS10" s="152"/>
+      <c r="AT10" s="152"/>
+      <c r="AU10" s="152"/>
+      <c r="AV10" s="152"/>
+      <c r="AW10" s="152"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="169"/>
-      <c r="AJ11" s="169"/>
-      <c r="AK11" s="169"/>
-      <c r="AL11" s="169"/>
-      <c r="AM11" s="170"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="174"/>
+      <c r="AL11" s="174"/>
+      <c r="AM11" s="175"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="152"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="158"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="158"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="144"/>
-      <c r="AP12" s="144"/>
-      <c r="AQ12" s="144"/>
-      <c r="AR12" s="145"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="144"/>
-      <c r="AU12" s="144"/>
-      <c r="AV12" s="144"/>
-      <c r="AW12" s="145"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="166"/>
+      <c r="Q12" s="166"/>
+      <c r="R12" s="167"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="169"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="171"/>
+      <c r="AO12" s="172"/>
+      <c r="AP12" s="172"/>
+      <c r="AQ12" s="172"/>
+      <c r="AR12" s="173"/>
+      <c r="AS12" s="171"/>
+      <c r="AT12" s="172"/>
+      <c r="AU12" s="172"/>
+      <c r="AV12" s="172"/>
+      <c r="AW12" s="173"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="158"/>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="158"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="144"/>
-      <c r="AP13" s="144"/>
-      <c r="AQ13" s="144"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-      <c r="AW13" s="145"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="169"/>
+      <c r="AB13" s="169"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="169"/>
+      <c r="AJ13" s="169"/>
+      <c r="AK13" s="169"/>
+      <c r="AL13" s="169"/>
+      <c r="AM13" s="170"/>
+      <c r="AN13" s="171"/>
+      <c r="AO13" s="172"/>
+      <c r="AP13" s="172"/>
+      <c r="AQ13" s="172"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="171"/>
+      <c r="AT13" s="172"/>
+      <c r="AU13" s="172"/>
+      <c r="AV13" s="172"/>
+      <c r="AW13" s="173"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="167"/>
-      <c r="AM14" s="167"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="143"/>
-      <c r="AT14" s="144"/>
-      <c r="AU14" s="144"/>
-      <c r="AV14" s="144"/>
-      <c r="AW14" s="145"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="161"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="152"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="152"/>
+      <c r="AR14" s="152"/>
+      <c r="AS14" s="171"/>
+      <c r="AT14" s="172"/>
+      <c r="AU14" s="172"/>
+      <c r="AV14" s="172"/>
+      <c r="AW14" s="173"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="158"/>
-      <c r="AJ15" s="158"/>
-      <c r="AK15" s="158"/>
-      <c r="AL15" s="158"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="143"/>
-      <c r="AO15" s="144"/>
-      <c r="AP15" s="144"/>
-      <c r="AQ15" s="144"/>
-      <c r="AR15" s="145"/>
-      <c r="AS15" s="143"/>
-      <c r="AT15" s="144"/>
-      <c r="AU15" s="144"/>
-      <c r="AV15" s="144"/>
-      <c r="AW15" s="145"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="169"/>
+      <c r="AA15" s="169"/>
+      <c r="AB15" s="169"/>
+      <c r="AC15" s="169"/>
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="169"/>
+      <c r="AI15" s="169"/>
+      <c r="AJ15" s="169"/>
+      <c r="AK15" s="169"/>
+      <c r="AL15" s="169"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="172"/>
+      <c r="AQ15" s="172"/>
+      <c r="AR15" s="173"/>
+      <c r="AS15" s="171"/>
+      <c r="AT15" s="172"/>
+      <c r="AU15" s="172"/>
+      <c r="AV15" s="172"/>
+      <c r="AW15" s="173"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="143"/>
-      <c r="AO16" s="144"/>
-      <c r="AP16" s="144"/>
-      <c r="AQ16" s="144"/>
-      <c r="AR16" s="145"/>
-      <c r="AS16" s="143"/>
-      <c r="AT16" s="144"/>
-      <c r="AU16" s="144"/>
-      <c r="AV16" s="144"/>
-      <c r="AW16" s="145"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="169"/>
+      <c r="X16" s="169"/>
+      <c r="Y16" s="169"/>
+      <c r="Z16" s="169"/>
+      <c r="AA16" s="169"/>
+      <c r="AB16" s="169"/>
+      <c r="AC16" s="169"/>
+      <c r="AD16" s="169"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="169"/>
+      <c r="AI16" s="169"/>
+      <c r="AJ16" s="169"/>
+      <c r="AK16" s="169"/>
+      <c r="AL16" s="169"/>
+      <c r="AM16" s="170"/>
+      <c r="AN16" s="171"/>
+      <c r="AO16" s="172"/>
+      <c r="AP16" s="172"/>
+      <c r="AQ16" s="172"/>
+      <c r="AR16" s="173"/>
+      <c r="AS16" s="171"/>
+      <c r="AT16" s="172"/>
+      <c r="AU16" s="172"/>
+      <c r="AV16" s="172"/>
+      <c r="AW16" s="173"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="158"/>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="143"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="145"/>
-      <c r="AS17" s="143"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-      <c r="AW17" s="145"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="165"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="169"/>
+      <c r="AJ17" s="169"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="169"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="171"/>
+      <c r="AO17" s="172"/>
+      <c r="AP17" s="172"/>
+      <c r="AQ17" s="172"/>
+      <c r="AR17" s="173"/>
+      <c r="AS17" s="171"/>
+      <c r="AT17" s="172"/>
+      <c r="AU17" s="172"/>
+      <c r="AV17" s="172"/>
+      <c r="AW17" s="173"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="158"/>
-      <c r="AL18" s="158"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="143"/>
-      <c r="AO18" s="144"/>
-      <c r="AP18" s="144"/>
-      <c r="AQ18" s="144"/>
-      <c r="AR18" s="145"/>
-      <c r="AS18" s="143"/>
-      <c r="AT18" s="144"/>
-      <c r="AU18" s="144"/>
-      <c r="AV18" s="144"/>
-      <c r="AW18" s="145"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="169"/>
+      <c r="AJ18" s="169"/>
+      <c r="AK18" s="169"/>
+      <c r="AL18" s="169"/>
+      <c r="AM18" s="170"/>
+      <c r="AN18" s="171"/>
+      <c r="AO18" s="172"/>
+      <c r="AP18" s="172"/>
+      <c r="AQ18" s="172"/>
+      <c r="AR18" s="173"/>
+      <c r="AS18" s="171"/>
+      <c r="AT18" s="172"/>
+      <c r="AU18" s="172"/>
+      <c r="AV18" s="172"/>
+      <c r="AW18" s="173"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="143"/>
-      <c r="AT19" s="144"/>
-      <c r="AU19" s="144"/>
-      <c r="AV19" s="144"/>
-      <c r="AW19" s="145"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="169"/>
+      <c r="Y19" s="169"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="169"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="169"/>
+      <c r="AJ19" s="169"/>
+      <c r="AK19" s="169"/>
+      <c r="AL19" s="169"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="152"/>
+      <c r="AO19" s="152"/>
+      <c r="AP19" s="152"/>
+      <c r="AQ19" s="152"/>
+      <c r="AR19" s="152"/>
+      <c r="AS19" s="171"/>
+      <c r="AT19" s="172"/>
+      <c r="AU19" s="172"/>
+      <c r="AV19" s="172"/>
+      <c r="AW19" s="173"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="158"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="143"/>
-      <c r="AO20" s="144"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="145"/>
-      <c r="AS20" s="143"/>
-      <c r="AT20" s="144"/>
-      <c r="AU20" s="144"/>
-      <c r="AV20" s="144"/>
-      <c r="AW20" s="145"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="169"/>
+      <c r="Y20" s="169"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="169"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="169"/>
+      <c r="AJ20" s="169"/>
+      <c r="AK20" s="169"/>
+      <c r="AL20" s="169"/>
+      <c r="AM20" s="170"/>
+      <c r="AN20" s="171"/>
+      <c r="AO20" s="172"/>
+      <c r="AP20" s="172"/>
+      <c r="AQ20" s="172"/>
+      <c r="AR20" s="173"/>
+      <c r="AS20" s="171"/>
+      <c r="AT20" s="172"/>
+      <c r="AU20" s="172"/>
+      <c r="AV20" s="172"/>
+      <c r="AW20" s="173"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="158"/>
-      <c r="AK21" s="158"/>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="143"/>
-      <c r="AO21" s="144"/>
-      <c r="AP21" s="144"/>
-      <c r="AQ21" s="144"/>
-      <c r="AR21" s="145"/>
-      <c r="AS21" s="143"/>
-      <c r="AT21" s="144"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-      <c r="AW21" s="145"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="169"/>
+      <c r="Y21" s="169"/>
+      <c r="Z21" s="169"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="169"/>
+      <c r="AC21" s="169"/>
+      <c r="AD21" s="169"/>
+      <c r="AE21" s="169"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="169"/>
+      <c r="AJ21" s="169"/>
+      <c r="AK21" s="169"/>
+      <c r="AL21" s="169"/>
+      <c r="AM21" s="170"/>
+      <c r="AN21" s="171"/>
+      <c r="AO21" s="172"/>
+      <c r="AP21" s="172"/>
+      <c r="AQ21" s="172"/>
+      <c r="AR21" s="173"/>
+      <c r="AS21" s="171"/>
+      <c r="AT21" s="172"/>
+      <c r="AU21" s="172"/>
+      <c r="AV21" s="172"/>
+      <c r="AW21" s="173"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="158"/>
-      <c r="AL22" s="158"/>
-      <c r="AM22" s="159"/>
-      <c r="AN22" s="143"/>
-      <c r="AO22" s="144"/>
-      <c r="AP22" s="144"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="145"/>
-      <c r="AS22" s="143"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-      <c r="AW22" s="145"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="169"/>
+      <c r="X22" s="169"/>
+      <c r="Y22" s="169"/>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="169"/>
+      <c r="AC22" s="169"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="169"/>
+      <c r="AJ22" s="169"/>
+      <c r="AK22" s="169"/>
+      <c r="AL22" s="169"/>
+      <c r="AM22" s="170"/>
+      <c r="AN22" s="171"/>
+      <c r="AO22" s="172"/>
+      <c r="AP22" s="172"/>
+      <c r="AQ22" s="172"/>
+      <c r="AR22" s="173"/>
+      <c r="AS22" s="171"/>
+      <c r="AT22" s="172"/>
+      <c r="AU22" s="172"/>
+      <c r="AV22" s="172"/>
+      <c r="AW22" s="173"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="158"/>
-      <c r="AJ23" s="158"/>
-      <c r="AK23" s="158"/>
-      <c r="AL23" s="158"/>
-      <c r="AM23" s="159"/>
-      <c r="AN23" s="143"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="145"/>
-      <c r="AS23" s="143"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="145"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="169"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="169"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="169"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="169"/>
+      <c r="AJ23" s="169"/>
+      <c r="AK23" s="169"/>
+      <c r="AL23" s="169"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="171"/>
+      <c r="AO23" s="172"/>
+      <c r="AP23" s="172"/>
+      <c r="AQ23" s="172"/>
+      <c r="AR23" s="173"/>
+      <c r="AS23" s="171"/>
+      <c r="AT23" s="172"/>
+      <c r="AU23" s="172"/>
+      <c r="AV23" s="172"/>
+      <c r="AW23" s="173"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="158"/>
-      <c r="AM24" s="159"/>
-      <c r="AN24" s="143"/>
-      <c r="AO24" s="144"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="145"/>
-      <c r="AS24" s="143"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="144"/>
-      <c r="AV24" s="144"/>
-      <c r="AW24" s="145"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="166"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="169"/>
+      <c r="X24" s="169"/>
+      <c r="Y24" s="169"/>
+      <c r="Z24" s="169"/>
+      <c r="AA24" s="169"/>
+      <c r="AB24" s="169"/>
+      <c r="AC24" s="169"/>
+      <c r="AD24" s="169"/>
+      <c r="AE24" s="169"/>
+      <c r="AF24" s="169"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="169"/>
+      <c r="AJ24" s="169"/>
+      <c r="AK24" s="169"/>
+      <c r="AL24" s="169"/>
+      <c r="AM24" s="170"/>
+      <c r="AN24" s="171"/>
+      <c r="AO24" s="172"/>
+      <c r="AP24" s="172"/>
+      <c r="AQ24" s="172"/>
+      <c r="AR24" s="173"/>
+      <c r="AS24" s="171"/>
+      <c r="AT24" s="172"/>
+      <c r="AU24" s="172"/>
+      <c r="AV24" s="172"/>
+      <c r="AW24" s="173"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="158"/>
-      <c r="AK25" s="158"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="143"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="145"/>
-      <c r="AS25" s="143"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="145"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="169"/>
+      <c r="Y25" s="169"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="169"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="169"/>
+      <c r="AF25" s="169"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="169"/>
+      <c r="AJ25" s="169"/>
+      <c r="AK25" s="169"/>
+      <c r="AL25" s="169"/>
+      <c r="AM25" s="170"/>
+      <c r="AN25" s="171"/>
+      <c r="AO25" s="172"/>
+      <c r="AP25" s="172"/>
+      <c r="AQ25" s="172"/>
+      <c r="AR25" s="173"/>
+      <c r="AS25" s="171"/>
+      <c r="AT25" s="172"/>
+      <c r="AU25" s="172"/>
+      <c r="AV25" s="172"/>
+      <c r="AW25" s="173"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="158"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="144"/>
-      <c r="AQ26" s="144"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="143"/>
-      <c r="AT26" s="144"/>
-      <c r="AU26" s="144"/>
-      <c r="AV26" s="144"/>
-      <c r="AW26" s="145"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="166"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="169"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="169"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="169"/>
+      <c r="AE26" s="169"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="169"/>
+      <c r="AJ26" s="169"/>
+      <c r="AK26" s="169"/>
+      <c r="AL26" s="169"/>
+      <c r="AM26" s="170"/>
+      <c r="AN26" s="171"/>
+      <c r="AO26" s="172"/>
+      <c r="AP26" s="172"/>
+      <c r="AQ26" s="172"/>
+      <c r="AR26" s="173"/>
+      <c r="AS26" s="171"/>
+      <c r="AT26" s="172"/>
+      <c r="AU26" s="172"/>
+      <c r="AV26" s="172"/>
+      <c r="AW26" s="173"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="143"/>
-      <c r="AO27" s="144"/>
-      <c r="AP27" s="144"/>
-      <c r="AQ27" s="144"/>
-      <c r="AR27" s="145"/>
-      <c r="AS27" s="143"/>
-      <c r="AT27" s="144"/>
-      <c r="AU27" s="144"/>
-      <c r="AV27" s="144"/>
-      <c r="AW27" s="145"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="169"/>
+      <c r="X27" s="169"/>
+      <c r="Y27" s="169"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="169"/>
+      <c r="AB27" s="169"/>
+      <c r="AC27" s="169"/>
+      <c r="AD27" s="169"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="169"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="169"/>
+      <c r="AJ27" s="169"/>
+      <c r="AK27" s="169"/>
+      <c r="AL27" s="169"/>
+      <c r="AM27" s="170"/>
+      <c r="AN27" s="171"/>
+      <c r="AO27" s="172"/>
+      <c r="AP27" s="172"/>
+      <c r="AQ27" s="172"/>
+      <c r="AR27" s="173"/>
+      <c r="AS27" s="171"/>
+      <c r="AT27" s="172"/>
+      <c r="AU27" s="172"/>
+      <c r="AV27" s="172"/>
+      <c r="AW27" s="173"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
-      <c r="AW28" s="145"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="166"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="169"/>
+      <c r="Z28" s="169"/>
+      <c r="AA28" s="169"/>
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="169"/>
+      <c r="AD28" s="169"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="169"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="169"/>
+      <c r="AJ28" s="169"/>
+      <c r="AK28" s="169"/>
+      <c r="AL28" s="169"/>
+      <c r="AM28" s="170"/>
+      <c r="AN28" s="171"/>
+      <c r="AO28" s="172"/>
+      <c r="AP28" s="172"/>
+      <c r="AQ28" s="172"/>
+      <c r="AR28" s="173"/>
+      <c r="AS28" s="171"/>
+      <c r="AT28" s="172"/>
+      <c r="AU28" s="172"/>
+      <c r="AV28" s="172"/>
+      <c r="AW28" s="173"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="158"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="143"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="144"/>
-      <c r="AQ29" s="144"/>
-      <c r="AR29" s="145"/>
-      <c r="AS29" s="143"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="144"/>
-      <c r="AV29" s="144"/>
-      <c r="AW29" s="145"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="166"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="169"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="169"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="169"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="169"/>
+      <c r="AJ29" s="169"/>
+      <c r="AK29" s="169"/>
+      <c r="AL29" s="169"/>
+      <c r="AM29" s="170"/>
+      <c r="AN29" s="171"/>
+      <c r="AO29" s="172"/>
+      <c r="AP29" s="172"/>
+      <c r="AQ29" s="172"/>
+      <c r="AR29" s="173"/>
+      <c r="AS29" s="171"/>
+      <c r="AT29" s="172"/>
+      <c r="AU29" s="172"/>
+      <c r="AV29" s="172"/>
+      <c r="AW29" s="173"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="143"/>
-      <c r="AO30" s="144"/>
-      <c r="AP30" s="144"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="145"/>
-      <c r="AS30" s="143"/>
-      <c r="AT30" s="144"/>
-      <c r="AU30" s="144"/>
-      <c r="AV30" s="144"/>
-      <c r="AW30" s="145"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="169"/>
+      <c r="AA30" s="169"/>
+      <c r="AB30" s="169"/>
+      <c r="AC30" s="169"/>
+      <c r="AD30" s="169"/>
+      <c r="AE30" s="169"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="169"/>
+      <c r="AJ30" s="169"/>
+      <c r="AK30" s="169"/>
+      <c r="AL30" s="169"/>
+      <c r="AM30" s="170"/>
+      <c r="AN30" s="171"/>
+      <c r="AO30" s="172"/>
+      <c r="AP30" s="172"/>
+      <c r="AQ30" s="172"/>
+      <c r="AR30" s="173"/>
+      <c r="AS30" s="171"/>
+      <c r="AT30" s="172"/>
+      <c r="AU30" s="172"/>
+      <c r="AV30" s="172"/>
+      <c r="AW30" s="173"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="158"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="159"/>
-      <c r="AN31" s="143"/>
-      <c r="AO31" s="144"/>
-      <c r="AP31" s="144"/>
-      <c r="AQ31" s="144"/>
-      <c r="AR31" s="145"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="144"/>
-      <c r="AU31" s="144"/>
-      <c r="AV31" s="144"/>
-      <c r="AW31" s="145"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="169"/>
+      <c r="AC31" s="169"/>
+      <c r="AD31" s="169"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="169"/>
+      <c r="AJ31" s="169"/>
+      <c r="AK31" s="169"/>
+      <c r="AL31" s="169"/>
+      <c r="AM31" s="170"/>
+      <c r="AN31" s="171"/>
+      <c r="AO31" s="172"/>
+      <c r="AP31" s="172"/>
+      <c r="AQ31" s="172"/>
+      <c r="AR31" s="173"/>
+      <c r="AS31" s="171"/>
+      <c r="AT31" s="172"/>
+      <c r="AU31" s="172"/>
+      <c r="AV31" s="172"/>
+      <c r="AW31" s="173"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
-      <c r="AK32" s="158"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="143"/>
-      <c r="AO32" s="144"/>
-      <c r="AP32" s="144"/>
-      <c r="AQ32" s="144"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="143"/>
-      <c r="AT32" s="144"/>
-      <c r="AU32" s="144"/>
-      <c r="AV32" s="144"/>
-      <c r="AW32" s="145"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="169"/>
+      <c r="AC32" s="169"/>
+      <c r="AD32" s="169"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="169"/>
+      <c r="AJ32" s="169"/>
+      <c r="AK32" s="169"/>
+      <c r="AL32" s="169"/>
+      <c r="AM32" s="170"/>
+      <c r="AN32" s="171"/>
+      <c r="AO32" s="172"/>
+      <c r="AP32" s="172"/>
+      <c r="AQ32" s="172"/>
+      <c r="AR32" s="173"/>
+      <c r="AS32" s="171"/>
+      <c r="AT32" s="172"/>
+      <c r="AU32" s="172"/>
+      <c r="AV32" s="172"/>
+      <c r="AW32" s="173"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="159"/>
-      <c r="AN33" s="143"/>
-      <c r="AO33" s="144"/>
-      <c r="AP33" s="144"/>
-      <c r="AQ33" s="144"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="143"/>
-      <c r="AT33" s="144"/>
-      <c r="AU33" s="144"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="145"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="168"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="169"/>
+      <c r="Y33" s="169"/>
+      <c r="Z33" s="169"/>
+      <c r="AA33" s="169"/>
+      <c r="AB33" s="169"/>
+      <c r="AC33" s="169"/>
+      <c r="AD33" s="169"/>
+      <c r="AE33" s="169"/>
+      <c r="AF33" s="169"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="169"/>
+      <c r="AJ33" s="169"/>
+      <c r="AK33" s="169"/>
+      <c r="AL33" s="169"/>
+      <c r="AM33" s="170"/>
+      <c r="AN33" s="171"/>
+      <c r="AO33" s="172"/>
+      <c r="AP33" s="172"/>
+      <c r="AQ33" s="172"/>
+      <c r="AR33" s="173"/>
+      <c r="AS33" s="171"/>
+      <c r="AT33" s="172"/>
+      <c r="AU33" s="172"/>
+      <c r="AV33" s="172"/>
+      <c r="AW33" s="173"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="158"/>
-      <c r="AK34" s="158"/>
-      <c r="AL34" s="158"/>
-      <c r="AM34" s="159"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="144"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="144"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="144"/>
-      <c r="AU34" s="144"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="145"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="169"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="169"/>
+      <c r="AB34" s="169"/>
+      <c r="AC34" s="169"/>
+      <c r="AD34" s="169"/>
+      <c r="AE34" s="169"/>
+      <c r="AF34" s="169"/>
+      <c r="AG34" s="169"/>
+      <c r="AH34" s="169"/>
+      <c r="AI34" s="169"/>
+      <c r="AJ34" s="169"/>
+      <c r="AK34" s="169"/>
+      <c r="AL34" s="169"/>
+      <c r="AM34" s="170"/>
+      <c r="AN34" s="171"/>
+      <c r="AO34" s="172"/>
+      <c r="AP34" s="172"/>
+      <c r="AQ34" s="172"/>
+      <c r="AR34" s="173"/>
+      <c r="AS34" s="171"/>
+      <c r="AT34" s="172"/>
+      <c r="AU34" s="172"/>
+      <c r="AV34" s="172"/>
+      <c r="AW34" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7939,230 +8154,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8322,11 +8322,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="184"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="184"/>
-      <c r="AS2" s="185"/>
+      <c r="AO2" s="187"/>
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="189"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8335,14 +8335,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="188"/>
+      <c r="AZ2" s="190"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="191"/>
+      <c r="BC2" s="191"/>
+      <c r="BD2" s="191"/>
+      <c r="BE2" s="191"/>
+      <c r="BF2" s="191"/>
+      <c r="BG2" s="192"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9928,10 +9928,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="191" t="s">
+      <c r="B45" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="192"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -10014,10 +10014,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="193">
+      <c r="B46" s="183">
         <v>1</v>
       </c>
-      <c r="C46" s="194"/>
+      <c r="C46" s="184"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -10049,16 +10049,16 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="189" t="s">
+      <c r="AE46" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF46" s="190"/>
-      <c r="AG46" s="189"/>
-      <c r="AH46" s="190"/>
+      <c r="AF46" s="186"/>
+      <c r="AG46" s="185"/>
+      <c r="AH46" s="186"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="189"/>
-      <c r="AL46" s="190"/>
+      <c r="AK46" s="185"/>
+      <c r="AL46" s="186"/>
       <c r="AM46" s="76" t="s">
         <v>223</v>
       </c>
@@ -10092,10 +10092,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="193">
+      <c r="B47" s="183">
         <v>2</v>
       </c>
-      <c r="C47" s="194"/>
+      <c r="C47" s="184"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -10127,16 +10127,16 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="189" t="s">
+      <c r="AE47" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF47" s="190"/>
-      <c r="AG47" s="189"/>
-      <c r="AH47" s="190"/>
+      <c r="AF47" s="186"/>
+      <c r="AG47" s="185"/>
+      <c r="AH47" s="186"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="189"/>
-      <c r="AL47" s="190"/>
+      <c r="AK47" s="185"/>
+      <c r="AL47" s="186"/>
       <c r="AM47" s="76" t="s">
         <v>226</v>
       </c>
@@ -10170,10 +10170,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="193">
+      <c r="B48" s="183">
         <v>3</v>
       </c>
-      <c r="C48" s="194"/>
+      <c r="C48" s="184"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -10205,16 +10205,16 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="189" t="s">
+      <c r="AE48" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF48" s="190"/>
-      <c r="AG48" s="189"/>
-      <c r="AH48" s="190"/>
+      <c r="AF48" s="186"/>
+      <c r="AG48" s="185"/>
+      <c r="AH48" s="186"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="189"/>
-      <c r="AL48" s="190"/>
+      <c r="AK48" s="185"/>
+      <c r="AL48" s="186"/>
       <c r="AM48" s="76" t="s">
         <v>222</v>
       </c>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="193">
+      <c r="B49" s="183">
         <v>4</v>
       </c>
-      <c r="C49" s="194"/>
+      <c r="C49" s="184"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10283,16 +10283,16 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="189" t="s">
+      <c r="AE49" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF49" s="190"/>
-      <c r="AG49" s="189"/>
-      <c r="AH49" s="190"/>
+      <c r="AF49" s="186"/>
+      <c r="AG49" s="185"/>
+      <c r="AH49" s="186"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="189"/>
-      <c r="AL49" s="190"/>
+      <c r="AK49" s="185"/>
+      <c r="AL49" s="186"/>
       <c r="AM49" s="76" t="s">
         <v>224</v>
       </c>
@@ -10326,10 +10326,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="193">
+      <c r="B50" s="183">
         <v>5</v>
       </c>
-      <c r="C50" s="194"/>
+      <c r="C50" s="184"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10361,16 +10361,16 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="189" t="s">
+      <c r="AE50" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF50" s="190"/>
-      <c r="AG50" s="189"/>
-      <c r="AH50" s="190"/>
+      <c r="AF50" s="186"/>
+      <c r="AG50" s="185"/>
+      <c r="AH50" s="186"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="189"/>
-      <c r="AL50" s="190"/>
+      <c r="AK50" s="185"/>
+      <c r="AL50" s="186"/>
       <c r="AM50" s="76" t="s">
         <v>225</v>
       </c>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="193">
+      <c r="B51" s="183">
         <v>6</v>
       </c>
-      <c r="C51" s="194"/>
+      <c r="C51" s="184"/>
       <c r="D51" s="119" t="s">
         <v>195</v>
       </c>
@@ -10439,16 +10439,16 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="189" t="s">
+      <c r="AE51" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF51" s="190"/>
-      <c r="AG51" s="189"/>
-      <c r="AH51" s="190"/>
+      <c r="AF51" s="186"/>
+      <c r="AG51" s="185"/>
+      <c r="AH51" s="186"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="189"/>
-      <c r="AL51" s="190"/>
+      <c r="AK51" s="185"/>
+      <c r="AL51" s="186"/>
       <c r="AM51" s="76" t="s">
         <v>228</v>
       </c>
@@ -10482,10 +10482,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="193">
+      <c r="B52" s="183">
         <v>7</v>
       </c>
-      <c r="C52" s="194"/>
+      <c r="C52" s="184"/>
       <c r="D52" s="119" t="s">
         <v>195</v>
       </c>
@@ -10517,16 +10517,16 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="189" t="s">
+      <c r="AE52" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF52" s="190"/>
-      <c r="AG52" s="189"/>
-      <c r="AH52" s="190"/>
+      <c r="AF52" s="186"/>
+      <c r="AG52" s="185"/>
+      <c r="AH52" s="186"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="189"/>
-      <c r="AL52" s="190"/>
+      <c r="AK52" s="185"/>
+      <c r="AL52" s="186"/>
       <c r="AM52" s="76" t="s">
         <v>228</v>
       </c>
@@ -10560,10 +10560,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="193">
+      <c r="B53" s="183">
         <v>8</v>
       </c>
-      <c r="C53" s="194"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="119" t="s">
         <v>195</v>
       </c>
@@ -10595,16 +10595,16 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="189" t="s">
+      <c r="AE53" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF53" s="190"/>
-      <c r="AG53" s="189"/>
-      <c r="AH53" s="190"/>
+      <c r="AF53" s="186"/>
+      <c r="AG53" s="185"/>
+      <c r="AH53" s="186"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="189"/>
-      <c r="AL53" s="190"/>
+      <c r="AK53" s="185"/>
+      <c r="AL53" s="186"/>
       <c r="AM53" s="76" t="s">
         <v>228</v>
       </c>
@@ -10638,10 +10638,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="193">
+      <c r="B54" s="183">
         <v>9</v>
       </c>
-      <c r="C54" s="194"/>
+      <c r="C54" s="184"/>
       <c r="D54" s="119" t="s">
         <v>195</v>
       </c>
@@ -10673,16 +10673,16 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="189" t="s">
+      <c r="AE54" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF54" s="190"/>
-      <c r="AG54" s="189"/>
-      <c r="AH54" s="190"/>
+      <c r="AF54" s="186"/>
+      <c r="AG54" s="185"/>
+      <c r="AH54" s="186"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="189"/>
-      <c r="AL54" s="190"/>
+      <c r="AK54" s="185"/>
+      <c r="AL54" s="186"/>
       <c r="AM54" s="76" t="s">
         <v>227</v>
       </c>
@@ -10716,22 +10716,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10748,13 +10739,22 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10900,7 +10900,7 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="186" t="str">
+      <c r="CU1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11031,7 +11031,7 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="186"/>
+      <c r="CU2" s="190"/>
       <c r="CV2" s="195"/>
       <c r="CW2" s="195"/>
       <c r="CX2" s="195"/>
@@ -11250,22 +11250,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="176" t="s">
+      <c r="H6" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="204" t="s">
@@ -11274,13 +11274,13 @@
       <c r="J6" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="176" t="s">
+      <c r="K6" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="176" t="s">
+      <c r="L6" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="176" t="s">
+      <c r="M6" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11295,17 +11295,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="204"/>
       <c r="J7" s="204"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11477,22 +11477,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="176" t="s">
+      <c r="F13" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="176" t="s">
+      <c r="H13" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="205" t="s">
@@ -11501,13 +11501,13 @@
       <c r="J13" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="176" t="s">
+      <c r="K13" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="176" t="s">
+      <c r="L13" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="176" t="s">
+      <c r="M13" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11522,17 +11522,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="206"/>
       <c r="J14" s="204"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -12013,22 +12013,22 @@
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="176" t="s">
+      <c r="E26" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="176" t="s">
+      <c r="G26" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="176" t="s">
+      <c r="H26" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I26" s="204" t="s">
@@ -12037,13 +12037,13 @@
       <c r="J26" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="176" t="s">
+      <c r="K26" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="176" t="s">
+      <c r="L26" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="176" t="s">
+      <c r="M26" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -12058,17 +12058,17 @@
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
       <c r="I27" s="204"/>
       <c r="J27" s="204"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -12794,22 +12794,22 @@
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="128"/>
-      <c r="C45" s="176" t="s">
+      <c r="C45" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="176" t="s">
+      <c r="E45" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="176" t="s">
+      <c r="F45" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="176" t="s">
+      <c r="G45" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="176" t="s">
+      <c r="H45" s="145" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="204" t="s">
@@ -12818,13 +12818,13 @@
       <c r="J45" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="176" t="s">
+      <c r="K45" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="176" t="s">
+      <c r="L45" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="176" t="s">
+      <c r="M45" s="145" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12838,17 +12838,17 @@
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="128"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
       <c r="I46" s="204"/>
       <c r="J46" s="204"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="145"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -13414,18 +13414,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13438,30 +13450,18 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13537,7 +13537,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -13553,7 +13553,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -20448,7 +20448,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -20464,7 +20464,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -20535,7 +20535,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -21877,7 +21877,7 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="187">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
@@ -21893,7 +21893,7 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="190" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -21964,7 +21964,7 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
+      <c r="AT2" s="190"/>
       <c r="AU2" s="195"/>
       <c r="AV2" s="195"/>
       <c r="AW2" s="195"/>
@@ -22486,6 +22486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -22643,12 +22649,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22659,6 +22659,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22676,15 +22685,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K16_成形実績参照.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\設計書\修正\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5785B57-F1A6-403F-8296-D476E08E0ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723DC83B-B5F5-47D3-9BE0-909C380E6124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="448">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2269,26 +2269,6 @@
     <rPh sb="4" eb="6">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他払出.品名事業所コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他払出.パック品名略称</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他払出.納入先コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他払出.納入区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>その他払出.製品半製品区分</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3070,6 +3050,14 @@
   </si>
   <si>
     <t>・実績管理データ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 実績管理データ.作番</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他払出.作番</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3960,6 +3948,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3969,91 +3960,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4081,6 +3987,103 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4099,22 +4102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4152,9 +4143,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5957,108 +5945,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="140"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="140"/>
-      <c r="U32" s="140"/>
-      <c r="V32" s="140"/>
-      <c r="W32" s="140"/>
-      <c r="X32" s="140"/>
-      <c r="Y32" s="140"/>
-      <c r="Z32" s="140"/>
-      <c r="AA32" s="140"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="140"/>
-      <c r="AN32" s="140"/>
-      <c r="AO32" s="140"/>
-      <c r="AP32" s="140"/>
-      <c r="AQ32" s="140"/>
-      <c r="AR32" s="140"/>
-      <c r="AS32" s="140"/>
-      <c r="AT32" s="140"/>
-      <c r="AU32" s="140"/>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="141"/>
+      <c r="AF32" s="141"/>
+      <c r="AG32" s="141"/>
+      <c r="AH32" s="141"/>
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="141"/>
+      <c r="AK32" s="141"/>
+      <c r="AL32" s="141"/>
+      <c r="AM32" s="141"/>
+      <c r="AN32" s="141"/>
+      <c r="AO32" s="141"/>
+      <c r="AP32" s="141"/>
+      <c r="AQ32" s="141"/>
+      <c r="AR32" s="141"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="141"/>
+      <c r="AU32" s="141"/>
+      <c r="AV32" s="141"/>
+      <c r="AW32" s="141"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
-      <c r="W33" s="141"/>
-      <c r="X33" s="141"/>
-      <c r="Y33" s="141"/>
-      <c r="Z33" s="141"/>
-      <c r="AA33" s="141"/>
-      <c r="AB33" s="141"/>
-      <c r="AC33" s="141"/>
-      <c r="AD33" s="141"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="141"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="141"/>
-      <c r="AJ33" s="141"/>
-      <c r="AK33" s="141"/>
-      <c r="AL33" s="141"/>
-      <c r="AM33" s="141"/>
-      <c r="AN33" s="141"/>
-      <c r="AO33" s="141"/>
-      <c r="AP33" s="141"/>
-      <c r="AQ33" s="141"/>
-      <c r="AR33" s="141"/>
-      <c r="AS33" s="141"/>
-      <c r="AT33" s="141"/>
-      <c r="AU33" s="141"/>
-      <c r="AV33" s="141"/>
-      <c r="AW33" s="141"/>
+      <c r="A33" s="142"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="142"/>
+      <c r="Q33" s="142"/>
+      <c r="R33" s="142"/>
+      <c r="S33" s="142"/>
+      <c r="T33" s="142"/>
+      <c r="U33" s="142"/>
+      <c r="V33" s="142"/>
+      <c r="W33" s="142"/>
+      <c r="X33" s="142"/>
+      <c r="Y33" s="142"/>
+      <c r="Z33" s="142"/>
+      <c r="AA33" s="142"/>
+      <c r="AB33" s="142"/>
+      <c r="AC33" s="142"/>
+      <c r="AD33" s="142"/>
+      <c r="AE33" s="142"/>
+      <c r="AF33" s="142"/>
+      <c r="AG33" s="142"/>
+      <c r="AH33" s="142"/>
+      <c r="AI33" s="142"/>
+      <c r="AJ33" s="142"/>
+      <c r="AK33" s="142"/>
+      <c r="AL33" s="142"/>
+      <c r="AM33" s="142"/>
+      <c r="AN33" s="142"/>
+      <c r="AO33" s="142"/>
+      <c r="AP33" s="142"/>
+      <c r="AQ33" s="142"/>
+      <c r="AR33" s="142"/>
+      <c r="AS33" s="142"/>
+      <c r="AT33" s="142"/>
+      <c r="AU33" s="142"/>
+      <c r="AV33" s="142"/>
+      <c r="AW33" s="142"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6096,55 +6084,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="142"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="142"/>
-      <c r="S35" s="142"/>
-      <c r="T35" s="142"/>
-      <c r="U35" s="142"/>
-      <c r="V35" s="142"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="142"/>
-      <c r="Y35" s="142"/>
-      <c r="Z35" s="142"/>
-      <c r="AA35" s="142"/>
-      <c r="AB35" s="142"/>
-      <c r="AC35" s="142"/>
-      <c r="AD35" s="142"/>
-      <c r="AE35" s="142"/>
-      <c r="AF35" s="142"/>
-      <c r="AG35" s="142"/>
-      <c r="AH35" s="142"/>
-      <c r="AI35" s="142"/>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="142"/>
-      <c r="AL35" s="142"/>
-      <c r="AM35" s="142"/>
-      <c r="AN35" s="142"/>
-      <c r="AO35" s="142"/>
-      <c r="AP35" s="142"/>
-      <c r="AQ35" s="142"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="142"/>
-      <c r="AT35" s="142"/>
-      <c r="AU35" s="142"/>
-      <c r="AV35" s="142"/>
-      <c r="AW35" s="142"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="143"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="143"/>
+      <c r="AL35" s="143"/>
+      <c r="AM35" s="143"/>
+      <c r="AN35" s="143"/>
+      <c r="AO35" s="143"/>
+      <c r="AP35" s="143"/>
+      <c r="AQ35" s="143"/>
+      <c r="AR35" s="143"/>
+      <c r="AS35" s="143"/>
+      <c r="AT35" s="143"/>
+      <c r="AU35" s="143"/>
+      <c r="AV35" s="143"/>
+      <c r="AW35" s="143"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -6179,1779 +6167,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="174"/>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="144"/>
+      <c r="AO1" s="144"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
+      <c r="AR1" s="144"/>
+      <c r="AS1" s="144"/>
+      <c r="AT1" s="144"/>
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="145"/>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="145"/>
+      <c r="AR2" s="145"/>
+      <c r="AS2" s="145"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="145"/>
+      <c r="AV2" s="145"/>
+      <c r="AW2" s="145"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="177" t="s">
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="177" t="s">
+      <c r="K3" s="148"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="176" t="s">
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176" t="s">
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176" t="s">
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="146"/>
+      <c r="AA3" s="146"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="146"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="146"/>
+      <c r="AH3" s="146"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="146"/>
+      <c r="AK3" s="146"/>
+      <c r="AL3" s="146"/>
+      <c r="AM3" s="146"/>
+      <c r="AN3" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176" t="s">
+      <c r="AO3" s="146"/>
+      <c r="AP3" s="146"/>
+      <c r="AQ3" s="146"/>
+      <c r="AR3" s="146"/>
+      <c r="AS3" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
+      <c r="AT3" s="146"/>
+      <c r="AU3" s="146"/>
+      <c r="AV3" s="146"/>
+      <c r="AW3" s="146"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="182"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146"/>
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
-      <c r="B5" s="168">
+      <c r="B5" s="154">
         <v>1</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="149">
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155">
         <v>43734</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="150" t="s">
+      <c r="K5" s="157"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="156" t="s">
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="167" t="s">
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="167"/>
-      <c r="AN5" s="156" t="s">
+      <c r="W5" s="162"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="156"/>
-      <c r="AP5" s="156"/>
-      <c r="AQ5" s="156"/>
-      <c r="AR5" s="156"/>
-      <c r="AS5" s="156"/>
-      <c r="AT5" s="156"/>
-      <c r="AU5" s="156"/>
-      <c r="AV5" s="156"/>
-      <c r="AW5" s="156"/>
+      <c r="AO5" s="153"/>
+      <c r="AP5" s="153"/>
+      <c r="AQ5" s="153"/>
+      <c r="AR5" s="153"/>
+      <c r="AS5" s="153"/>
+      <c r="AT5" s="153"/>
+      <c r="AU5" s="153"/>
+      <c r="AV5" s="153"/>
+      <c r="AW5" s="153"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="156"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="156"/>
-      <c r="AQ6" s="156"/>
-      <c r="AR6" s="156"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="156"/>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="156"/>
-      <c r="AW6" s="156"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="161"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="153"/>
+      <c r="AO6" s="153"/>
+      <c r="AP6" s="153"/>
+      <c r="AQ6" s="153"/>
+      <c r="AR6" s="153"/>
+      <c r="AS6" s="153"/>
+      <c r="AT6" s="153"/>
+      <c r="AU6" s="153"/>
+      <c r="AV6" s="153"/>
+      <c r="AW6" s="153"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="167"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="167"/>
-      <c r="AB7" s="167"/>
-      <c r="AC7" s="167"/>
-      <c r="AD7" s="167"/>
-      <c r="AE7" s="167"/>
-      <c r="AF7" s="167"/>
-      <c r="AG7" s="167"/>
-      <c r="AH7" s="167"/>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="167"/>
-      <c r="AK7" s="167"/>
-      <c r="AL7" s="167"/>
-      <c r="AM7" s="167"/>
-      <c r="AN7" s="156"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="156"/>
-      <c r="AR7" s="156"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="156"/>
-      <c r="AU7" s="156"/>
-      <c r="AV7" s="156"/>
-      <c r="AW7" s="156"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="153"/>
+      <c r="AO7" s="153"/>
+      <c r="AP7" s="153"/>
+      <c r="AQ7" s="153"/>
+      <c r="AR7" s="153"/>
+      <c r="AS7" s="153"/>
+      <c r="AT7" s="153"/>
+      <c r="AU7" s="153"/>
+      <c r="AV7" s="153"/>
+      <c r="AW7" s="153"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167"/>
-      <c r="AM8" s="167"/>
-      <c r="AN8" s="156"/>
-      <c r="AO8" s="156"/>
-      <c r="AP8" s="156"/>
-      <c r="AQ8" s="156"/>
-      <c r="AR8" s="156"/>
-      <c r="AS8" s="156"/>
-      <c r="AT8" s="156"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="156"/>
-      <c r="AW8" s="156"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="162"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="162"/>
+      <c r="AN8" s="153"/>
+      <c r="AO8" s="153"/>
+      <c r="AP8" s="153"/>
+      <c r="AQ8" s="153"/>
+      <c r="AR8" s="153"/>
+      <c r="AS8" s="153"/>
+      <c r="AT8" s="153"/>
+      <c r="AU8" s="153"/>
+      <c r="AV8" s="153"/>
+      <c r="AW8" s="153"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="156"/>
-      <c r="AO9" s="156"/>
-      <c r="AP9" s="156"/>
-      <c r="AQ9" s="156"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="156"/>
-      <c r="AT9" s="156"/>
-      <c r="AU9" s="156"/>
-      <c r="AV9" s="156"/>
-      <c r="AW9" s="156"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="162"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="162"/>
+      <c r="AL9" s="162"/>
+      <c r="AM9" s="162"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
+      <c r="AQ9" s="153"/>
+      <c r="AR9" s="153"/>
+      <c r="AS9" s="153"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="153"/>
+      <c r="AV9" s="153"/>
+      <c r="AW9" s="153"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="167"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="162"/>
+      <c r="AM10" s="162"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="153"/>
+      <c r="AS10" s="153"/>
+      <c r="AT10" s="153"/>
+      <c r="AU10" s="153"/>
+      <c r="AV10" s="153"/>
+      <c r="AW10" s="153"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="169"/>
-      <c r="AJ11" s="169"/>
-      <c r="AK11" s="169"/>
-      <c r="AL11" s="169"/>
-      <c r="AM11" s="170"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="175"/>
+      <c r="AJ11" s="175"/>
+      <c r="AK11" s="175"/>
+      <c r="AL11" s="175"/>
+      <c r="AM11" s="176"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="153"/>
+      <c r="AP11" s="153"/>
+      <c r="AQ11" s="153"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="153"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="153"/>
+      <c r="AV11" s="153"/>
+      <c r="AW11" s="153"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="158"/>
-      <c r="AJ12" s="158"/>
-      <c r="AK12" s="158"/>
-      <c r="AL12" s="158"/>
-      <c r="AM12" s="159"/>
-      <c r="AN12" s="143"/>
-      <c r="AO12" s="144"/>
-      <c r="AP12" s="144"/>
-      <c r="AQ12" s="144"/>
-      <c r="AR12" s="145"/>
-      <c r="AS12" s="143"/>
-      <c r="AT12" s="144"/>
-      <c r="AU12" s="144"/>
-      <c r="AV12" s="144"/>
-      <c r="AW12" s="145"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="170"/>
+      <c r="AB12" s="170"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="170"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="170"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="170"/>
+      <c r="AJ12" s="170"/>
+      <c r="AK12" s="170"/>
+      <c r="AL12" s="170"/>
+      <c r="AM12" s="171"/>
+      <c r="AN12" s="172"/>
+      <c r="AO12" s="173"/>
+      <c r="AP12" s="173"/>
+      <c r="AQ12" s="173"/>
+      <c r="AR12" s="174"/>
+      <c r="AS12" s="172"/>
+      <c r="AT12" s="173"/>
+      <c r="AU12" s="173"/>
+      <c r="AV12" s="173"/>
+      <c r="AW12" s="174"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="158"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="158"/>
-      <c r="AJ13" s="158"/>
-      <c r="AK13" s="158"/>
-      <c r="AL13" s="158"/>
-      <c r="AM13" s="159"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="144"/>
-      <c r="AP13" s="144"/>
-      <c r="AQ13" s="144"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-      <c r="AW13" s="145"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="170"/>
+      <c r="AB13" s="170"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="170"/>
+      <c r="AJ13" s="170"/>
+      <c r="AK13" s="170"/>
+      <c r="AL13" s="170"/>
+      <c r="AM13" s="171"/>
+      <c r="AN13" s="172"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="173"/>
+      <c r="AQ13" s="173"/>
+      <c r="AR13" s="174"/>
+      <c r="AS13" s="172"/>
+      <c r="AT13" s="173"/>
+      <c r="AU13" s="173"/>
+      <c r="AV13" s="173"/>
+      <c r="AW13" s="174"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="167"/>
-      <c r="AL14" s="167"/>
-      <c r="AM14" s="167"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="143"/>
-      <c r="AT14" s="144"/>
-      <c r="AU14" s="144"/>
-      <c r="AV14" s="144"/>
-      <c r="AW14" s="145"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="162"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="162"/>
+      <c r="AJ14" s="162"/>
+      <c r="AK14" s="162"/>
+      <c r="AL14" s="162"/>
+      <c r="AM14" s="162"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
+      <c r="AQ14" s="153"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="172"/>
+      <c r="AT14" s="173"/>
+      <c r="AU14" s="173"/>
+      <c r="AV14" s="173"/>
+      <c r="AW14" s="174"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="158"/>
-      <c r="AJ15" s="158"/>
-      <c r="AK15" s="158"/>
-      <c r="AL15" s="158"/>
-      <c r="AM15" s="159"/>
-      <c r="AN15" s="143"/>
-      <c r="AO15" s="144"/>
-      <c r="AP15" s="144"/>
-      <c r="AQ15" s="144"/>
-      <c r="AR15" s="145"/>
-      <c r="AS15" s="143"/>
-      <c r="AT15" s="144"/>
-      <c r="AU15" s="144"/>
-      <c r="AV15" s="144"/>
-      <c r="AW15" s="145"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="170"/>
+      <c r="X15" s="170"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="170"/>
+      <c r="AB15" s="170"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="170"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="170"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="170"/>
+      <c r="AJ15" s="170"/>
+      <c r="AK15" s="170"/>
+      <c r="AL15" s="170"/>
+      <c r="AM15" s="171"/>
+      <c r="AN15" s="172"/>
+      <c r="AO15" s="173"/>
+      <c r="AP15" s="173"/>
+      <c r="AQ15" s="173"/>
+      <c r="AR15" s="174"/>
+      <c r="AS15" s="172"/>
+      <c r="AT15" s="173"/>
+      <c r="AU15" s="173"/>
+      <c r="AV15" s="173"/>
+      <c r="AW15" s="174"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="158"/>
-      <c r="AJ16" s="158"/>
-      <c r="AK16" s="158"/>
-      <c r="AL16" s="158"/>
-      <c r="AM16" s="159"/>
-      <c r="AN16" s="143"/>
-      <c r="AO16" s="144"/>
-      <c r="AP16" s="144"/>
-      <c r="AQ16" s="144"/>
-      <c r="AR16" s="145"/>
-      <c r="AS16" s="143"/>
-      <c r="AT16" s="144"/>
-      <c r="AU16" s="144"/>
-      <c r="AV16" s="144"/>
-      <c r="AW16" s="145"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="169"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="170"/>
+      <c r="AE16" s="170"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="170"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="170"/>
+      <c r="AJ16" s="170"/>
+      <c r="AK16" s="170"/>
+      <c r="AL16" s="170"/>
+      <c r="AM16" s="171"/>
+      <c r="AN16" s="172"/>
+      <c r="AO16" s="173"/>
+      <c r="AP16" s="173"/>
+      <c r="AQ16" s="173"/>
+      <c r="AR16" s="174"/>
+      <c r="AS16" s="172"/>
+      <c r="AT16" s="173"/>
+      <c r="AU16" s="173"/>
+      <c r="AV16" s="173"/>
+      <c r="AW16" s="174"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="157"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="158"/>
-      <c r="AJ17" s="158"/>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="159"/>
-      <c r="AN17" s="143"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="145"/>
-      <c r="AS17" s="143"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-      <c r="AW17" s="145"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="180"/>
+      <c r="U17" s="180"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="170"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="170"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="170"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="170"/>
+      <c r="AJ17" s="170"/>
+      <c r="AK17" s="170"/>
+      <c r="AL17" s="170"/>
+      <c r="AM17" s="171"/>
+      <c r="AN17" s="172"/>
+      <c r="AO17" s="173"/>
+      <c r="AP17" s="173"/>
+      <c r="AQ17" s="173"/>
+      <c r="AR17" s="174"/>
+      <c r="AS17" s="172"/>
+      <c r="AT17" s="173"/>
+      <c r="AU17" s="173"/>
+      <c r="AV17" s="173"/>
+      <c r="AW17" s="174"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="158"/>
-      <c r="AL18" s="158"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="143"/>
-      <c r="AO18" s="144"/>
-      <c r="AP18" s="144"/>
-      <c r="AQ18" s="144"/>
-      <c r="AR18" s="145"/>
-      <c r="AS18" s="143"/>
-      <c r="AT18" s="144"/>
-      <c r="AU18" s="144"/>
-      <c r="AV18" s="144"/>
-      <c r="AW18" s="145"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="170"/>
+      <c r="X18" s="170"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="170"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="170"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="170"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="170"/>
+      <c r="AJ18" s="170"/>
+      <c r="AK18" s="170"/>
+      <c r="AL18" s="170"/>
+      <c r="AM18" s="171"/>
+      <c r="AN18" s="172"/>
+      <c r="AO18" s="173"/>
+      <c r="AP18" s="173"/>
+      <c r="AQ18" s="173"/>
+      <c r="AR18" s="174"/>
+      <c r="AS18" s="172"/>
+      <c r="AT18" s="173"/>
+      <c r="AU18" s="173"/>
+      <c r="AV18" s="173"/>
+      <c r="AW18" s="174"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="143"/>
-      <c r="AT19" s="144"/>
-      <c r="AU19" s="144"/>
-      <c r="AV19" s="144"/>
-      <c r="AW19" s="145"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="169"/>
+      <c r="W19" s="170"/>
+      <c r="X19" s="170"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="170"/>
+      <c r="AB19" s="170"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="170"/>
+      <c r="AE19" s="170"/>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="170"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="170"/>
+      <c r="AJ19" s="170"/>
+      <c r="AK19" s="170"/>
+      <c r="AL19" s="170"/>
+      <c r="AM19" s="171"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="153"/>
+      <c r="AP19" s="153"/>
+      <c r="AQ19" s="153"/>
+      <c r="AR19" s="153"/>
+      <c r="AS19" s="172"/>
+      <c r="AT19" s="173"/>
+      <c r="AU19" s="173"/>
+      <c r="AV19" s="173"/>
+      <c r="AW19" s="174"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
-      <c r="AK20" s="158"/>
-      <c r="AL20" s="158"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="143"/>
-      <c r="AO20" s="144"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="145"/>
-      <c r="AS20" s="143"/>
-      <c r="AT20" s="144"/>
-      <c r="AU20" s="144"/>
-      <c r="AV20" s="144"/>
-      <c r="AW20" s="145"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="170"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
+      <c r="AD20" s="170"/>
+      <c r="AE20" s="170"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="170"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="170"/>
+      <c r="AJ20" s="170"/>
+      <c r="AK20" s="170"/>
+      <c r="AL20" s="170"/>
+      <c r="AM20" s="171"/>
+      <c r="AN20" s="172"/>
+      <c r="AO20" s="173"/>
+      <c r="AP20" s="173"/>
+      <c r="AQ20" s="173"/>
+      <c r="AR20" s="174"/>
+      <c r="AS20" s="172"/>
+      <c r="AT20" s="173"/>
+      <c r="AU20" s="173"/>
+      <c r="AV20" s="173"/>
+      <c r="AW20" s="174"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="158"/>
-      <c r="AJ21" s="158"/>
-      <c r="AK21" s="158"/>
-      <c r="AL21" s="158"/>
-      <c r="AM21" s="159"/>
-      <c r="AN21" s="143"/>
-      <c r="AO21" s="144"/>
-      <c r="AP21" s="144"/>
-      <c r="AQ21" s="144"/>
-      <c r="AR21" s="145"/>
-      <c r="AS21" s="143"/>
-      <c r="AT21" s="144"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-      <c r="AW21" s="145"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="169"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
+      <c r="Y21" s="170"/>
+      <c r="Z21" s="170"/>
+      <c r="AA21" s="170"/>
+      <c r="AB21" s="170"/>
+      <c r="AC21" s="170"/>
+      <c r="AD21" s="170"/>
+      <c r="AE21" s="170"/>
+      <c r="AF21" s="170"/>
+      <c r="AG21" s="170"/>
+      <c r="AH21" s="170"/>
+      <c r="AI21" s="170"/>
+      <c r="AJ21" s="170"/>
+      <c r="AK21" s="170"/>
+      <c r="AL21" s="170"/>
+      <c r="AM21" s="171"/>
+      <c r="AN21" s="172"/>
+      <c r="AO21" s="173"/>
+      <c r="AP21" s="173"/>
+      <c r="AQ21" s="173"/>
+      <c r="AR21" s="174"/>
+      <c r="AS21" s="172"/>
+      <c r="AT21" s="173"/>
+      <c r="AU21" s="173"/>
+      <c r="AV21" s="173"/>
+      <c r="AW21" s="174"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="158"/>
-      <c r="AJ22" s="158"/>
-      <c r="AK22" s="158"/>
-      <c r="AL22" s="158"/>
-      <c r="AM22" s="159"/>
-      <c r="AN22" s="143"/>
-      <c r="AO22" s="144"/>
-      <c r="AP22" s="144"/>
-      <c r="AQ22" s="144"/>
-      <c r="AR22" s="145"/>
-      <c r="AS22" s="143"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-      <c r="AW22" s="145"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="169"/>
+      <c r="W22" s="170"/>
+      <c r="X22" s="170"/>
+      <c r="Y22" s="170"/>
+      <c r="Z22" s="170"/>
+      <c r="AA22" s="170"/>
+      <c r="AB22" s="170"/>
+      <c r="AC22" s="170"/>
+      <c r="AD22" s="170"/>
+      <c r="AE22" s="170"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="170"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="170"/>
+      <c r="AJ22" s="170"/>
+      <c r="AK22" s="170"/>
+      <c r="AL22" s="170"/>
+      <c r="AM22" s="171"/>
+      <c r="AN22" s="172"/>
+      <c r="AO22" s="173"/>
+      <c r="AP22" s="173"/>
+      <c r="AQ22" s="173"/>
+      <c r="AR22" s="174"/>
+      <c r="AS22" s="172"/>
+      <c r="AT22" s="173"/>
+      <c r="AU22" s="173"/>
+      <c r="AV22" s="173"/>
+      <c r="AW22" s="174"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="158"/>
-      <c r="AJ23" s="158"/>
-      <c r="AK23" s="158"/>
-      <c r="AL23" s="158"/>
-      <c r="AM23" s="159"/>
-      <c r="AN23" s="143"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="145"/>
-      <c r="AS23" s="143"/>
-      <c r="AT23" s="144"/>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="145"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="169"/>
+      <c r="W23" s="170"/>
+      <c r="X23" s="170"/>
+      <c r="Y23" s="170"/>
+      <c r="Z23" s="170"/>
+      <c r="AA23" s="170"/>
+      <c r="AB23" s="170"/>
+      <c r="AC23" s="170"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="170"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="170"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="170"/>
+      <c r="AJ23" s="170"/>
+      <c r="AK23" s="170"/>
+      <c r="AL23" s="170"/>
+      <c r="AM23" s="171"/>
+      <c r="AN23" s="172"/>
+      <c r="AO23" s="173"/>
+      <c r="AP23" s="173"/>
+      <c r="AQ23" s="173"/>
+      <c r="AR23" s="174"/>
+      <c r="AS23" s="172"/>
+      <c r="AT23" s="173"/>
+      <c r="AU23" s="173"/>
+      <c r="AV23" s="173"/>
+      <c r="AW23" s="174"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="157"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="158"/>
-      <c r="AJ24" s="158"/>
-      <c r="AK24" s="158"/>
-      <c r="AL24" s="158"/>
-      <c r="AM24" s="159"/>
-      <c r="AN24" s="143"/>
-      <c r="AO24" s="144"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="145"/>
-      <c r="AS24" s="143"/>
-      <c r="AT24" s="144"/>
-      <c r="AU24" s="144"/>
-      <c r="AV24" s="144"/>
-      <c r="AW24" s="145"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="169"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="170"/>
+      <c r="AC24" s="170"/>
+      <c r="AD24" s="170"/>
+      <c r="AE24" s="170"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
+      <c r="AI24" s="170"/>
+      <c r="AJ24" s="170"/>
+      <c r="AK24" s="170"/>
+      <c r="AL24" s="170"/>
+      <c r="AM24" s="171"/>
+      <c r="AN24" s="172"/>
+      <c r="AO24" s="173"/>
+      <c r="AP24" s="173"/>
+      <c r="AQ24" s="173"/>
+      <c r="AR24" s="174"/>
+      <c r="AS24" s="172"/>
+      <c r="AT24" s="173"/>
+      <c r="AU24" s="173"/>
+      <c r="AV24" s="173"/>
+      <c r="AW24" s="174"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="157"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="158"/>
-      <c r="AK25" s="158"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="143"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="145"/>
-      <c r="AS25" s="143"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="145"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="170"/>
+      <c r="AB25" s="170"/>
+      <c r="AC25" s="170"/>
+      <c r="AD25" s="170"/>
+      <c r="AE25" s="170"/>
+      <c r="AF25" s="170"/>
+      <c r="AG25" s="170"/>
+      <c r="AH25" s="170"/>
+      <c r="AI25" s="170"/>
+      <c r="AJ25" s="170"/>
+      <c r="AK25" s="170"/>
+      <c r="AL25" s="170"/>
+      <c r="AM25" s="171"/>
+      <c r="AN25" s="172"/>
+      <c r="AO25" s="173"/>
+      <c r="AP25" s="173"/>
+      <c r="AQ25" s="173"/>
+      <c r="AR25" s="174"/>
+      <c r="AS25" s="172"/>
+      <c r="AT25" s="173"/>
+      <c r="AU25" s="173"/>
+      <c r="AV25" s="173"/>
+      <c r="AW25" s="174"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="158"/>
-      <c r="AJ26" s="158"/>
-      <c r="AK26" s="158"/>
-      <c r="AL26" s="158"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="144"/>
-      <c r="AQ26" s="144"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="143"/>
-      <c r="AT26" s="144"/>
-      <c r="AU26" s="144"/>
-      <c r="AV26" s="144"/>
-      <c r="AW26" s="145"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="170"/>
+      <c r="AC26" s="170"/>
+      <c r="AD26" s="170"/>
+      <c r="AE26" s="170"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="170"/>
+      <c r="AH26" s="170"/>
+      <c r="AI26" s="170"/>
+      <c r="AJ26" s="170"/>
+      <c r="AK26" s="170"/>
+      <c r="AL26" s="170"/>
+      <c r="AM26" s="171"/>
+      <c r="AN26" s="172"/>
+      <c r="AO26" s="173"/>
+      <c r="AP26" s="173"/>
+      <c r="AQ26" s="173"/>
+      <c r="AR26" s="174"/>
+      <c r="AS26" s="172"/>
+      <c r="AT26" s="173"/>
+      <c r="AU26" s="173"/>
+      <c r="AV26" s="173"/>
+      <c r="AW26" s="174"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="157"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="159"/>
-      <c r="AN27" s="143"/>
-      <c r="AO27" s="144"/>
-      <c r="AP27" s="144"/>
-      <c r="AQ27" s="144"/>
-      <c r="AR27" s="145"/>
-      <c r="AS27" s="143"/>
-      <c r="AT27" s="144"/>
-      <c r="AU27" s="144"/>
-      <c r="AV27" s="144"/>
-      <c r="AW27" s="145"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="169"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="170"/>
+      <c r="AC27" s="170"/>
+      <c r="AD27" s="170"/>
+      <c r="AE27" s="170"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="170"/>
+      <c r="AH27" s="170"/>
+      <c r="AI27" s="170"/>
+      <c r="AJ27" s="170"/>
+      <c r="AK27" s="170"/>
+      <c r="AL27" s="170"/>
+      <c r="AM27" s="171"/>
+      <c r="AN27" s="172"/>
+      <c r="AO27" s="173"/>
+      <c r="AP27" s="173"/>
+      <c r="AQ27" s="173"/>
+      <c r="AR27" s="174"/>
+      <c r="AS27" s="172"/>
+      <c r="AT27" s="173"/>
+      <c r="AU27" s="173"/>
+      <c r="AV27" s="173"/>
+      <c r="AW27" s="174"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="157"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="158"/>
-      <c r="AJ28" s="158"/>
-      <c r="AK28" s="158"/>
-      <c r="AL28" s="158"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
-      <c r="AW28" s="145"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="169"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="170"/>
+      <c r="AC28" s="170"/>
+      <c r="AD28" s="170"/>
+      <c r="AE28" s="170"/>
+      <c r="AF28" s="170"/>
+      <c r="AG28" s="170"/>
+      <c r="AH28" s="170"/>
+      <c r="AI28" s="170"/>
+      <c r="AJ28" s="170"/>
+      <c r="AK28" s="170"/>
+      <c r="AL28" s="170"/>
+      <c r="AM28" s="171"/>
+      <c r="AN28" s="172"/>
+      <c r="AO28" s="173"/>
+      <c r="AP28" s="173"/>
+      <c r="AQ28" s="173"/>
+      <c r="AR28" s="174"/>
+      <c r="AS28" s="172"/>
+      <c r="AT28" s="173"/>
+      <c r="AU28" s="173"/>
+      <c r="AV28" s="173"/>
+      <c r="AW28" s="174"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="157"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="158"/>
-      <c r="AJ29" s="158"/>
-      <c r="AK29" s="158"/>
-      <c r="AL29" s="158"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="143"/>
-      <c r="AO29" s="144"/>
-      <c r="AP29" s="144"/>
-      <c r="AQ29" s="144"/>
-      <c r="AR29" s="145"/>
-      <c r="AS29" s="143"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="144"/>
-      <c r="AV29" s="144"/>
-      <c r="AW29" s="145"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="169"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="170"/>
+      <c r="AC29" s="170"/>
+      <c r="AD29" s="170"/>
+      <c r="AE29" s="170"/>
+      <c r="AF29" s="170"/>
+      <c r="AG29" s="170"/>
+      <c r="AH29" s="170"/>
+      <c r="AI29" s="170"/>
+      <c r="AJ29" s="170"/>
+      <c r="AK29" s="170"/>
+      <c r="AL29" s="170"/>
+      <c r="AM29" s="171"/>
+      <c r="AN29" s="172"/>
+      <c r="AO29" s="173"/>
+      <c r="AP29" s="173"/>
+      <c r="AQ29" s="173"/>
+      <c r="AR29" s="174"/>
+      <c r="AS29" s="172"/>
+      <c r="AT29" s="173"/>
+      <c r="AU29" s="173"/>
+      <c r="AV29" s="173"/>
+      <c r="AW29" s="174"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="158"/>
-      <c r="AJ30" s="158"/>
-      <c r="AK30" s="158"/>
-      <c r="AL30" s="158"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="143"/>
-      <c r="AO30" s="144"/>
-      <c r="AP30" s="144"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="145"/>
-      <c r="AS30" s="143"/>
-      <c r="AT30" s="144"/>
-      <c r="AU30" s="144"/>
-      <c r="AV30" s="144"/>
-      <c r="AW30" s="145"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="169"/>
+      <c r="W30" s="170"/>
+      <c r="X30" s="170"/>
+      <c r="Y30" s="170"/>
+      <c r="Z30" s="170"/>
+      <c r="AA30" s="170"/>
+      <c r="AB30" s="170"/>
+      <c r="AC30" s="170"/>
+      <c r="AD30" s="170"/>
+      <c r="AE30" s="170"/>
+      <c r="AF30" s="170"/>
+      <c r="AG30" s="170"/>
+      <c r="AH30" s="170"/>
+      <c r="AI30" s="170"/>
+      <c r="AJ30" s="170"/>
+      <c r="AK30" s="170"/>
+      <c r="AL30" s="170"/>
+      <c r="AM30" s="171"/>
+      <c r="AN30" s="172"/>
+      <c r="AO30" s="173"/>
+      <c r="AP30" s="173"/>
+      <c r="AQ30" s="173"/>
+      <c r="AR30" s="174"/>
+      <c r="AS30" s="172"/>
+      <c r="AT30" s="173"/>
+      <c r="AU30" s="173"/>
+      <c r="AV30" s="173"/>
+      <c r="AW30" s="174"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="158"/>
-      <c r="AJ31" s="158"/>
-      <c r="AK31" s="158"/>
-      <c r="AL31" s="158"/>
-      <c r="AM31" s="159"/>
-      <c r="AN31" s="143"/>
-      <c r="AO31" s="144"/>
-      <c r="AP31" s="144"/>
-      <c r="AQ31" s="144"/>
-      <c r="AR31" s="145"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="144"/>
-      <c r="AU31" s="144"/>
-      <c r="AV31" s="144"/>
-      <c r="AW31" s="145"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="170"/>
+      <c r="AC31" s="170"/>
+      <c r="AD31" s="170"/>
+      <c r="AE31" s="170"/>
+      <c r="AF31" s="170"/>
+      <c r="AG31" s="170"/>
+      <c r="AH31" s="170"/>
+      <c r="AI31" s="170"/>
+      <c r="AJ31" s="170"/>
+      <c r="AK31" s="170"/>
+      <c r="AL31" s="170"/>
+      <c r="AM31" s="171"/>
+      <c r="AN31" s="172"/>
+      <c r="AO31" s="173"/>
+      <c r="AP31" s="173"/>
+      <c r="AQ31" s="173"/>
+      <c r="AR31" s="174"/>
+      <c r="AS31" s="172"/>
+      <c r="AT31" s="173"/>
+      <c r="AU31" s="173"/>
+      <c r="AV31" s="173"/>
+      <c r="AW31" s="174"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="158"/>
-      <c r="AJ32" s="158"/>
-      <c r="AK32" s="158"/>
-      <c r="AL32" s="158"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="143"/>
-      <c r="AO32" s="144"/>
-      <c r="AP32" s="144"/>
-      <c r="AQ32" s="144"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="143"/>
-      <c r="AT32" s="144"/>
-      <c r="AU32" s="144"/>
-      <c r="AV32" s="144"/>
-      <c r="AW32" s="145"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="153"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="170"/>
+      <c r="Y32" s="170"/>
+      <c r="Z32" s="170"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="170"/>
+      <c r="AC32" s="170"/>
+      <c r="AD32" s="170"/>
+      <c r="AE32" s="170"/>
+      <c r="AF32" s="170"/>
+      <c r="AG32" s="170"/>
+      <c r="AH32" s="170"/>
+      <c r="AI32" s="170"/>
+      <c r="AJ32" s="170"/>
+      <c r="AK32" s="170"/>
+      <c r="AL32" s="170"/>
+      <c r="AM32" s="171"/>
+      <c r="AN32" s="172"/>
+      <c r="AO32" s="173"/>
+      <c r="AP32" s="173"/>
+      <c r="AQ32" s="173"/>
+      <c r="AR32" s="174"/>
+      <c r="AS32" s="172"/>
+      <c r="AT32" s="173"/>
+      <c r="AU32" s="173"/>
+      <c r="AV32" s="173"/>
+      <c r="AW32" s="174"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="158"/>
-      <c r="AJ33" s="158"/>
-      <c r="AK33" s="158"/>
-      <c r="AL33" s="158"/>
-      <c r="AM33" s="159"/>
-      <c r="AN33" s="143"/>
-      <c r="AO33" s="144"/>
-      <c r="AP33" s="144"/>
-      <c r="AQ33" s="144"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="143"/>
-      <c r="AT33" s="144"/>
-      <c r="AU33" s="144"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="145"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="168"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="169"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="170"/>
+      <c r="AC33" s="170"/>
+      <c r="AD33" s="170"/>
+      <c r="AE33" s="170"/>
+      <c r="AF33" s="170"/>
+      <c r="AG33" s="170"/>
+      <c r="AH33" s="170"/>
+      <c r="AI33" s="170"/>
+      <c r="AJ33" s="170"/>
+      <c r="AK33" s="170"/>
+      <c r="AL33" s="170"/>
+      <c r="AM33" s="171"/>
+      <c r="AN33" s="172"/>
+      <c r="AO33" s="173"/>
+      <c r="AP33" s="173"/>
+      <c r="AQ33" s="173"/>
+      <c r="AR33" s="174"/>
+      <c r="AS33" s="172"/>
+      <c r="AT33" s="173"/>
+      <c r="AU33" s="173"/>
+      <c r="AV33" s="173"/>
+      <c r="AW33" s="174"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="158"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="158"/>
-      <c r="Z34" s="158"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
-      <c r="AF34" s="158"/>
-      <c r="AG34" s="158"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="158"/>
-      <c r="AK34" s="158"/>
-      <c r="AL34" s="158"/>
-      <c r="AM34" s="159"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="144"/>
-      <c r="AP34" s="144"/>
-      <c r="AQ34" s="144"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="144"/>
-      <c r="AU34" s="144"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="145"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="182"/>
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="169"/>
+      <c r="W34" s="170"/>
+      <c r="X34" s="170"/>
+      <c r="Y34" s="170"/>
+      <c r="Z34" s="170"/>
+      <c r="AA34" s="170"/>
+      <c r="AB34" s="170"/>
+      <c r="AC34" s="170"/>
+      <c r="AD34" s="170"/>
+      <c r="AE34" s="170"/>
+      <c r="AF34" s="170"/>
+      <c r="AG34" s="170"/>
+      <c r="AH34" s="170"/>
+      <c r="AI34" s="170"/>
+      <c r="AJ34" s="170"/>
+      <c r="AK34" s="170"/>
+      <c r="AL34" s="170"/>
+      <c r="AM34" s="171"/>
+      <c r="AN34" s="172"/>
+      <c r="AO34" s="173"/>
+      <c r="AP34" s="173"/>
+      <c r="AQ34" s="173"/>
+      <c r="AR34" s="174"/>
+      <c r="AS34" s="172"/>
+      <c r="AT34" s="173"/>
+      <c r="AU34" s="173"/>
+      <c r="AV34" s="173"/>
+      <c r="AW34" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7968,230 +8171,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8323,14 +8311,14 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="87" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S2" s="88"/>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
       <c r="V2" s="89"/>
       <c r="W2" s="35" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
@@ -8351,11 +8339,11 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="33"/>
       <c r="AN2" s="34"/>
-      <c r="AO2" s="183"/>
-      <c r="AP2" s="184"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="184"/>
-      <c r="AS2" s="185"/>
+      <c r="AO2" s="188"/>
+      <c r="AP2" s="189"/>
+      <c r="AQ2" s="189"/>
+      <c r="AR2" s="189"/>
+      <c r="AS2" s="190"/>
       <c r="AT2" s="32" t="s">
         <v>26</v>
       </c>
@@ -8364,14 +8352,14 @@
       <c r="AW2" s="33"/>
       <c r="AX2" s="33"/>
       <c r="AY2" s="34"/>
-      <c r="AZ2" s="186"/>
-      <c r="BA2" s="187"/>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="187"/>
-      <c r="BF2" s="187"/>
-      <c r="BG2" s="188"/>
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="192"/>
+      <c r="BB2" s="192"/>
+      <c r="BC2" s="192"/>
+      <c r="BD2" s="192"/>
+      <c r="BE2" s="192"/>
+      <c r="BF2" s="192"/>
+      <c r="BG2" s="193"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
@@ -9771,7 +9759,7 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -9957,10 +9945,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="27"/>
-      <c r="B45" s="191" t="s">
+      <c r="B45" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="192"/>
+      <c r="C45" s="195"/>
       <c r="D45" s="81" t="s">
         <v>78</v>
       </c>
@@ -10043,10 +10031,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
-      <c r="B46" s="193">
+      <c r="B46" s="184">
         <v>1</v>
       </c>
-      <c r="C46" s="194"/>
+      <c r="C46" s="185"/>
       <c r="D46" s="75" t="s">
         <v>96</v>
       </c>
@@ -10078,16 +10066,16 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="189" t="s">
+      <c r="AE46" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF46" s="190"/>
-      <c r="AG46" s="189"/>
-      <c r="AH46" s="190"/>
+      <c r="AF46" s="187"/>
+      <c r="AG46" s="186"/>
+      <c r="AH46" s="187"/>
       <c r="AI46" s="122"/>
       <c r="AJ46" s="123"/>
-      <c r="AK46" s="189"/>
-      <c r="AL46" s="190"/>
+      <c r="AK46" s="186"/>
+      <c r="AL46" s="187"/>
       <c r="AM46" s="76" t="s">
         <v>223</v>
       </c>
@@ -10121,10 +10109,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="27"/>
-      <c r="B47" s="193">
+      <c r="B47" s="184">
         <v>2</v>
       </c>
-      <c r="C47" s="194"/>
+      <c r="C47" s="185"/>
       <c r="D47" s="110" t="s">
         <v>96</v>
       </c>
@@ -10156,16 +10144,16 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="111"/>
-      <c r="AE47" s="189" t="s">
+      <c r="AE47" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF47" s="190"/>
-      <c r="AG47" s="189"/>
-      <c r="AH47" s="190"/>
+      <c r="AF47" s="187"/>
+      <c r="AG47" s="186"/>
+      <c r="AH47" s="187"/>
       <c r="AI47" s="122"/>
       <c r="AJ47" s="123"/>
-      <c r="AK47" s="189"/>
-      <c r="AL47" s="190"/>
+      <c r="AK47" s="186"/>
+      <c r="AL47" s="187"/>
       <c r="AM47" s="76" t="s">
         <v>226</v>
       </c>
@@ -10199,10 +10187,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="27"/>
-      <c r="B48" s="193">
+      <c r="B48" s="184">
         <v>3</v>
       </c>
-      <c r="C48" s="194"/>
+      <c r="C48" s="185"/>
       <c r="D48" s="119" t="s">
         <v>96</v>
       </c>
@@ -10234,16 +10222,16 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="120"/>
-      <c r="AE48" s="189" t="s">
+      <c r="AE48" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF48" s="190"/>
-      <c r="AG48" s="189"/>
-      <c r="AH48" s="190"/>
+      <c r="AF48" s="187"/>
+      <c r="AG48" s="186"/>
+      <c r="AH48" s="187"/>
       <c r="AI48" s="122"/>
       <c r="AJ48" s="123"/>
-      <c r="AK48" s="189"/>
-      <c r="AL48" s="190"/>
+      <c r="AK48" s="186"/>
+      <c r="AL48" s="187"/>
       <c r="AM48" s="76" t="s">
         <v>222</v>
       </c>
@@ -10277,10 +10265,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="27"/>
-      <c r="B49" s="193">
+      <c r="B49" s="184">
         <v>4</v>
       </c>
-      <c r="C49" s="194"/>
+      <c r="C49" s="185"/>
       <c r="D49" s="119" t="s">
         <v>96</v>
       </c>
@@ -10312,16 +10300,16 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="120"/>
-      <c r="AE49" s="189" t="s">
+      <c r="AE49" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF49" s="190"/>
-      <c r="AG49" s="189"/>
-      <c r="AH49" s="190"/>
+      <c r="AF49" s="187"/>
+      <c r="AG49" s="186"/>
+      <c r="AH49" s="187"/>
       <c r="AI49" s="122"/>
       <c r="AJ49" s="123"/>
-      <c r="AK49" s="189"/>
-      <c r="AL49" s="190"/>
+      <c r="AK49" s="186"/>
+      <c r="AL49" s="187"/>
       <c r="AM49" s="76" t="s">
         <v>224</v>
       </c>
@@ -10355,10 +10343,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="27"/>
-      <c r="B50" s="193">
+      <c r="B50" s="184">
         <v>5</v>
       </c>
-      <c r="C50" s="194"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="119" t="s">
         <v>96</v>
       </c>
@@ -10390,16 +10378,16 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="120"/>
-      <c r="AE50" s="189" t="s">
+      <c r="AE50" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF50" s="190"/>
-      <c r="AG50" s="189"/>
-      <c r="AH50" s="190"/>
+      <c r="AF50" s="187"/>
+      <c r="AG50" s="186"/>
+      <c r="AH50" s="187"/>
       <c r="AI50" s="122"/>
       <c r="AJ50" s="123"/>
-      <c r="AK50" s="189"/>
-      <c r="AL50" s="190"/>
+      <c r="AK50" s="186"/>
+      <c r="AL50" s="187"/>
       <c r="AM50" s="76" t="s">
         <v>225</v>
       </c>
@@ -10433,10 +10421,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="193">
+      <c r="B51" s="184">
         <v>6</v>
       </c>
-      <c r="C51" s="194"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="119" t="s">
         <v>195</v>
       </c>
@@ -10468,16 +10456,16 @@
       <c r="AB51" s="79"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="120"/>
-      <c r="AE51" s="189" t="s">
+      <c r="AE51" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF51" s="190"/>
-      <c r="AG51" s="189"/>
-      <c r="AH51" s="190"/>
+      <c r="AF51" s="187"/>
+      <c r="AG51" s="186"/>
+      <c r="AH51" s="187"/>
       <c r="AI51" s="122"/>
       <c r="AJ51" s="123"/>
-      <c r="AK51" s="189"/>
-      <c r="AL51" s="190"/>
+      <c r="AK51" s="186"/>
+      <c r="AL51" s="187"/>
       <c r="AM51" s="76" t="s">
         <v>228</v>
       </c>
@@ -10511,10 +10499,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
-      <c r="B52" s="193">
+      <c r="B52" s="184">
         <v>7</v>
       </c>
-      <c r="C52" s="194"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="119" t="s">
         <v>195</v>
       </c>
@@ -10546,16 +10534,16 @@
       <c r="AB52" s="79"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="111"/>
-      <c r="AE52" s="189" t="s">
+      <c r="AE52" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF52" s="190"/>
-      <c r="AG52" s="189"/>
-      <c r="AH52" s="190"/>
+      <c r="AF52" s="187"/>
+      <c r="AG52" s="186"/>
+      <c r="AH52" s="187"/>
       <c r="AI52" s="122"/>
       <c r="AJ52" s="123"/>
-      <c r="AK52" s="189"/>
-      <c r="AL52" s="190"/>
+      <c r="AK52" s="186"/>
+      <c r="AL52" s="187"/>
       <c r="AM52" s="76" t="s">
         <v>228</v>
       </c>
@@ -10589,10 +10577,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="27"/>
-      <c r="B53" s="193">
+      <c r="B53" s="184">
         <v>8</v>
       </c>
-      <c r="C53" s="194"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="119" t="s">
         <v>195</v>
       </c>
@@ -10624,16 +10612,16 @@
       <c r="AB53" s="79"/>
       <c r="AC53" s="79"/>
       <c r="AD53" s="120"/>
-      <c r="AE53" s="189" t="s">
+      <c r="AE53" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF53" s="190"/>
-      <c r="AG53" s="189"/>
-      <c r="AH53" s="190"/>
+      <c r="AF53" s="187"/>
+      <c r="AG53" s="186"/>
+      <c r="AH53" s="187"/>
       <c r="AI53" s="122"/>
       <c r="AJ53" s="123"/>
-      <c r="AK53" s="189"/>
-      <c r="AL53" s="190"/>
+      <c r="AK53" s="186"/>
+      <c r="AL53" s="187"/>
       <c r="AM53" s="76" t="s">
         <v>228</v>
       </c>
@@ -10667,10 +10655,10 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="27"/>
-      <c r="B54" s="193">
+      <c r="B54" s="184">
         <v>9</v>
       </c>
-      <c r="C54" s="194"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="119" t="s">
         <v>195</v>
       </c>
@@ -10702,16 +10690,16 @@
       <c r="AB54" s="79"/>
       <c r="AC54" s="79"/>
       <c r="AD54" s="120"/>
-      <c r="AE54" s="189" t="s">
+      <c r="AE54" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="AF54" s="190"/>
-      <c r="AG54" s="189"/>
-      <c r="AH54" s="190"/>
+      <c r="AF54" s="187"/>
+      <c r="AG54" s="186"/>
+      <c r="AH54" s="187"/>
       <c r="AI54" s="122"/>
       <c r="AJ54" s="123"/>
-      <c r="AK54" s="189"/>
-      <c r="AL54" s="190"/>
+      <c r="AK54" s="186"/>
+      <c r="AL54" s="187"/>
       <c r="AM54" s="76" t="s">
         <v>227</v>
       </c>
@@ -10745,22 +10733,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AG47:AH47"/>
@@ -10777,13 +10756,22 @@
     <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
     <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AK49:AL49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10907,20 +10895,20 @@
       <c r="CA1" s="33"/>
       <c r="CB1" s="33"/>
       <c r="CC1" s="34"/>
-      <c r="CD1" s="197">
+      <c r="CD1" s="198">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="CE1" s="198"/>
-      <c r="CF1" s="198"/>
-      <c r="CG1" s="198"/>
-      <c r="CH1" s="198"/>
-      <c r="CI1" s="198"/>
-      <c r="CJ1" s="198"/>
-      <c r="CK1" s="198"/>
-      <c r="CL1" s="198"/>
-      <c r="CM1" s="198"/>
-      <c r="CN1" s="199"/>
+      <c r="CE1" s="199"/>
+      <c r="CF1" s="199"/>
+      <c r="CG1" s="199"/>
+      <c r="CH1" s="199"/>
+      <c r="CI1" s="199"/>
+      <c r="CJ1" s="199"/>
+      <c r="CK1" s="199"/>
+      <c r="CL1" s="199"/>
+      <c r="CM1" s="199"/>
+      <c r="CN1" s="200"/>
       <c r="CO1" s="32" t="s">
         <v>25</v>
       </c>
@@ -10929,23 +10917,23 @@
       <c r="CR1" s="33"/>
       <c r="CS1" s="33"/>
       <c r="CT1" s="34"/>
-      <c r="CU1" s="186" t="str">
+      <c r="CU1" s="191" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="CV1" s="195"/>
-      <c r="CW1" s="195"/>
-      <c r="CX1" s="195"/>
-      <c r="CY1" s="195"/>
-      <c r="CZ1" s="195"/>
-      <c r="DA1" s="195"/>
-      <c r="DB1" s="195"/>
-      <c r="DC1" s="195"/>
-      <c r="DD1" s="195"/>
-      <c r="DE1" s="195"/>
-      <c r="DF1" s="195"/>
-      <c r="DG1" s="195"/>
-      <c r="DH1" s="196"/>
+      <c r="CV1" s="196"/>
+      <c r="CW1" s="196"/>
+      <c r="CX1" s="196"/>
+      <c r="CY1" s="196"/>
+      <c r="CZ1" s="196"/>
+      <c r="DA1" s="196"/>
+      <c r="DB1" s="196"/>
+      <c r="DC1" s="196"/>
+      <c r="DD1" s="196"/>
+      <c r="DE1" s="196"/>
+      <c r="DF1" s="196"/>
+      <c r="DG1" s="196"/>
+      <c r="DH1" s="197"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -11000,39 +10988,39 @@
       <c r="AQ2" s="88"/>
       <c r="AR2" s="88"/>
       <c r="AS2" s="89"/>
-      <c r="AT2" s="201" t="str">
+      <c r="AT2" s="202" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="AU2" s="202"/>
-      <c r="AV2" s="202"/>
-      <c r="AW2" s="202"/>
-      <c r="AX2" s="202"/>
-      <c r="AY2" s="202"/>
-      <c r="AZ2" s="202"/>
-      <c r="BA2" s="202"/>
-      <c r="BB2" s="202"/>
-      <c r="BC2" s="202"/>
-      <c r="BD2" s="202"/>
-      <c r="BE2" s="202"/>
-      <c r="BF2" s="202"/>
-      <c r="BG2" s="202"/>
-      <c r="BH2" s="202"/>
-      <c r="BI2" s="202"/>
-      <c r="BJ2" s="202"/>
-      <c r="BK2" s="202"/>
-      <c r="BL2" s="202"/>
-      <c r="BM2" s="202"/>
-      <c r="BN2" s="202"/>
-      <c r="BO2" s="202"/>
-      <c r="BP2" s="202"/>
-      <c r="BQ2" s="202"/>
-      <c r="BR2" s="202"/>
-      <c r="BS2" s="202"/>
-      <c r="BT2" s="202"/>
-      <c r="BU2" s="202"/>
-      <c r="BV2" s="202"/>
-      <c r="BW2" s="203"/>
+      <c r="AU2" s="203"/>
+      <c r="AV2" s="203"/>
+      <c r="AW2" s="203"/>
+      <c r="AX2" s="203"/>
+      <c r="AY2" s="203"/>
+      <c r="AZ2" s="203"/>
+      <c r="BA2" s="203"/>
+      <c r="BB2" s="203"/>
+      <c r="BC2" s="203"/>
+      <c r="BD2" s="203"/>
+      <c r="BE2" s="203"/>
+      <c r="BF2" s="203"/>
+      <c r="BG2" s="203"/>
+      <c r="BH2" s="203"/>
+      <c r="BI2" s="203"/>
+      <c r="BJ2" s="203"/>
+      <c r="BK2" s="203"/>
+      <c r="BL2" s="203"/>
+      <c r="BM2" s="203"/>
+      <c r="BN2" s="203"/>
+      <c r="BO2" s="203"/>
+      <c r="BP2" s="203"/>
+      <c r="BQ2" s="203"/>
+      <c r="BR2" s="203"/>
+      <c r="BS2" s="203"/>
+      <c r="BT2" s="203"/>
+      <c r="BU2" s="203"/>
+      <c r="BV2" s="203"/>
+      <c r="BW2" s="204"/>
       <c r="BX2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11041,17 +11029,17 @@
       <c r="CA2" s="33"/>
       <c r="CB2" s="33"/>
       <c r="CC2" s="34"/>
-      <c r="CD2" s="200"/>
-      <c r="CE2" s="195"/>
-      <c r="CF2" s="195"/>
-      <c r="CG2" s="195"/>
-      <c r="CH2" s="195"/>
-      <c r="CI2" s="195"/>
-      <c r="CJ2" s="195"/>
-      <c r="CK2" s="195"/>
-      <c r="CL2" s="195"/>
-      <c r="CM2" s="195"/>
-      <c r="CN2" s="196"/>
+      <c r="CD2" s="201"/>
+      <c r="CE2" s="196"/>
+      <c r="CF2" s="196"/>
+      <c r="CG2" s="196"/>
+      <c r="CH2" s="196"/>
+      <c r="CI2" s="196"/>
+      <c r="CJ2" s="196"/>
+      <c r="CK2" s="196"/>
+      <c r="CL2" s="196"/>
+      <c r="CM2" s="196"/>
+      <c r="CN2" s="197"/>
       <c r="CO2" s="32" t="s">
         <v>26</v>
       </c>
@@ -11060,20 +11048,20 @@
       <c r="CR2" s="33"/>
       <c r="CS2" s="33"/>
       <c r="CT2" s="34"/>
-      <c r="CU2" s="186"/>
-      <c r="CV2" s="195"/>
-      <c r="CW2" s="195"/>
-      <c r="CX2" s="195"/>
-      <c r="CY2" s="195"/>
-      <c r="CZ2" s="195"/>
-      <c r="DA2" s="195"/>
-      <c r="DB2" s="195"/>
-      <c r="DC2" s="195"/>
-      <c r="DD2" s="195"/>
-      <c r="DE2" s="195"/>
-      <c r="DF2" s="195"/>
-      <c r="DG2" s="195"/>
-      <c r="DH2" s="196"/>
+      <c r="CU2" s="191"/>
+      <c r="CV2" s="196"/>
+      <c r="CW2" s="196"/>
+      <c r="CX2" s="196"/>
+      <c r="CY2" s="196"/>
+      <c r="CZ2" s="196"/>
+      <c r="DA2" s="196"/>
+      <c r="DB2" s="196"/>
+      <c r="DC2" s="196"/>
+      <c r="DD2" s="196"/>
+      <c r="DE2" s="196"/>
+      <c r="DF2" s="196"/>
+      <c r="DG2" s="196"/>
+      <c r="DH2" s="197"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11279,37 +11267,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="176" t="s">
+      <c r="H6" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="176" t="s">
+      <c r="K6" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="176" t="s">
+      <c r="L6" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="176" t="s">
+      <c r="M6" s="146" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="63" t="s">
@@ -11317,24 +11305,24 @@
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="204" t="s">
+      <c r="Q6" s="205" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
       <c r="N7" s="41" t="s">
         <v>60</v>
       </c>
@@ -11344,7 +11332,7 @@
       <c r="P7" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="204"/>
+      <c r="Q7" s="205"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -11506,37 +11494,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="176" t="s">
+      <c r="E13" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="176" t="s">
+      <c r="F13" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="176" t="s">
+      <c r="H13" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="205" t="s">
+      <c r="I13" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="204" t="s">
+      <c r="J13" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="176" t="s">
+      <c r="K13" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="176" t="s">
+      <c r="L13" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="176" t="s">
+      <c r="M13" s="146" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="63" t="s">
@@ -11544,24 +11532,24 @@
       </c>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="205" t="s">
+      <c r="Q13" s="206" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
       <c r="N14" s="41" t="s">
         <v>60</v>
       </c>
@@ -11571,7 +11559,7 @@
       <c r="P14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="206"/>
+      <c r="Q14" s="207"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
@@ -11610,7 +11598,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -11717,7 +11705,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="125" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -11815,7 +11803,7 @@
         <v>265</v>
       </c>
       <c r="Q19" s="130" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -11864,7 +11852,7 @@
         <v>169</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -11880,7 +11868,7 @@
         <v>132</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>89</v>
@@ -12008,7 +11996,7 @@
         <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -12036,43 +12024,43 @@
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="30" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="176" t="s">
+      <c r="E26" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="176" t="s">
+      <c r="G26" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="176" t="s">
+      <c r="H26" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="204" t="s">
+      <c r="I26" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="204" t="s">
+      <c r="J26" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="176" t="s">
+      <c r="K26" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="176" t="s">
+      <c r="L26" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="176" t="s">
+      <c r="M26" s="146" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="63" t="s">
@@ -12080,24 +12068,24 @@
       </c>
       <c r="O26" s="63"/>
       <c r="P26" s="63"/>
-      <c r="Q26" s="204" t="s">
+      <c r="Q26" s="205" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
       <c r="N27" s="86" t="s">
         <v>60</v>
       </c>
@@ -12107,7 +12095,7 @@
       <c r="P27" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="204"/>
+      <c r="Q27" s="205"/>
     </row>
     <row r="28" spans="1:17" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -12320,7 +12308,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="129" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>35</v>
@@ -12715,7 +12703,7 @@
         <v>275</v>
       </c>
       <c r="Q40" s="139" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12764,7 +12752,7 @@
         <v>276</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12813,47 +12801,47 @@
         <v>277</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="127" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="128"/>
-      <c r="C45" s="176" t="s">
+      <c r="C45" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="176" t="s">
+      <c r="E45" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="176" t="s">
+      <c r="F45" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="176" t="s">
+      <c r="G45" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="176" t="s">
+      <c r="H45" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="I45" s="204" t="s">
+      <c r="I45" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="204" t="s">
+      <c r="J45" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="K45" s="176" t="s">
+      <c r="K45" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="176" t="s">
+      <c r="L45" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="176" t="s">
+      <c r="M45" s="146" t="s">
         <v>33</v>
       </c>
       <c r="N45" s="63" t="s">
@@ -12861,23 +12849,23 @@
       </c>
       <c r="O45" s="63"/>
       <c r="P45" s="63"/>
-      <c r="Q45" s="204" t="s">
+      <c r="Q45" s="205" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B46" s="128"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="176"/>
-      <c r="M46" s="176"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="205"/>
+      <c r="J46" s="205"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
       <c r="N46" s="126" t="s">
         <v>60</v>
       </c>
@@ -12887,7 +12875,7 @@
       <c r="P46" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="Q46" s="204"/>
+      <c r="Q46" s="205"/>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
@@ -12896,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>135</v>
@@ -12945,7 +12933,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>137</v>
@@ -12994,7 +12982,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>95</v>
@@ -13018,13 +13006,13 @@
         <v>35</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>35</v>
@@ -13043,7 +13031,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>142</v>
@@ -13073,7 +13061,7 @@
         <v>35</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O50" s="7" t="s">
         <v>35</v>
@@ -13092,7 +13080,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>143</v>
@@ -13122,7 +13110,7 @@
         <v>35</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>35</v>
@@ -13141,7 +13129,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>144</v>
@@ -13171,7 +13159,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>35</v>
@@ -13190,7 +13178,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>145</v>
@@ -13220,7 +13208,7 @@
         <v>35</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>35</v>
@@ -13239,7 +13227,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>146</v>
@@ -13269,7 +13257,7 @@
         <v>35</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
@@ -13288,7 +13276,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>147</v>
@@ -13318,7 +13306,7 @@
         <v>35</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
@@ -13337,7 +13325,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>148</v>
@@ -13376,7 +13364,7 @@
         <v>35</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13386,7 +13374,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>149</v>
@@ -13425,36 +13413,48 @@
         <v>35</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C58" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -13467,30 +13467,18 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13506,7 +13494,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ176"/>
+  <dimension ref="A1:AZ172"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -13566,14 +13554,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="188">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="203"/>
+      <c r="AK1" s="203"/>
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="204"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -13582,16 +13570,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="191" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="196"/>
+      <c r="AV1" s="196"/>
+      <c r="AW1" s="196"/>
+      <c r="AX1" s="196"/>
+      <c r="AY1" s="196"/>
+      <c r="AZ1" s="197"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -13619,32 +13607,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="202" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="204"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="197"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -13653,13 +13641,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="197"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -14003,7 +13991,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="67"/>
       <c r="L11" s="133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M11" s="136"/>
       <c r="N11" s="136"/>
@@ -14091,7 +14079,7 @@
       <c r="L13" s="137"/>
       <c r="M13" s="133"/>
       <c r="N13" s="132" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
@@ -14132,7 +14120,7 @@
       <c r="L14" s="137"/>
       <c r="M14" s="133"/>
       <c r="N14" s="132" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
@@ -14253,7 +14241,7 @@
       <c r="L17" s="137"/>
       <c r="M17" s="133"/>
       <c r="N17" s="132" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
@@ -14336,7 +14324,7 @@
       <c r="M19" s="133"/>
       <c r="N19" s="132"/>
       <c r="O19" s="132" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P19" s="132"/>
       <c r="Q19" s="132"/>
@@ -14351,7 +14339,7 @@
         <v>115</v>
       </c>
       <c r="Z19" s="132" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AA19" s="132"/>
       <c r="AB19" s="132"/>
@@ -14380,7 +14368,7 @@
       <c r="L20" s="137"/>
       <c r="M20" s="133"/>
       <c r="N20" s="132" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
@@ -14422,7 +14410,7 @@
       <c r="M21" s="133"/>
       <c r="N21" s="132"/>
       <c r="O21" s="132" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P21" s="132"/>
       <c r="Q21" s="132"/>
@@ -14437,7 +14425,7 @@
         <v>115</v>
       </c>
       <c r="Z21" s="132" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA21" s="132"/>
       <c r="AB21" s="132"/>
@@ -14467,7 +14455,7 @@
       <c r="M22" s="133"/>
       <c r="N22" s="132"/>
       <c r="O22" s="132" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P22" s="132"/>
       <c r="Q22" s="132"/>
@@ -14482,7 +14470,7 @@
         <v>115</v>
       </c>
       <c r="Z22" s="132" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AA22" s="132"/>
       <c r="AB22" s="132"/>
@@ -14512,7 +14500,7 @@
       <c r="M23" s="133"/>
       <c r="N23" s="132"/>
       <c r="O23" s="132" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P23" s="132"/>
       <c r="Q23" s="132"/>
@@ -14527,7 +14515,7 @@
         <v>115</v>
       </c>
       <c r="Z23" s="132" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AA23" s="132"/>
       <c r="AB23" s="132"/>
@@ -14557,7 +14545,7 @@
       <c r="M24" s="133"/>
       <c r="N24" s="132"/>
       <c r="O24" s="132" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P24" s="132"/>
       <c r="Q24" s="132"/>
@@ -14572,7 +14560,7 @@
         <v>115</v>
       </c>
       <c r="Z24" s="132" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA24" s="132"/>
       <c r="AB24" s="132"/>
@@ -14602,7 +14590,7 @@
       <c r="M25" s="133"/>
       <c r="N25" s="132"/>
       <c r="O25" s="132" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P25" s="132"/>
       <c r="Q25" s="132"/>
@@ -14617,7 +14605,7 @@
         <v>115</v>
       </c>
       <c r="Z25" s="132" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AA25" s="132"/>
       <c r="AB25" s="132"/>
@@ -14687,7 +14675,7 @@
       <c r="L27" s="137"/>
       <c r="M27" s="133"/>
       <c r="N27" s="132" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O27" s="132"/>
       <c r="P27" s="132"/>
@@ -14703,7 +14691,7 @@
         <v>115</v>
       </c>
       <c r="Z27" s="132" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA27" s="132"/>
       <c r="AB27" s="132"/>
@@ -14732,7 +14720,7 @@
       <c r="L28" s="137"/>
       <c r="M28" s="133"/>
       <c r="N28" s="132" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O28" s="132"/>
       <c r="P28" s="132"/>
@@ -14748,7 +14736,7 @@
         <v>115</v>
       </c>
       <c r="Z28" s="131" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AA28" s="132"/>
       <c r="AB28" s="132"/>
@@ -14830,7 +14818,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="67"/>
       <c r="L30" s="133" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M30" s="136"/>
       <c r="N30" s="136"/>
@@ -14918,7 +14906,7 @@
       <c r="L32" s="137"/>
       <c r="M32" s="133"/>
       <c r="N32" s="132" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
@@ -14959,7 +14947,7 @@
       <c r="L33" s="137"/>
       <c r="M33" s="133"/>
       <c r="N33" s="132" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
@@ -15080,7 +15068,7 @@
       <c r="L36" s="137"/>
       <c r="M36" s="133"/>
       <c r="N36" s="132" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
@@ -15121,7 +15109,7 @@
       <c r="L37" s="137"/>
       <c r="M37" s="133"/>
       <c r="N37" s="132" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
@@ -15163,7 +15151,7 @@
       <c r="M38" s="133"/>
       <c r="N38" s="132"/>
       <c r="O38" s="132" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
@@ -15208,7 +15196,7 @@
       <c r="M39" s="133"/>
       <c r="N39" s="132"/>
       <c r="O39" s="132" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P39" s="132"/>
       <c r="Q39" s="132"/>
@@ -15253,7 +15241,7 @@
       <c r="M40" s="133"/>
       <c r="N40" s="132"/>
       <c r="O40" s="132" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
@@ -15298,7 +15286,7 @@
       <c r="M41" s="133"/>
       <c r="N41" s="132"/>
       <c r="O41" s="132" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P41" s="132"/>
       <c r="Q41" s="132"/>
@@ -15343,7 +15331,7 @@
       <c r="M42" s="133"/>
       <c r="N42" s="132"/>
       <c r="O42" s="132" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P42" s="132"/>
       <c r="Q42" s="132"/>
@@ -15428,7 +15416,7 @@
       <c r="L44" s="137"/>
       <c r="M44" s="133"/>
       <c r="N44" s="132" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
@@ -15444,7 +15432,7 @@
         <v>115</v>
       </c>
       <c r="Z44" s="132" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA44" s="132"/>
       <c r="AB44" s="132"/>
@@ -15473,7 +15461,7 @@
       <c r="L45" s="137"/>
       <c r="M45" s="133"/>
       <c r="N45" s="132" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
@@ -15489,7 +15477,7 @@
         <v>115</v>
       </c>
       <c r="Z45" s="131" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AA45" s="132"/>
       <c r="AB45" s="132"/>
@@ -15524,7 +15512,7 @@
       <c r="L46" s="133"/>
       <c r="M46" s="136"/>
       <c r="N46" s="132" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O46" s="136"/>
       <c r="P46" s="136"/>
@@ -15540,7 +15528,7 @@
         <v>115</v>
       </c>
       <c r="Z46" s="132" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AA46" s="132"/>
       <c r="AB46" s="132"/>
@@ -15554,7 +15542,7 @@
       <c r="AJ46" s="132"/>
       <c r="AK46" s="132"/>
       <c r="AL46" s="133" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="AM46" s="132"/>
       <c r="AN46" s="134"/>
@@ -15817,7 +15805,7 @@
         <v>278</v>
       </c>
       <c r="M52" s="132" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N52" s="132"/>
       <c r="O52" s="132"/>
@@ -15897,7 +15885,7 @@
       <c r="L54" s="135"/>
       <c r="M54" s="132"/>
       <c r="N54" s="132" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O54" s="133"/>
       <c r="P54" s="133"/>
@@ -15924,7 +15912,7 @@
       <c r="L55" s="135"/>
       <c r="M55" s="132"/>
       <c r="N55" s="132" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O55" s="133"/>
       <c r="P55" s="133"/>
@@ -15951,7 +15939,7 @@
       <c r="L56" s="135"/>
       <c r="M56" s="132"/>
       <c r="N56" s="132" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O56" s="133"/>
       <c r="P56" s="133"/>
@@ -16059,7 +16047,7 @@
       <c r="L60" s="135"/>
       <c r="M60" s="132"/>
       <c r="N60" s="132" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O60" s="133"/>
       <c r="P60" s="133"/>
@@ -16235,7 +16223,7 @@
       <c r="F65" s="67"/>
       <c r="G65" s="66"/>
       <c r="L65" s="66" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M65" s="114" t="s">
         <v>285</v>
@@ -16318,7 +16306,7 @@
       <c r="L67" s="66"/>
       <c r="M67" s="114"/>
       <c r="N67" s="132" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AL67" s="114"/>
       <c r="AM67" s="114"/>
@@ -16333,7 +16321,7 @@
       <c r="G68" s="66"/>
       <c r="L68" s="66"/>
       <c r="N68" s="132" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O68" s="114"/>
       <c r="P68" s="114"/>
@@ -16447,7 +16435,7 @@
       <c r="G71" s="66"/>
       <c r="L71" s="66"/>
       <c r="N71" s="132" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O71" s="114"/>
       <c r="P71" s="114"/>
@@ -16556,7 +16544,7 @@
       <c r="G74" s="66"/>
       <c r="L74" s="66"/>
       <c r="N74" s="132" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O74" s="114"/>
       <c r="P74" s="114"/>
@@ -16571,7 +16559,7 @@
         <v>115</v>
       </c>
       <c r="Z74" s="131" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AA74" s="132"/>
       <c r="AB74" s="114"/>
@@ -16604,7 +16592,7 @@
         <v>115</v>
       </c>
       <c r="Z75" s="114" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA75" s="114"/>
       <c r="AB75" s="114"/>
@@ -16638,7 +16626,7 @@
         <v>115</v>
       </c>
       <c r="Z76" s="131" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AA76" s="132"/>
       <c r="AB76" s="114"/>
@@ -16671,7 +16659,7 @@
       <c r="V77" s="114"/>
       <c r="W77" s="114"/>
       <c r="Y77" s="114" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Z77" s="114"/>
       <c r="AA77" s="114"/>
@@ -16694,7 +16682,7 @@
       <c r="G78" s="66"/>
       <c r="L78" s="66"/>
       <c r="N78" s="132" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
@@ -16710,7 +16698,7 @@
         <v>115</v>
       </c>
       <c r="Z78" s="132" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AA78" s="132"/>
       <c r="AB78" s="132"/>
@@ -16736,12 +16724,12 @@
     <row r="79" spans="2:48" s="133" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B79" s="135"/>
       <c r="C79" s="135"/>
-      <c r="F79" s="207"/>
+      <c r="F79" s="140"/>
       <c r="G79" s="135"/>
       <c r="L79" s="135"/>
       <c r="M79" s="132"/>
       <c r="N79" s="132" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
@@ -16756,7 +16744,7 @@
         <v>115</v>
       </c>
       <c r="Z79" s="131" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AA79" s="132"/>
       <c r="AB79" s="132"/>
@@ -16768,7 +16756,7 @@
       <c r="AM79" s="132"/>
       <c r="AO79" s="132"/>
       <c r="AP79" s="132"/>
-      <c r="AV79" s="207"/>
+      <c r="AV79" s="140"/>
     </row>
     <row r="80" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B80" s="66"/>
@@ -16830,7 +16818,7 @@
       <c r="L82" s="66"/>
       <c r="M82" s="114"/>
       <c r="N82" s="132" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AL82" s="114"/>
       <c r="AM82" s="114"/>
@@ -17008,7 +16996,7 @@
       <c r="G87" s="66"/>
       <c r="L87" s="117"/>
       <c r="N87" s="114" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O87" s="114"/>
       <c r="P87" s="114"/>
@@ -17168,7 +17156,7 @@
       <c r="G91" s="66"/>
       <c r="L91" s="117"/>
       <c r="N91" s="132" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O91" s="114"/>
       <c r="P91" s="114"/>
@@ -17209,7 +17197,7 @@
       <c r="L92" s="117"/>
       <c r="M92" s="124"/>
       <c r="N92" s="132" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O92" s="114"/>
       <c r="P92" s="114"/>
@@ -17250,7 +17238,7 @@
       <c r="L93" s="117"/>
       <c r="M93" s="124"/>
       <c r="N93" s="132" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O93" s="114"/>
       <c r="P93" s="114"/>
@@ -17291,7 +17279,7 @@
       <c r="L94" s="117"/>
       <c r="M94" s="124"/>
       <c r="N94" s="132" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O94" s="114"/>
       <c r="P94" s="114"/>
@@ -17332,7 +17320,7 @@
       <c r="L95" s="117"/>
       <c r="M95" s="124"/>
       <c r="N95" s="132" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O95" s="114"/>
       <c r="P95" s="114"/>
@@ -17373,7 +17361,7 @@
       <c r="L96" s="117"/>
       <c r="M96" s="124"/>
       <c r="N96" s="132" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O96" s="114"/>
       <c r="P96" s="114"/>
@@ -17414,7 +17402,7 @@
       <c r="L97" s="117"/>
       <c r="M97" s="124"/>
       <c r="N97" s="132" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O97" s="114"/>
       <c r="P97" s="114"/>
@@ -17455,7 +17443,7 @@
       <c r="L98" s="117"/>
       <c r="M98" s="124"/>
       <c r="N98" s="132" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O98" s="114"/>
       <c r="P98" s="114"/>
@@ -18091,7 +18079,7 @@
       <c r="G113" s="66"/>
       <c r="L113" s="117"/>
       <c r="N113" s="114" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O113" s="114"/>
       <c r="P113" s="114"/>
@@ -18147,7 +18135,7 @@
         <v>115</v>
       </c>
       <c r="Z114" s="114" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA114" s="114"/>
       <c r="AB114" s="114"/>
@@ -18191,7 +18179,7 @@
         <v>115</v>
       </c>
       <c r="Z115" s="114" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AA115" s="114"/>
       <c r="AB115" s="114"/>
@@ -18235,7 +18223,7 @@
         <v>115</v>
       </c>
       <c r="Z116" s="114" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AA116" s="114"/>
       <c r="AB116" s="114"/>
@@ -18279,7 +18267,7 @@
         <v>115</v>
       </c>
       <c r="Z117" s="114" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA117" s="114"/>
       <c r="AB117" s="114"/>
@@ -18323,7 +18311,7 @@
         <v>115</v>
       </c>
       <c r="Z118" s="114" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AA118" s="114"/>
       <c r="AB118" s="114"/>
@@ -18861,7 +18849,7 @@
       <c r="G131" s="66"/>
       <c r="L131" s="117"/>
       <c r="N131" s="114" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O131" s="114"/>
       <c r="P131" s="114"/>
@@ -18901,27 +18889,27 @@
       <c r="G132" s="66"/>
       <c r="L132" s="117"/>
       <c r="N132" s="114"/>
-      <c r="O132" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="P132" s="114"/>
-      <c r="Q132" s="114"/>
-      <c r="R132" s="114"/>
-      <c r="S132" s="114"/>
-      <c r="T132" s="114"/>
-      <c r="U132" s="114"/>
-      <c r="V132" s="114"/>
-      <c r="W132" s="114"/>
-      <c r="X132" s="114"/>
-      <c r="Y132" s="114" t="s">
+      <c r="O132" s="132" t="s">
+        <v>446</v>
+      </c>
+      <c r="P132" s="132"/>
+      <c r="Q132" s="132"/>
+      <c r="R132" s="132"/>
+      <c r="S132" s="132"/>
+      <c r="T132" s="132"/>
+      <c r="U132" s="132"/>
+      <c r="V132" s="132"/>
+      <c r="W132" s="132"/>
+      <c r="X132" s="132"/>
+      <c r="Y132" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="Z132" s="114" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA132" s="114"/>
-      <c r="AB132" s="114"/>
-      <c r="AC132" s="114"/>
+      <c r="Z132" s="132" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA132" s="132"/>
+      <c r="AB132" s="132"/>
+      <c r="AC132" s="132"/>
       <c r="AD132" s="114"/>
       <c r="AE132" s="114"/>
       <c r="AF132" s="114"/>
@@ -18944,10 +18932,9 @@
       <c r="F133" s="67"/>
       <c r="G133" s="66"/>
       <c r="L133" s="117"/>
+      <c r="M133" s="114"/>
       <c r="N133" s="114"/>
-      <c r="O133" s="114" t="s">
-        <v>299</v>
-      </c>
+      <c r="O133" s="114"/>
       <c r="P133" s="114"/>
       <c r="Q133" s="114"/>
       <c r="R133" s="114"/>
@@ -18957,12 +18944,8 @@
       <c r="V133" s="114"/>
       <c r="W133" s="114"/>
       <c r="X133" s="114"/>
-      <c r="Y133" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z133" s="114" t="s">
-        <v>331</v>
-      </c>
+      <c r="Y133" s="114"/>
+      <c r="Z133" s="114"/>
       <c r="AA133" s="114"/>
       <c r="AB133" s="114"/>
       <c r="AC133" s="114"/>
@@ -18988,10 +18971,11 @@
       <c r="F134" s="67"/>
       <c r="G134" s="66"/>
       <c r="L134" s="117"/>
+      <c r="M134" s="114" t="s">
+        <v>253</v>
+      </c>
       <c r="N134" s="114"/>
-      <c r="O134" s="114" t="s">
-        <v>300</v>
-      </c>
+      <c r="O134" s="114"/>
       <c r="P134" s="114"/>
       <c r="Q134" s="114"/>
       <c r="R134" s="114"/>
@@ -19001,12 +18985,8 @@
       <c r="V134" s="114"/>
       <c r="W134" s="114"/>
       <c r="X134" s="114"/>
-      <c r="Y134" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z134" s="114" t="s">
-        <v>332</v>
-      </c>
+      <c r="Y134" s="114"/>
+      <c r="Z134" s="114"/>
       <c r="AA134" s="114"/>
       <c r="AB134" s="114"/>
       <c r="AC134" s="114"/>
@@ -19032,10 +19012,10 @@
       <c r="F135" s="67"/>
       <c r="G135" s="66"/>
       <c r="L135" s="117"/>
-      <c r="N135" s="114"/>
-      <c r="O135" s="114" t="s">
-        <v>301</v>
-      </c>
+      <c r="N135" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="O135" s="114"/>
       <c r="P135" s="114"/>
       <c r="Q135" s="114"/>
       <c r="R135" s="114"/>
@@ -19044,26 +19024,20 @@
       <c r="U135" s="114"/>
       <c r="V135" s="114"/>
       <c r="W135" s="114"/>
-      <c r="X135" s="114"/>
       <c r="Y135" s="114" t="s">
         <v>115</v>
       </c>
       <c r="Z135" s="114" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AA135" s="114"/>
       <c r="AB135" s="114"/>
       <c r="AC135" s="114"/>
-      <c r="AD135" s="114"/>
-      <c r="AE135" s="114"/>
-      <c r="AF135" s="114"/>
       <c r="AG135" s="114"/>
       <c r="AH135" s="114"/>
       <c r="AI135" s="114"/>
       <c r="AJ135" s="114"/>
-      <c r="AK135" s="114"/>
-      <c r="AL135" s="114"/>
-      <c r="AM135" s="114"/>
+      <c r="AK135" s="116"/>
       <c r="AN135" s="118"/>
       <c r="AO135" s="118"/>
       <c r="AP135" s="118"/>
@@ -19076,10 +19050,10 @@
       <c r="F136" s="67"/>
       <c r="G136" s="66"/>
       <c r="L136" s="117"/>
-      <c r="N136" s="114"/>
-      <c r="O136" s="114" t="s">
-        <v>302</v>
-      </c>
+      <c r="N136" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="O136" s="114"/>
       <c r="P136" s="114"/>
       <c r="Q136" s="114"/>
       <c r="R136" s="114"/>
@@ -19088,20 +19062,15 @@
       <c r="U136" s="114"/>
       <c r="V136" s="114"/>
       <c r="W136" s="114"/>
-      <c r="X136" s="114"/>
       <c r="Y136" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="Z136" s="114" t="s">
-        <v>334</v>
+      <c r="Z136" s="115" t="s">
+        <v>385</v>
       </c>
       <c r="AA136" s="114"/>
       <c r="AB136" s="114"/>
       <c r="AC136" s="114"/>
-      <c r="AD136" s="114"/>
-      <c r="AE136" s="114"/>
-      <c r="AF136" s="114"/>
-      <c r="AG136" s="114"/>
       <c r="AH136" s="114"/>
       <c r="AI136" s="114"/>
       <c r="AJ136" s="114"/>
@@ -19120,8 +19089,9 @@
       <c r="F137" s="67"/>
       <c r="G137" s="66"/>
       <c r="L137" s="117"/>
-      <c r="M137" s="114"/>
-      <c r="N137" s="114"/>
+      <c r="N137" s="114" t="s">
+        <v>173</v>
+      </c>
       <c r="O137" s="114"/>
       <c r="P137" s="114"/>
       <c r="Q137" s="114"/>
@@ -19130,23 +19100,24 @@
       <c r="T137" s="114"/>
       <c r="U137" s="114"/>
       <c r="V137" s="114"/>
-      <c r="W137" s="114"/>
-      <c r="X137" s="114"/>
-      <c r="Y137" s="114"/>
+      <c r="W137" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y137" s="114" t="s">
+        <v>332</v>
+      </c>
       <c r="Z137" s="114"/>
       <c r="AA137" s="114"/>
       <c r="AB137" s="114"/>
       <c r="AC137" s="114"/>
-      <c r="AD137" s="114"/>
-      <c r="AE137" s="114"/>
-      <c r="AF137" s="114"/>
       <c r="AG137" s="114"/>
       <c r="AH137" s="114"/>
       <c r="AI137" s="114"/>
       <c r="AJ137" s="114"/>
-      <c r="AK137" s="114"/>
-      <c r="AL137" s="114"/>
-      <c r="AM137" s="114"/>
+      <c r="AK137" s="116"/>
+      <c r="AL137" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="AN137" s="118"/>
       <c r="AO137" s="118"/>
       <c r="AP137" s="118"/>
@@ -19159,10 +19130,9 @@
       <c r="F138" s="67"/>
       <c r="G138" s="66"/>
       <c r="L138" s="117"/>
-      <c r="M138" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="N138" s="114"/>
+      <c r="N138" s="114" t="s">
+        <v>175</v>
+      </c>
       <c r="O138" s="114"/>
       <c r="P138" s="114"/>
       <c r="Q138" s="114"/>
@@ -19172,21 +19142,22 @@
       <c r="U138" s="114"/>
       <c r="V138" s="114"/>
       <c r="W138" s="114"/>
-      <c r="X138" s="114"/>
-      <c r="Y138" s="114"/>
-      <c r="Z138" s="114"/>
+      <c r="Y138" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z138" s="114" t="s">
+        <v>333</v>
+      </c>
       <c r="AA138" s="114"/>
       <c r="AB138" s="114"/>
       <c r="AC138" s="114"/>
-      <c r="AD138" s="114"/>
-      <c r="AE138" s="114"/>
-      <c r="AF138" s="114"/>
-      <c r="AG138" s="114"/>
       <c r="AH138" s="114"/>
       <c r="AI138" s="114"/>
       <c r="AJ138" s="114"/>
       <c r="AK138" s="114"/>
-      <c r="AL138" s="114"/>
+      <c r="AL138" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="AM138" s="114"/>
       <c r="AN138" s="118"/>
       <c r="AO138" s="118"/>
@@ -19201,7 +19172,7 @@
       <c r="G139" s="66"/>
       <c r="L139" s="117"/>
       <c r="N139" s="114" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="O139" s="114"/>
       <c r="P139" s="114"/>
@@ -19216,16 +19187,19 @@
         <v>115</v>
       </c>
       <c r="Z139" s="114" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AA139" s="114"/>
       <c r="AB139" s="114"/>
       <c r="AC139" s="114"/>
-      <c r="AG139" s="114"/>
       <c r="AH139" s="114"/>
       <c r="AI139" s="114"/>
       <c r="AJ139" s="114"/>
-      <c r="AK139" s="116"/>
+      <c r="AK139" s="114"/>
+      <c r="AL139" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM139" s="114"/>
       <c r="AN139" s="118"/>
       <c r="AO139" s="118"/>
       <c r="AP139" s="118"/>
@@ -19239,7 +19213,7 @@
       <c r="G140" s="66"/>
       <c r="L140" s="117"/>
       <c r="N140" s="114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O140" s="114"/>
       <c r="P140" s="114"/>
@@ -19253,8 +19227,8 @@
       <c r="Y140" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="Z140" s="115" t="s">
-        <v>390</v>
+      <c r="Z140" s="114" t="s">
+        <v>335</v>
       </c>
       <c r="AA140" s="114"/>
       <c r="AB140" s="114"/>
@@ -19263,7 +19237,9 @@
       <c r="AI140" s="114"/>
       <c r="AJ140" s="114"/>
       <c r="AK140" s="114"/>
-      <c r="AL140" s="114"/>
+      <c r="AL140" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="AM140" s="114"/>
       <c r="AN140" s="118"/>
       <c r="AO140" s="118"/>
@@ -19278,7 +19254,7 @@
       <c r="G141" s="66"/>
       <c r="L141" s="117"/>
       <c r="N141" s="114" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O141" s="114"/>
       <c r="P141" s="114"/>
@@ -19288,24 +19264,24 @@
       <c r="T141" s="114"/>
       <c r="U141" s="114"/>
       <c r="V141" s="114"/>
-      <c r="W141" s="114" t="s">
+      <c r="W141" s="114"/>
+      <c r="Y141" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z141" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="Y141" s="114" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z141" s="114"/>
       <c r="AA141" s="114"/>
       <c r="AB141" s="114"/>
       <c r="AC141" s="114"/>
-      <c r="AG141" s="114"/>
       <c r="AH141" s="114"/>
       <c r="AI141" s="114"/>
       <c r="AJ141" s="114"/>
-      <c r="AK141" s="116"/>
+      <c r="AK141" s="114"/>
       <c r="AL141" s="15" t="s">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AM141" s="114"/>
       <c r="AN141" s="118"/>
       <c r="AO141" s="118"/>
       <c r="AP141" s="118"/>
@@ -19319,7 +19295,7 @@
       <c r="G142" s="66"/>
       <c r="L142" s="117"/>
       <c r="N142" s="114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O142" s="114"/>
       <c r="P142" s="114"/>
@@ -19334,7 +19310,7 @@
         <v>115</v>
       </c>
       <c r="Z142" s="114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA142" s="114"/>
       <c r="AB142" s="114"/>
@@ -19344,7 +19320,7 @@
       <c r="AJ142" s="114"/>
       <c r="AK142" s="114"/>
       <c r="AL142" s="15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AM142" s="114"/>
       <c r="AN142" s="118"/>
@@ -19360,7 +19336,7 @@
       <c r="G143" s="66"/>
       <c r="L143" s="117"/>
       <c r="N143" s="114" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="O143" s="114"/>
       <c r="P143" s="114"/>
@@ -19371,11 +19347,11 @@
       <c r="U143" s="114"/>
       <c r="V143" s="114"/>
       <c r="W143" s="114"/>
+      <c r="X143" s="15" t="s">
+        <v>330</v>
+      </c>
       <c r="Y143" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z143" s="114" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="AA143" s="114"/>
       <c r="AB143" s="114"/>
@@ -19385,7 +19361,7 @@
       <c r="AJ143" s="114"/>
       <c r="AK143" s="114"/>
       <c r="AL143" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM143" s="114"/>
       <c r="AN143" s="118"/>
@@ -19399,40 +19375,14 @@
       <c r="C144" s="66"/>
       <c r="F144" s="67"/>
       <c r="G144" s="66"/>
-      <c r="L144" s="117"/>
-      <c r="N144" s="114" t="s">
-        <v>263</v>
-      </c>
+      <c r="L144" s="66"/>
+      <c r="M144" s="114"/>
+      <c r="N144" s="114"/>
       <c r="O144" s="114"/>
-      <c r="P144" s="114"/>
-      <c r="Q144" s="114"/>
-      <c r="R144" s="114"/>
-      <c r="S144" s="114"/>
-      <c r="T144" s="114"/>
-      <c r="U144" s="114"/>
-      <c r="V144" s="114"/>
-      <c r="W144" s="114"/>
-      <c r="Y144" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z144" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA144" s="114"/>
-      <c r="AB144" s="114"/>
-      <c r="AC144" s="114"/>
-      <c r="AH144" s="114"/>
-      <c r="AI144" s="114"/>
-      <c r="AJ144" s="114"/>
-      <c r="AK144" s="114"/>
-      <c r="AL144" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="AM144" s="114"/>
-      <c r="AN144" s="118"/>
-      <c r="AO144" s="118"/>
-      <c r="AP144" s="118"/>
-      <c r="AQ144" s="118"/>
+      <c r="AN144" s="114"/>
+      <c r="AO144" s="114"/>
+      <c r="AP144" s="114"/>
       <c r="AV144" s="67"/>
     </row>
     <row r="145" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19440,40 +19390,23 @@
       <c r="C145" s="66"/>
       <c r="F145" s="67"/>
       <c r="G145" s="66"/>
-      <c r="L145" s="117"/>
-      <c r="N145" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="O145" s="114"/>
-      <c r="P145" s="114"/>
-      <c r="Q145" s="114"/>
-      <c r="R145" s="114"/>
-      <c r="S145" s="114"/>
-      <c r="T145" s="114"/>
-      <c r="U145" s="114"/>
-      <c r="V145" s="114"/>
-      <c r="W145" s="114"/>
-      <c r="Y145" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z145" s="114" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA145" s="114"/>
-      <c r="AB145" s="114"/>
-      <c r="AC145" s="114"/>
-      <c r="AH145" s="114"/>
-      <c r="AI145" s="114"/>
-      <c r="AJ145" s="114"/>
-      <c r="AK145" s="114"/>
-      <c r="AL145" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="L145" s="66"/>
+      <c r="M145" s="132" t="s">
+        <v>279</v>
+      </c>
+      <c r="N145" s="133"/>
+      <c r="O145" s="133"/>
+      <c r="P145" s="133"/>
+      <c r="Q145" s="133"/>
+      <c r="R145" s="133"/>
+      <c r="S145" s="133"/>
+      <c r="T145" s="133"/>
+      <c r="U145" s="133"/>
+      <c r="V145" s="133"/>
+      <c r="AL145" s="114"/>
       <c r="AM145" s="114"/>
-      <c r="AN145" s="118"/>
-      <c r="AO145" s="118"/>
-      <c r="AP145" s="118"/>
-      <c r="AQ145" s="118"/>
+      <c r="AO145" s="114"/>
+      <c r="AP145" s="114"/>
       <c r="AV145" s="67"/>
     </row>
     <row r="146" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19481,40 +19414,23 @@
       <c r="C146" s="66"/>
       <c r="F146" s="67"/>
       <c r="G146" s="66"/>
-      <c r="L146" s="117"/>
-      <c r="N146" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="O146" s="114"/>
-      <c r="P146" s="114"/>
-      <c r="Q146" s="114"/>
-      <c r="R146" s="114"/>
-      <c r="S146" s="114"/>
-      <c r="T146" s="114"/>
-      <c r="U146" s="114"/>
-      <c r="V146" s="114"/>
-      <c r="W146" s="114"/>
-      <c r="Y146" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z146" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA146" s="114"/>
-      <c r="AB146" s="114"/>
-      <c r="AC146" s="114"/>
-      <c r="AH146" s="114"/>
-      <c r="AI146" s="114"/>
-      <c r="AJ146" s="114"/>
-      <c r="AK146" s="114"/>
-      <c r="AL146" s="15" t="s">
-        <v>182</v>
-      </c>
+      <c r="L146" s="66"/>
+      <c r="M146" s="132"/>
+      <c r="N146" s="132" t="s">
+        <v>441</v>
+      </c>
+      <c r="O146" s="133"/>
+      <c r="P146" s="133"/>
+      <c r="Q146" s="133"/>
+      <c r="R146" s="133"/>
+      <c r="S146" s="133"/>
+      <c r="T146" s="133"/>
+      <c r="U146" s="133"/>
+      <c r="V146" s="133"/>
+      <c r="AL146" s="114"/>
       <c r="AM146" s="114"/>
-      <c r="AN146" s="118"/>
-      <c r="AO146" s="118"/>
-      <c r="AP146" s="118"/>
-      <c r="AQ146" s="118"/>
+      <c r="AO146" s="114"/>
+      <c r="AP146" s="114"/>
       <c r="AV146" s="67"/>
     </row>
     <row r="147" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19522,40 +19438,23 @@
       <c r="C147" s="66"/>
       <c r="F147" s="67"/>
       <c r="G147" s="66"/>
-      <c r="L147" s="117"/>
-      <c r="N147" s="114" t="s">
-        <v>380</v>
-      </c>
-      <c r="O147" s="114"/>
-      <c r="P147" s="114"/>
-      <c r="Q147" s="114"/>
-      <c r="R147" s="114"/>
-      <c r="S147" s="114"/>
-      <c r="T147" s="114"/>
-      <c r="U147" s="114"/>
-      <c r="V147" s="114"/>
-      <c r="W147" s="114"/>
-      <c r="X147" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y147" s="114" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA147" s="114"/>
-      <c r="AB147" s="114"/>
-      <c r="AC147" s="114"/>
-      <c r="AH147" s="114"/>
-      <c r="AI147" s="114"/>
-      <c r="AJ147" s="114"/>
-      <c r="AK147" s="114"/>
-      <c r="AL147" s="15" t="s">
-        <v>181</v>
-      </c>
+      <c r="L147" s="66"/>
+      <c r="M147" s="132"/>
+      <c r="N147" s="132" t="s">
+        <v>442</v>
+      </c>
+      <c r="O147" s="133"/>
+      <c r="P147" s="133"/>
+      <c r="Q147" s="133"/>
+      <c r="R147" s="133"/>
+      <c r="S147" s="133"/>
+      <c r="T147" s="133"/>
+      <c r="U147" s="133"/>
+      <c r="V147" s="133"/>
+      <c r="AL147" s="114"/>
       <c r="AM147" s="114"/>
-      <c r="AN147" s="118"/>
-      <c r="AO147" s="118"/>
-      <c r="AP147" s="118"/>
-      <c r="AQ147" s="118"/>
+      <c r="AO147" s="114"/>
+      <c r="AP147" s="114"/>
       <c r="AV147" s="67"/>
     </row>
     <row r="148" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19564,11 +19463,20 @@
       <c r="F148" s="67"/>
       <c r="G148" s="66"/>
       <c r="L148" s="66"/>
-      <c r="M148" s="114"/>
-      <c r="N148" s="114"/>
-      <c r="O148" s="114"/>
+      <c r="M148" s="132"/>
+      <c r="N148" s="132" t="s">
+        <v>443</v>
+      </c>
+      <c r="O148" s="133"/>
+      <c r="P148" s="133"/>
+      <c r="Q148" s="133"/>
+      <c r="R148" s="133"/>
+      <c r="S148" s="133"/>
+      <c r="T148" s="133"/>
+      <c r="U148" s="133"/>
+      <c r="V148" s="133"/>
+      <c r="AL148" s="114"/>
       <c r="AM148" s="114"/>
-      <c r="AN148" s="114"/>
       <c r="AO148" s="114"/>
       <c r="AP148" s="114"/>
       <c r="AV148" s="67"/>
@@ -19579,10 +19487,10 @@
       <c r="F149" s="67"/>
       <c r="G149" s="66"/>
       <c r="L149" s="66"/>
-      <c r="M149" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="N149" s="133"/>
+      <c r="M149" s="132"/>
+      <c r="N149" s="132" t="s">
+        <v>444</v>
+      </c>
       <c r="O149" s="133"/>
       <c r="P149" s="133"/>
       <c r="Q149" s="133"/>
@@ -19605,7 +19513,7 @@
       <c r="L150" s="66"/>
       <c r="M150" s="132"/>
       <c r="N150" s="132" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O150" s="133"/>
       <c r="P150" s="133"/>
@@ -19627,20 +19535,11 @@
       <c r="F151" s="67"/>
       <c r="G151" s="66"/>
       <c r="L151" s="66"/>
-      <c r="M151" s="132"/>
-      <c r="N151" s="132" t="s">
-        <v>447</v>
-      </c>
-      <c r="O151" s="133"/>
-      <c r="P151" s="133"/>
-      <c r="Q151" s="133"/>
-      <c r="R151" s="133"/>
-      <c r="S151" s="133"/>
-      <c r="T151" s="133"/>
-      <c r="U151" s="133"/>
-      <c r="V151" s="133"/>
-      <c r="AL151" s="114"/>
+      <c r="M151" s="114"/>
+      <c r="N151" s="114"/>
+      <c r="O151" s="114"/>
       <c r="AM151" s="114"/>
+      <c r="AN151" s="114"/>
       <c r="AO151" s="114"/>
       <c r="AP151" s="114"/>
       <c r="AV151" s="67"/>
@@ -19651,20 +19550,11 @@
       <c r="F152" s="67"/>
       <c r="G152" s="66"/>
       <c r="L152" s="66"/>
-      <c r="M152" s="132"/>
-      <c r="N152" s="132" t="s">
-        <v>448</v>
-      </c>
-      <c r="O152" s="133"/>
-      <c r="P152" s="133"/>
-      <c r="Q152" s="133"/>
-      <c r="R152" s="133"/>
-      <c r="S152" s="133"/>
-      <c r="T152" s="133"/>
-      <c r="U152" s="133"/>
-      <c r="V152" s="133"/>
-      <c r="AL152" s="114"/>
+      <c r="M152" s="114" t="s">
+        <v>116</v>
+      </c>
       <c r="AM152" s="114"/>
+      <c r="AN152" s="114"/>
       <c r="AO152" s="114"/>
       <c r="AP152" s="114"/>
       <c r="AV152" s="67"/>
@@ -19674,23 +19564,18 @@
       <c r="C153" s="66"/>
       <c r="F153" s="67"/>
       <c r="G153" s="66"/>
-      <c r="L153" s="66"/>
-      <c r="M153" s="132"/>
-      <c r="N153" s="132" t="s">
-        <v>449</v>
-      </c>
-      <c r="O153" s="133"/>
-      <c r="P153" s="133"/>
-      <c r="Q153" s="133"/>
-      <c r="R153" s="133"/>
-      <c r="S153" s="133"/>
-      <c r="T153" s="133"/>
-      <c r="U153" s="133"/>
-      <c r="V153" s="133"/>
+      <c r="L153" s="117"/>
+      <c r="N153" s="114" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ153" s="114"/>
+      <c r="AK153" s="114"/>
       <c r="AL153" s="114"/>
       <c r="AM153" s="114"/>
-      <c r="AO153" s="114"/>
-      <c r="AP153" s="114"/>
+      <c r="AN153" s="118"/>
+      <c r="AO153" s="118"/>
+      <c r="AP153" s="118"/>
+      <c r="AQ153" s="118"/>
       <c r="AV153" s="67"/>
     </row>
     <row r="154" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19698,23 +19583,18 @@
       <c r="C154" s="66"/>
       <c r="F154" s="67"/>
       <c r="G154" s="66"/>
-      <c r="L154" s="66"/>
-      <c r="M154" s="132"/>
+      <c r="L154" s="117"/>
       <c r="N154" s="132" t="s">
-        <v>450</v>
-      </c>
-      <c r="O154" s="133"/>
-      <c r="P154" s="133"/>
-      <c r="Q154" s="133"/>
-      <c r="R154" s="133"/>
-      <c r="S154" s="133"/>
-      <c r="T154" s="133"/>
-      <c r="U154" s="133"/>
-      <c r="V154" s="133"/>
+        <v>374</v>
+      </c>
+      <c r="AJ154" s="114"/>
+      <c r="AK154" s="114"/>
       <c r="AL154" s="114"/>
       <c r="AM154" s="114"/>
-      <c r="AO154" s="114"/>
-      <c r="AP154" s="114"/>
+      <c r="AN154" s="118"/>
+      <c r="AO154" s="118"/>
+      <c r="AP154" s="118"/>
+      <c r="AQ154" s="118"/>
       <c r="AV154" s="67"/>
     </row>
     <row r="155" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19722,14 +19602,39 @@
       <c r="C155" s="66"/>
       <c r="F155" s="67"/>
       <c r="G155" s="66"/>
-      <c r="L155" s="66"/>
-      <c r="M155" s="114"/>
-      <c r="N155" s="114"/>
+      <c r="L155" s="117"/>
+      <c r="N155" s="132" t="s">
+        <v>256</v>
+      </c>
       <c r="O155" s="114"/>
+      <c r="P155" s="114"/>
+      <c r="Q155" s="114"/>
+      <c r="R155" s="114"/>
+      <c r="S155" s="114"/>
+      <c r="T155" s="114"/>
+      <c r="U155" s="114"/>
+      <c r="V155" s="114"/>
+      <c r="W155" s="114"/>
+      <c r="X155" s="114"/>
+      <c r="Y155" s="114"/>
+      <c r="Z155" s="114"/>
+      <c r="AA155" s="114"/>
+      <c r="AB155" s="114"/>
+      <c r="AC155" s="114"/>
+      <c r="AD155" s="114"/>
+      <c r="AE155" s="114"/>
+      <c r="AF155" s="114"/>
+      <c r="AG155" s="114"/>
+      <c r="AH155" s="114"/>
+      <c r="AI155" s="114"/>
+      <c r="AJ155" s="114"/>
+      <c r="AK155" s="114"/>
+      <c r="AL155" s="114"/>
       <c r="AM155" s="114"/>
-      <c r="AN155" s="114"/>
-      <c r="AO155" s="114"/>
-      <c r="AP155" s="114"/>
+      <c r="AN155" s="118"/>
+      <c r="AO155" s="118"/>
+      <c r="AP155" s="118"/>
+      <c r="AQ155" s="118"/>
       <c r="AV155" s="67"/>
     </row>
     <row r="156" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19737,14 +19642,39 @@
       <c r="C156" s="66"/>
       <c r="F156" s="67"/>
       <c r="G156" s="66"/>
-      <c r="L156" s="66"/>
-      <c r="M156" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM156" s="114"/>
-      <c r="AN156" s="114"/>
-      <c r="AO156" s="114"/>
-      <c r="AP156" s="114"/>
+      <c r="K156" s="67"/>
+      <c r="L156" s="117"/>
+      <c r="M156" s="118"/>
+      <c r="N156" s="118"/>
+      <c r="O156" s="118"/>
+      <c r="P156" s="118"/>
+      <c r="Q156" s="118"/>
+      <c r="R156" s="118"/>
+      <c r="S156" s="118"/>
+      <c r="T156" s="118"/>
+      <c r="U156" s="118"/>
+      <c r="V156" s="118"/>
+      <c r="W156" s="118"/>
+      <c r="X156" s="118"/>
+      <c r="Y156" s="118"/>
+      <c r="Z156" s="118"/>
+      <c r="AA156" s="118"/>
+      <c r="AB156" s="118"/>
+      <c r="AC156" s="118"/>
+      <c r="AD156" s="118"/>
+      <c r="AE156" s="118"/>
+      <c r="AF156" s="118"/>
+      <c r="AG156" s="118"/>
+      <c r="AH156" s="118"/>
+      <c r="AI156" s="118"/>
+      <c r="AJ156" s="118"/>
+      <c r="AK156" s="118"/>
+      <c r="AL156" s="118"/>
+      <c r="AM156" s="118"/>
+      <c r="AN156" s="118"/>
+      <c r="AO156" s="118"/>
+      <c r="AP156" s="118"/>
+      <c r="AQ156" s="118"/>
       <c r="AV156" s="67"/>
     </row>
     <row r="157" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19752,18 +19682,39 @@
       <c r="C157" s="66"/>
       <c r="F157" s="67"/>
       <c r="G157" s="66"/>
-      <c r="L157" s="117"/>
-      <c r="N157" s="114" t="s">
-        <v>254</v>
-      </c>
+      <c r="L157" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="M157" s="114"/>
+      <c r="N157" s="114"/>
+      <c r="O157" s="114"/>
+      <c r="P157" s="114"/>
+      <c r="Q157" s="114"/>
+      <c r="R157" s="114"/>
+      <c r="S157" s="114"/>
+      <c r="T157" s="114"/>
+      <c r="U157" s="114"/>
+      <c r="V157" s="114"/>
+      <c r="W157" s="114"/>
+      <c r="X157" s="114"/>
+      <c r="Y157" s="114"/>
+      <c r="Z157" s="114"/>
+      <c r="AA157" s="114"/>
+      <c r="AB157" s="114"/>
+      <c r="AC157" s="114"/>
+      <c r="AD157" s="114"/>
+      <c r="AE157" s="114"/>
+      <c r="AF157" s="114"/>
+      <c r="AG157" s="114"/>
+      <c r="AH157" s="114"/>
+      <c r="AI157" s="114"/>
       <c r="AJ157" s="114"/>
       <c r="AK157" s="114"/>
       <c r="AL157" s="114"/>
       <c r="AM157" s="114"/>
-      <c r="AN157" s="118"/>
-      <c r="AO157" s="118"/>
-      <c r="AP157" s="118"/>
-      <c r="AQ157" s="118"/>
+      <c r="AN157" s="114"/>
+      <c r="AO157" s="114"/>
+      <c r="AP157" s="114"/>
       <c r="AV157" s="67"/>
     </row>
     <row r="158" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19771,18 +19722,39 @@
       <c r="C158" s="66"/>
       <c r="F158" s="67"/>
       <c r="G158" s="66"/>
-      <c r="L158" s="117"/>
-      <c r="N158" s="132" t="s">
-        <v>379</v>
-      </c>
+      <c r="L158" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="M158" s="114"/>
+      <c r="N158" s="114"/>
+      <c r="O158" s="114"/>
+      <c r="P158" s="114"/>
+      <c r="Q158" s="114"/>
+      <c r="R158" s="114"/>
+      <c r="S158" s="114"/>
+      <c r="T158" s="114"/>
+      <c r="U158" s="114"/>
+      <c r="V158" s="114"/>
+      <c r="W158" s="114"/>
+      <c r="X158" s="114"/>
+      <c r="Y158" s="114"/>
+      <c r="Z158" s="114"/>
+      <c r="AA158" s="114"/>
+      <c r="AB158" s="114"/>
+      <c r="AC158" s="114"/>
+      <c r="AD158" s="114"/>
+      <c r="AE158" s="114"/>
+      <c r="AF158" s="114"/>
+      <c r="AG158" s="114"/>
+      <c r="AH158" s="114"/>
+      <c r="AI158" s="114"/>
       <c r="AJ158" s="114"/>
       <c r="AK158" s="114"/>
       <c r="AL158" s="114"/>
       <c r="AM158" s="114"/>
-      <c r="AN158" s="118"/>
-      <c r="AO158" s="118"/>
-      <c r="AP158" s="118"/>
-      <c r="AQ158" s="118"/>
+      <c r="AN158" s="114"/>
+      <c r="AO158" s="114"/>
+      <c r="AP158" s="114"/>
       <c r="AV158" s="67"/>
     </row>
     <row r="159" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19790,10 +19762,11 @@
       <c r="C159" s="66"/>
       <c r="F159" s="67"/>
       <c r="G159" s="66"/>
-      <c r="L159" s="117"/>
-      <c r="N159" s="132" t="s">
-        <v>256</v>
-      </c>
+      <c r="L159" s="66"/>
+      <c r="M159" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="N159" s="114"/>
       <c r="O159" s="114"/>
       <c r="P159" s="114"/>
       <c r="Q159" s="114"/>
@@ -19819,10 +19792,9 @@
       <c r="AK159" s="114"/>
       <c r="AL159" s="114"/>
       <c r="AM159" s="114"/>
-      <c r="AN159" s="118"/>
-      <c r="AO159" s="118"/>
-      <c r="AP159" s="118"/>
-      <c r="AQ159" s="118"/>
+      <c r="AN159" s="114"/>
+      <c r="AO159" s="114"/>
+      <c r="AP159" s="114"/>
       <c r="AV159" s="67"/>
     </row>
     <row r="160" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19830,159 +19802,158 @@
       <c r="C160" s="66"/>
       <c r="F160" s="67"/>
       <c r="G160" s="66"/>
-      <c r="K160" s="67"/>
-      <c r="L160" s="117"/>
-      <c r="M160" s="118"/>
-      <c r="N160" s="118"/>
-      <c r="O160" s="118"/>
-      <c r="P160" s="118"/>
-      <c r="Q160" s="118"/>
-      <c r="R160" s="118"/>
-      <c r="S160" s="118"/>
-      <c r="T160" s="118"/>
-      <c r="U160" s="118"/>
-      <c r="V160" s="118"/>
-      <c r="W160" s="118"/>
-      <c r="X160" s="118"/>
-      <c r="Y160" s="118"/>
-      <c r="Z160" s="118"/>
-      <c r="AA160" s="118"/>
-      <c r="AB160" s="118"/>
-      <c r="AC160" s="118"/>
-      <c r="AD160" s="118"/>
-      <c r="AE160" s="118"/>
-      <c r="AF160" s="118"/>
-      <c r="AG160" s="118"/>
-      <c r="AH160" s="118"/>
-      <c r="AI160" s="118"/>
-      <c r="AJ160" s="118"/>
-      <c r="AK160" s="118"/>
-      <c r="AL160" s="118"/>
-      <c r="AM160" s="118"/>
-      <c r="AN160" s="118"/>
-      <c r="AO160" s="118"/>
-      <c r="AP160" s="118"/>
-      <c r="AQ160" s="118"/>
+      <c r="L160" s="66"/>
+      <c r="M160" s="114"/>
+      <c r="N160" s="114" t="s">
+        <v>383</v>
+      </c>
+      <c r="O160" s="114"/>
+      <c r="P160" s="114"/>
+      <c r="Q160" s="114"/>
+      <c r="R160" s="114"/>
+      <c r="S160" s="114"/>
+      <c r="T160" s="114"/>
+      <c r="U160" s="114"/>
+      <c r="V160" s="114"/>
+      <c r="W160" s="114"/>
+      <c r="X160" s="114"/>
+      <c r="Y160" s="114"/>
+      <c r="Z160" s="114"/>
+      <c r="AA160" s="114"/>
+      <c r="AB160" s="114"/>
+      <c r="AC160" s="114"/>
+      <c r="AD160" s="114"/>
+      <c r="AE160" s="114"/>
+      <c r="AF160" s="114"/>
+      <c r="AG160" s="114"/>
+      <c r="AH160" s="114"/>
+      <c r="AI160" s="114"/>
+      <c r="AJ160" s="114"/>
+      <c r="AK160" s="114"/>
+      <c r="AL160" s="114"/>
+      <c r="AM160" s="114"/>
+      <c r="AN160" s="114"/>
+      <c r="AO160" s="114"/>
+      <c r="AP160" s="114"/>
       <c r="AV160" s="67"/>
     </row>
     <row r="161" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B161" s="66"/>
-      <c r="C161" s="66"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="66"/>
-      <c r="L161" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="M161" s="114"/>
-      <c r="N161" s="114"/>
-      <c r="O161" s="114"/>
-      <c r="P161" s="114"/>
-      <c r="Q161" s="114"/>
-      <c r="R161" s="114"/>
-      <c r="S161" s="114"/>
-      <c r="T161" s="114"/>
-      <c r="U161" s="114"/>
-      <c r="V161" s="114"/>
-      <c r="W161" s="114"/>
-      <c r="X161" s="114"/>
-      <c r="Y161" s="114"/>
-      <c r="Z161" s="114"/>
-      <c r="AA161" s="114"/>
-      <c r="AB161" s="114"/>
-      <c r="AC161" s="114"/>
-      <c r="AD161" s="114"/>
-      <c r="AE161" s="114"/>
-      <c r="AF161" s="114"/>
-      <c r="AG161" s="114"/>
-      <c r="AH161" s="114"/>
-      <c r="AI161" s="114"/>
-      <c r="AJ161" s="114"/>
-      <c r="AK161" s="114"/>
-      <c r="AL161" s="114"/>
-      <c r="AM161" s="114"/>
-      <c r="AN161" s="114"/>
-      <c r="AO161" s="114"/>
-      <c r="AP161" s="114"/>
-      <c r="AV161" s="67"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="109"/>
+      <c r="M161" s="108"/>
+      <c r="N161" s="108"/>
+      <c r="O161" s="108"/>
+      <c r="P161" s="108"/>
+      <c r="Q161" s="108"/>
+      <c r="R161" s="108"/>
+      <c r="S161" s="108"/>
+      <c r="T161" s="109"/>
+      <c r="U161" s="109"/>
+      <c r="V161" s="109"/>
+      <c r="W161" s="109"/>
+      <c r="X161" s="109"/>
+      <c r="Y161" s="109"/>
+      <c r="Z161" s="109"/>
+      <c r="AA161" s="24"/>
+      <c r="AB161" s="24"/>
+      <c r="AC161" s="24"/>
+      <c r="AD161" s="24"/>
+      <c r="AE161" s="24"/>
+      <c r="AF161" s="24"/>
+      <c r="AG161" s="24"/>
+      <c r="AH161" s="24"/>
+      <c r="AI161" s="24"/>
+      <c r="AJ161" s="24"/>
+      <c r="AK161" s="24"/>
+      <c r="AL161" s="24"/>
+      <c r="AM161" s="24"/>
+      <c r="AN161" s="24"/>
+      <c r="AO161" s="24"/>
+      <c r="AP161" s="24"/>
+      <c r="AQ161" s="24"/>
+      <c r="AR161" s="24"/>
+      <c r="AS161" s="24"/>
+      <c r="AT161" s="24"/>
+      <c r="AU161" s="24"/>
+      <c r="AV161" s="25"/>
     </row>
     <row r="162" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="66"/>
-      <c r="L162" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="M162" s="114"/>
-      <c r="N162" s="114"/>
-      <c r="O162" s="114"/>
-      <c r="P162" s="114"/>
-      <c r="Q162" s="114"/>
-      <c r="R162" s="114"/>
-      <c r="S162" s="114"/>
-      <c r="T162" s="114"/>
-      <c r="U162" s="114"/>
-      <c r="V162" s="114"/>
-      <c r="W162" s="114"/>
-      <c r="X162" s="114"/>
-      <c r="Y162" s="114"/>
-      <c r="Z162" s="114"/>
-      <c r="AA162" s="114"/>
-      <c r="AB162" s="114"/>
-      <c r="AC162" s="114"/>
-      <c r="AD162" s="114"/>
-      <c r="AE162" s="114"/>
-      <c r="AF162" s="114"/>
-      <c r="AG162" s="114"/>
-      <c r="AH162" s="114"/>
-      <c r="AI162" s="114"/>
-      <c r="AJ162" s="114"/>
-      <c r="AK162" s="114"/>
-      <c r="AL162" s="114"/>
-      <c r="AM162" s="114"/>
-      <c r="AN162" s="114"/>
-      <c r="AO162" s="114"/>
-      <c r="AP162" s="114"/>
-      <c r="AV162" s="67"/>
+      <c r="B162" s="19">
+        <v>3</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M162" s="20"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="20"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+      <c r="T162" s="20"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="20"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="20"/>
+      <c r="AE162" s="20"/>
+      <c r="AF162" s="20"/>
+      <c r="AG162" s="20"/>
+      <c r="AH162" s="20"/>
+      <c r="AI162" s="20"/>
+      <c r="AJ162" s="20"/>
+      <c r="AK162" s="20"/>
+      <c r="AL162" s="20"/>
+      <c r="AM162" s="20"/>
+      <c r="AN162" s="20"/>
+      <c r="AO162" s="20"/>
+      <c r="AP162" s="20"/>
+      <c r="AQ162" s="20"/>
+      <c r="AR162" s="20"/>
+      <c r="AS162" s="20"/>
+      <c r="AT162" s="20"/>
+      <c r="AU162" s="20"/>
+      <c r="AV162" s="21"/>
     </row>
     <row r="163" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B163" s="66"/>
       <c r="C163" s="66"/>
       <c r="F163" s="67"/>
-      <c r="G163" s="66"/>
+      <c r="G163" s="66" t="s">
+        <v>76</v>
+      </c>
       <c r="L163" s="66"/>
-      <c r="M163" s="114" t="s">
-        <v>387</v>
-      </c>
-      <c r="N163" s="114"/>
-      <c r="O163" s="114"/>
-      <c r="P163" s="114"/>
-      <c r="Q163" s="114"/>
-      <c r="R163" s="114"/>
-      <c r="S163" s="114"/>
-      <c r="T163" s="114"/>
-      <c r="U163" s="114"/>
-      <c r="V163" s="114"/>
-      <c r="W163" s="114"/>
-      <c r="X163" s="114"/>
-      <c r="Y163" s="114"/>
-      <c r="Z163" s="114"/>
-      <c r="AA163" s="114"/>
-      <c r="AB163" s="114"/>
-      <c r="AC163" s="114"/>
-      <c r="AD163" s="114"/>
-      <c r="AE163" s="114"/>
-      <c r="AF163" s="114"/>
-      <c r="AG163" s="114"/>
-      <c r="AH163" s="114"/>
-      <c r="AI163" s="114"/>
-      <c r="AJ163" s="114"/>
-      <c r="AK163" s="114"/>
-      <c r="AL163" s="114"/>
-      <c r="AM163" s="114"/>
-      <c r="AN163" s="114"/>
-      <c r="AO163" s="114"/>
-      <c r="AP163" s="114"/>
+      <c r="M163" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="AV163" s="67"/>
     </row>
     <row r="164" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -19991,425 +19962,266 @@
       <c r="F164" s="67"/>
       <c r="G164" s="66"/>
       <c r="L164" s="66"/>
-      <c r="M164" s="114"/>
-      <c r="N164" s="114" t="s">
-        <v>388</v>
-      </c>
-      <c r="O164" s="114"/>
-      <c r="P164" s="114"/>
-      <c r="Q164" s="114"/>
-      <c r="R164" s="114"/>
-      <c r="S164" s="114"/>
-      <c r="T164" s="114"/>
-      <c r="U164" s="114"/>
-      <c r="V164" s="114"/>
-      <c r="W164" s="114"/>
-      <c r="X164" s="114"/>
-      <c r="Y164" s="114"/>
-      <c r="Z164" s="114"/>
-      <c r="AA164" s="114"/>
-      <c r="AB164" s="114"/>
-      <c r="AC164" s="114"/>
-      <c r="AD164" s="114"/>
-      <c r="AE164" s="114"/>
-      <c r="AF164" s="114"/>
-      <c r="AG164" s="114"/>
-      <c r="AH164" s="114"/>
-      <c r="AI164" s="114"/>
-      <c r="AJ164" s="114"/>
-      <c r="AK164" s="114"/>
-      <c r="AL164" s="114"/>
-      <c r="AM164" s="114"/>
-      <c r="AN164" s="114"/>
-      <c r="AO164" s="114"/>
-      <c r="AP164" s="114"/>
       <c r="AV164" s="67"/>
     </row>
     <row r="165" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="109"/>
-      <c r="M165" s="108"/>
-      <c r="N165" s="108"/>
-      <c r="O165" s="108"/>
-      <c r="P165" s="108"/>
-      <c r="Q165" s="108"/>
-      <c r="R165" s="108"/>
-      <c r="S165" s="108"/>
-      <c r="T165" s="109"/>
-      <c r="U165" s="109"/>
-      <c r="V165" s="109"/>
-      <c r="W165" s="109"/>
-      <c r="X165" s="109"/>
-      <c r="Y165" s="109"/>
-      <c r="Z165" s="109"/>
-      <c r="AA165" s="24"/>
-      <c r="AB165" s="24"/>
-      <c r="AC165" s="24"/>
-      <c r="AD165" s="24"/>
-      <c r="AE165" s="24"/>
-      <c r="AF165" s="24"/>
-      <c r="AG165" s="24"/>
-      <c r="AH165" s="24"/>
-      <c r="AI165" s="24"/>
-      <c r="AJ165" s="24"/>
-      <c r="AK165" s="24"/>
-      <c r="AL165" s="24"/>
-      <c r="AM165" s="24"/>
-      <c r="AN165" s="24"/>
-      <c r="AO165" s="24"/>
-      <c r="AP165" s="24"/>
-      <c r="AQ165" s="24"/>
-      <c r="AR165" s="24"/>
-      <c r="AS165" s="24"/>
-      <c r="AT165" s="24"/>
-      <c r="AU165" s="24"/>
-      <c r="AV165" s="25"/>
+      <c r="B165" s="19">
+        <v>4</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M165" s="20"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
+      <c r="P165" s="20"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
+      <c r="AE165" s="20"/>
+      <c r="AF165" s="20"/>
+      <c r="AG165" s="20"/>
+      <c r="AH165" s="20"/>
+      <c r="AI165" s="20"/>
+      <c r="AJ165" s="20"/>
+      <c r="AK165" s="20"/>
+      <c r="AL165" s="20"/>
+      <c r="AM165" s="20"/>
+      <c r="AN165" s="20"/>
+      <c r="AO165" s="20"/>
+      <c r="AP165" s="20"/>
+      <c r="AQ165" s="20"/>
+      <c r="AR165" s="20"/>
+      <c r="AS165" s="20"/>
+      <c r="AT165" s="20"/>
+      <c r="AU165" s="20"/>
+      <c r="AV165" s="21"/>
     </row>
     <row r="166" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B166" s="19">
-        <v>3</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="M166" s="20"/>
-      <c r="N166" s="20"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="20"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
-      <c r="AE166" s="20"/>
-      <c r="AF166" s="20"/>
-      <c r="AG166" s="20"/>
-      <c r="AH166" s="20"/>
-      <c r="AI166" s="20"/>
-      <c r="AJ166" s="20"/>
-      <c r="AK166" s="20"/>
-      <c r="AL166" s="20"/>
-      <c r="AM166" s="20"/>
-      <c r="AN166" s="20"/>
-      <c r="AO166" s="20"/>
-      <c r="AP166" s="20"/>
-      <c r="AQ166" s="20"/>
-      <c r="AR166" s="20"/>
-      <c r="AS166" s="20"/>
-      <c r="AT166" s="20"/>
-      <c r="AU166" s="20"/>
-      <c r="AV166" s="21"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
+      <c r="J166" s="22"/>
+      <c r="K166" s="67"/>
+      <c r="L166" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="M166" s="22"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="22"/>
+      <c r="S166" s="22"/>
+      <c r="T166" s="22"/>
+      <c r="U166" s="22"/>
+      <c r="V166" s="22"/>
+      <c r="W166" s="22"/>
+      <c r="X166" s="22"/>
+      <c r="Y166" s="22"/>
+      <c r="Z166" s="22"/>
+      <c r="AA166" s="22"/>
+      <c r="AB166" s="22"/>
+      <c r="AC166" s="22"/>
+      <c r="AD166" s="22"/>
+      <c r="AE166" s="22"/>
+      <c r="AF166" s="22"/>
+      <c r="AG166" s="22"/>
+      <c r="AH166" s="22"/>
+      <c r="AI166" s="22"/>
+      <c r="AJ166" s="22"/>
+      <c r="AK166" s="22"/>
+      <c r="AL166" s="22"/>
+      <c r="AM166" s="22"/>
+      <c r="AN166" s="22"/>
+      <c r="AO166" s="22"/>
+      <c r="AP166" s="22"/>
+      <c r="AQ166" s="22"/>
+      <c r="AR166" s="22"/>
+      <c r="AS166" s="22"/>
+      <c r="AT166" s="22"/>
+      <c r="AU166" s="22"/>
+      <c r="AV166" s="67"/>
     </row>
     <row r="167" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B167" s="66"/>
-      <c r="C167" s="66"/>
-      <c r="F167" s="67"/>
-      <c r="G167" s="66" t="s">
+      <c r="B167" s="23"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="25"/>
+      <c r="L167" s="23"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="24"/>
+      <c r="P167" s="24"/>
+      <c r="Q167" s="24"/>
+      <c r="R167" s="24"/>
+      <c r="S167" s="24"/>
+      <c r="T167" s="24"/>
+      <c r="U167" s="24"/>
+      <c r="V167" s="24"/>
+      <c r="W167" s="24"/>
+      <c r="X167" s="24"/>
+      <c r="Y167" s="24"/>
+      <c r="Z167" s="24"/>
+      <c r="AA167" s="24"/>
+      <c r="AB167" s="24"/>
+      <c r="AC167" s="24"/>
+      <c r="AD167" s="24"/>
+      <c r="AE167" s="24"/>
+      <c r="AF167" s="24"/>
+      <c r="AG167" s="24"/>
+      <c r="AH167" s="24"/>
+      <c r="AI167" s="24"/>
+      <c r="AJ167" s="24"/>
+      <c r="AK167" s="24"/>
+      <c r="AL167" s="24"/>
+      <c r="AM167" s="24"/>
+      <c r="AN167" s="24"/>
+      <c r="AO167" s="24"/>
+      <c r="AP167" s="24"/>
+      <c r="AQ167" s="24"/>
+      <c r="AR167" s="24"/>
+      <c r="AS167" s="24"/>
+      <c r="AT167" s="24"/>
+      <c r="AU167" s="24"/>
+      <c r="AV167" s="25"/>
+    </row>
+    <row r="168" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B168" s="19">
+        <v>5</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="M168" s="20"/>
+      <c r="N168" s="20"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AE168" s="20"/>
+      <c r="AF168" s="20"/>
+      <c r="AG168" s="20"/>
+      <c r="AH168" s="20"/>
+      <c r="AI168" s="20"/>
+      <c r="AJ168" s="20"/>
+      <c r="AK168" s="20"/>
+      <c r="AL168" s="20"/>
+      <c r="AM168" s="20"/>
+      <c r="AN168" s="20"/>
+      <c r="AO168" s="20"/>
+      <c r="AP168" s="20"/>
+      <c r="AQ168" s="20"/>
+      <c r="AR168" s="20"/>
+      <c r="AS168" s="20"/>
+      <c r="AT168" s="20"/>
+      <c r="AU168" s="20"/>
+      <c r="AV168" s="21"/>
+    </row>
+    <row r="169" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="L167" s="66"/>
-      <c r="M167" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV167" s="67"/>
-    </row>
-    <row r="168" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B168" s="66"/>
-      <c r="C168" s="66"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="66"/>
-      <c r="L168" s="66"/>
-      <c r="AV168" s="67"/>
-    </row>
-    <row r="169" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B169" s="19">
-        <v>4</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D169" s="20"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M169" s="20"/>
-      <c r="N169" s="20"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="20"/>
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="20"/>
-      <c r="U169" s="20"/>
-      <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
-      <c r="AE169" s="20"/>
-      <c r="AF169" s="20"/>
-      <c r="AG169" s="20"/>
-      <c r="AH169" s="20"/>
-      <c r="AI169" s="20"/>
-      <c r="AJ169" s="20"/>
-      <c r="AK169" s="20"/>
-      <c r="AL169" s="20"/>
-      <c r="AM169" s="20"/>
-      <c r="AN169" s="20"/>
-      <c r="AO169" s="20"/>
-      <c r="AP169" s="20"/>
-      <c r="AQ169" s="20"/>
-      <c r="AR169" s="20"/>
-      <c r="AS169" s="20"/>
-      <c r="AT169" s="20"/>
-      <c r="AU169" s="20"/>
-      <c r="AV169" s="21"/>
+      <c r="L169" s="66"/>
+      <c r="M169" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV169" s="67"/>
     </row>
     <row r="170" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B170" s="66"/>
       <c r="C170" s="66"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="22"/>
       <c r="F170" s="67"/>
-      <c r="G170" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H170" s="22"/>
-      <c r="I170" s="22"/>
-      <c r="J170" s="22"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M170" s="22"/>
-      <c r="N170" s="22"/>
-      <c r="O170" s="22"/>
-      <c r="P170" s="22"/>
-      <c r="Q170" s="22"/>
-      <c r="R170" s="22"/>
-      <c r="S170" s="22"/>
-      <c r="T170" s="22"/>
-      <c r="U170" s="22"/>
-      <c r="V170" s="22"/>
-      <c r="W170" s="22"/>
-      <c r="X170" s="22"/>
-      <c r="Y170" s="22"/>
-      <c r="Z170" s="22"/>
-      <c r="AA170" s="22"/>
-      <c r="AB170" s="22"/>
-      <c r="AC170" s="22"/>
-      <c r="AD170" s="22"/>
-      <c r="AE170" s="22"/>
-      <c r="AF170" s="22"/>
-      <c r="AG170" s="22"/>
-      <c r="AH170" s="22"/>
-      <c r="AI170" s="22"/>
-      <c r="AJ170" s="22"/>
-      <c r="AK170" s="22"/>
-      <c r="AL170" s="22"/>
-      <c r="AM170" s="22"/>
-      <c r="AN170" s="22"/>
-      <c r="AO170" s="22"/>
-      <c r="AP170" s="22"/>
-      <c r="AQ170" s="22"/>
-      <c r="AR170" s="22"/>
-      <c r="AS170" s="22"/>
-      <c r="AT170" s="22"/>
-      <c r="AU170" s="22"/>
+      <c r="G170" s="66"/>
+      <c r="L170" s="66"/>
+      <c r="N170" s="15" t="s">
+        <v>421</v>
+      </c>
       <c r="AV170" s="67"/>
     </row>
     <row r="171" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="24"/>
-      <c r="J171" s="24"/>
-      <c r="K171" s="25"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="24"/>
-      <c r="N171" s="24"/>
-      <c r="O171" s="24"/>
-      <c r="P171" s="24"/>
-      <c r="Q171" s="24"/>
-      <c r="R171" s="24"/>
-      <c r="S171" s="24"/>
-      <c r="T171" s="24"/>
-      <c r="U171" s="24"/>
-      <c r="V171" s="24"/>
-      <c r="W171" s="24"/>
-      <c r="X171" s="24"/>
-      <c r="Y171" s="24"/>
-      <c r="Z171" s="24"/>
-      <c r="AA171" s="24"/>
-      <c r="AB171" s="24"/>
-      <c r="AC171" s="24"/>
-      <c r="AD171" s="24"/>
-      <c r="AE171" s="24"/>
-      <c r="AF171" s="24"/>
-      <c r="AG171" s="24"/>
-      <c r="AH171" s="24"/>
-      <c r="AI171" s="24"/>
-      <c r="AJ171" s="24"/>
-      <c r="AK171" s="24"/>
-      <c r="AL171" s="24"/>
-      <c r="AM171" s="24"/>
-      <c r="AN171" s="24"/>
-      <c r="AO171" s="24"/>
-      <c r="AP171" s="24"/>
-      <c r="AQ171" s="24"/>
-      <c r="AR171" s="24"/>
-      <c r="AS171" s="24"/>
-      <c r="AT171" s="24"/>
-      <c r="AU171" s="24"/>
-      <c r="AV171" s="25"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="66"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="66"/>
+      <c r="L171" s="66"/>
+      <c r="M171" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV171" s="67"/>
     </row>
     <row r="172" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B172" s="19">
-        <v>5</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="M172" s="20"/>
-      <c r="N172" s="20"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="20"/>
-      <c r="Q172" s="20"/>
-      <c r="R172" s="20"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="20"/>
-      <c r="U172" s="20"/>
-      <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AD172" s="20"/>
-      <c r="AE172" s="20"/>
-      <c r="AF172" s="20"/>
-      <c r="AG172" s="20"/>
-      <c r="AH172" s="20"/>
-      <c r="AI172" s="20"/>
-      <c r="AJ172" s="20"/>
-      <c r="AK172" s="20"/>
-      <c r="AL172" s="20"/>
-      <c r="AM172" s="20"/>
-      <c r="AN172" s="20"/>
-      <c r="AO172" s="20"/>
-      <c r="AP172" s="20"/>
-      <c r="AQ172" s="20"/>
-      <c r="AR172" s="20"/>
-      <c r="AS172" s="20"/>
-      <c r="AT172" s="20"/>
-      <c r="AU172" s="20"/>
-      <c r="AV172" s="21"/>
-    </row>
-    <row r="173" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B173" s="66"/>
-      <c r="C173" s="66"/>
-      <c r="F173" s="67"/>
-      <c r="G173" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L173" s="66"/>
-      <c r="M173" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="AV173" s="67"/>
-    </row>
-    <row r="174" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B174" s="66"/>
-      <c r="C174" s="66"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="66"/>
-      <c r="L174" s="66"/>
-      <c r="N174" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="AV174" s="67"/>
-    </row>
-    <row r="175" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="66"/>
-      <c r="L175" s="66"/>
-      <c r="M175" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="AV175" s="67"/>
-    </row>
-    <row r="176" spans="2:48" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B176" s="66"/>
-      <c r="C176" s="66"/>
-      <c r="F176" s="67"/>
-      <c r="G176" s="66"/>
-      <c r="L176" s="66"/>
-      <c r="AV176" s="67"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="66"/>
+      <c r="L172" s="66"/>
+      <c r="AV172" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20491,14 +20303,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="188">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="203"/>
+      <c r="AK1" s="203"/>
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="204"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -20507,16 +20319,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="191" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="196"/>
+      <c r="AV1" s="196"/>
+      <c r="AW1" s="196"/>
+      <c r="AX1" s="196"/>
+      <c r="AY1" s="196"/>
+      <c r="AZ1" s="197"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -20544,32 +20356,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="202" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="204"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="197"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -20578,13 +20390,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="197"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -21920,14 +21732,14 @@
       <c r="AF1" s="33"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="34"/>
-      <c r="AI1" s="183">
+      <c r="AI1" s="188">
         <f>変更履歴!E5</f>
         <v>43734</v>
       </c>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="203"/>
+      <c r="AJ1" s="203"/>
+      <c r="AK1" s="203"/>
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="204"/>
       <c r="AN1" s="32" t="s">
         <v>25</v>
       </c>
@@ -21936,16 +21748,16 @@
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="34"/>
-      <c r="AT1" s="186" t="str">
+      <c r="AT1" s="191" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="196"/>
+      <c r="AU1" s="196"/>
+      <c r="AV1" s="196"/>
+      <c r="AW1" s="196"/>
+      <c r="AX1" s="196"/>
+      <c r="AY1" s="196"/>
+      <c r="AZ1" s="197"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -21973,32 +21785,32 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="201" t="str">
+      <c r="S2" s="202" t="str">
         <f>'１．機能概要'!W2</f>
         <v>成形実績参照</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="204"/>
       <c r="AE2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="33"/>
       <c r="AG2" s="33"/>
       <c r="AH2" s="34"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="197"/>
       <c r="AN2" s="32" t="s">
         <v>26</v>
       </c>
@@ -22007,13 +21819,13 @@
       <c r="AQ2" s="33"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="34"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="195"/>
-      <c r="AV2" s="195"/>
-      <c r="AW2" s="195"/>
-      <c r="AX2" s="195"/>
-      <c r="AY2" s="195"/>
-      <c r="AZ2" s="196"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="197"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="55"/>
@@ -22529,6 +22341,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -22686,12 +22504,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -22702,6 +22514,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22719,15 +22540,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
